--- a/src/main/doc/学习总结/项目管理模板.xlsx
+++ b/src/main/doc/学习总结/项目管理模板.xlsx
@@ -8,26 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\学习总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0B1927-7F1A-43C0-8A6F-FB4E5DD99AB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39C3CBF-370A-47CA-AA39-4061E2C035EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
     <sheet name="排期计划" sheetId="2" r:id="rId2"/>
     <sheet name="资源日历" sheetId="3" r:id="rId3"/>
     <sheet name="日报汇报样式" sheetId="14" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="15" r:id="rId5"/>
-    <sheet name="成本" sheetId="4" r:id="rId6"/>
-    <sheet name="风险及问题管理" sheetId="5" r:id="rId7"/>
-    <sheet name="角色及责任边界" sheetId="6" r:id="rId8"/>
-    <sheet name="项目章程" sheetId="7" r:id="rId9"/>
-    <sheet name="沟通机制" sheetId="9" r:id="rId10"/>
-    <sheet name="请假" sheetId="8" r:id="rId11"/>
-    <sheet name="干系人列表" sheetId="10" r:id="rId12"/>
-    <sheet name="节假日" sheetId="12" r:id="rId13"/>
-    <sheet name="干系人列表全览" sheetId="11" r:id="rId14"/>
-    <sheet name="任务完成标准" sheetId="13" r:id="rId15"/>
+    <sheet name="成本" sheetId="4" r:id="rId5"/>
+    <sheet name="风险及问题管理" sheetId="5" r:id="rId6"/>
+    <sheet name="角色及责任边界" sheetId="6" r:id="rId7"/>
+    <sheet name="项目章程" sheetId="7" r:id="rId8"/>
+    <sheet name="沟通机制" sheetId="9" r:id="rId9"/>
+    <sheet name="请假" sheetId="8" r:id="rId10"/>
+    <sheet name="干系人列表" sheetId="10" r:id="rId11"/>
+    <sheet name="节假日" sheetId="12" r:id="rId12"/>
+    <sheet name="干系人列表全览" sheetId="11" r:id="rId13"/>
+    <sheet name="任务完成标准" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -666,11 +665,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,21 +979,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40683F6B-2CEC-4535-8F82-ABD88B44B4FC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C8DE3A-3F3D-43A0-BF30-4305468AD8BB}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1042,7 +1026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9E1AF-E87F-4583-83FC-32FAEFFB4AF3}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1597,7 +1581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3CAC16-B2C3-4FCE-A5F8-31CF30B2BB50}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1617,7 +1601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76521C09-62D8-48D0-BF71-4E6B25C19FE6}">
   <dimension ref="A1:K18"/>
   <sheetViews>
@@ -1633,18 +1617,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="13" t="s">
         <v>45</v>
       </c>
@@ -1680,7 +1664,7 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -1710,7 +1694,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="15"/>
       <c r="C4" s="17" t="s">
         <v>58</v>
@@ -1726,7 +1710,7 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -1740,7 +1724,7 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="13"/>
@@ -1754,7 +1738,7 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -1766,7 +1750,7 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -1778,7 +1762,7 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -1793,7 +1777,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -1808,7 +1792,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1823,7 +1807,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="13"/>
@@ -1840,7 +1824,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1852,7 +1836,7 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -1864,7 +1848,7 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1876,7 +1860,7 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1888,7 +1872,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1900,7 +1884,7 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -1924,7 +1908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409C98A0-1891-4D85-AFE5-409BAFFEA473}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1944,7 +1928,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2317,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4021D1BC-DDFB-4C25-9D3D-821719E323AE}">
   <dimension ref="B1:AJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2407,13 +2391,13 @@
       <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="29" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="20" t="s">
@@ -2512,9 +2496,9 @@
     </row>
     <row r="4" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="28"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="19">
         <v>44166</v>
       </c>
@@ -2655,243 +2639,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61385B05-43AC-440A-8E67-E5F002A05CBE}">
-  <dimension ref="A1:AE2"/>
-  <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AE2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="20">
-        <v>44166</v>
-      </c>
-      <c r="B1" s="20">
-        <v>44167</v>
-      </c>
-      <c r="C1" s="20">
-        <v>44168</v>
-      </c>
-      <c r="D1" s="20">
-        <v>44169</v>
-      </c>
-      <c r="E1" s="20">
-        <v>44170</v>
-      </c>
-      <c r="F1" s="20">
-        <v>44171</v>
-      </c>
-      <c r="G1" s="20">
-        <v>44172</v>
-      </c>
-      <c r="H1" s="20">
-        <v>44173</v>
-      </c>
-      <c r="I1" s="20">
-        <v>44174</v>
-      </c>
-      <c r="J1" s="20">
-        <v>44175</v>
-      </c>
-      <c r="K1" s="20">
-        <v>44176</v>
-      </c>
-      <c r="L1" s="20">
-        <v>44177</v>
-      </c>
-      <c r="M1" s="20">
-        <v>44178</v>
-      </c>
-      <c r="N1" s="20">
-        <v>44179</v>
-      </c>
-      <c r="O1" s="20">
-        <v>44180</v>
-      </c>
-      <c r="P1" s="20">
-        <v>44181</v>
-      </c>
-      <c r="Q1" s="20">
-        <v>44182</v>
-      </c>
-      <c r="R1" s="20">
-        <v>44183</v>
-      </c>
-      <c r="S1" s="20">
-        <v>44184</v>
-      </c>
-      <c r="T1" s="20">
-        <v>44185</v>
-      </c>
-      <c r="U1" s="20">
-        <v>44186</v>
-      </c>
-      <c r="V1" s="20">
-        <v>44187</v>
-      </c>
-      <c r="W1" s="20">
-        <v>44188</v>
-      </c>
-      <c r="X1" s="20">
-        <v>44189</v>
-      </c>
-      <c r="Y1" s="20">
-        <v>44190</v>
-      </c>
-      <c r="Z1" s="20">
-        <v>44191</v>
-      </c>
-      <c r="AA1" s="20">
-        <v>44192</v>
-      </c>
-      <c r="AB1" s="20">
-        <v>44193</v>
-      </c>
-      <c r="AC1" s="20">
-        <v>44194</v>
-      </c>
-      <c r="AD1" s="20">
-        <v>44195</v>
-      </c>
-      <c r="AE1" s="20">
-        <v>44196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" t="str">
-        <f>CONCATENATE(TEXT(MONTH(A1),"00"),TEXT(DAY(A1),"00"))</f>
-        <v>1201</v>
-      </c>
-      <c r="B2" t="str">
-        <f t="shared" ref="B2:AE2" si="0">CONCATENATE(TEXT(MONTH(B1),"00"),TEXT(DAY(B1),"00"))</f>
-        <v>1202</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" si="0"/>
-        <v>1203</v>
-      </c>
-      <c r="D2" t="str">
-        <f t="shared" si="0"/>
-        <v>1204</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" si="0"/>
-        <v>1205</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" si="0"/>
-        <v>1206</v>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" si="0"/>
-        <v>1207</v>
-      </c>
-      <c r="H2" t="str">
-        <f t="shared" si="0"/>
-        <v>1208</v>
-      </c>
-      <c r="I2" t="str">
-        <f t="shared" si="0"/>
-        <v>1209</v>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" si="0"/>
-        <v>1210</v>
-      </c>
-      <c r="K2" t="str">
-        <f t="shared" si="0"/>
-        <v>1211</v>
-      </c>
-      <c r="L2" t="str">
-        <f t="shared" si="0"/>
-        <v>1212</v>
-      </c>
-      <c r="M2" t="str">
-        <f t="shared" si="0"/>
-        <v>1213</v>
-      </c>
-      <c r="N2" t="str">
-        <f t="shared" si="0"/>
-        <v>1214</v>
-      </c>
-      <c r="O2" t="str">
-        <f t="shared" si="0"/>
-        <v>1215</v>
-      </c>
-      <c r="P2" t="str">
-        <f t="shared" si="0"/>
-        <v>1216</v>
-      </c>
-      <c r="Q2" t="str">
-        <f t="shared" si="0"/>
-        <v>1217</v>
-      </c>
-      <c r="R2" t="str">
-        <f t="shared" si="0"/>
-        <v>1218</v>
-      </c>
-      <c r="S2" t="str">
-        <f t="shared" si="0"/>
-        <v>1219</v>
-      </c>
-      <c r="T2" t="str">
-        <f t="shared" si="0"/>
-        <v>1220</v>
-      </c>
-      <c r="U2" t="str">
-        <f t="shared" si="0"/>
-        <v>1221</v>
-      </c>
-      <c r="V2" t="str">
-        <f t="shared" si="0"/>
-        <v>1222</v>
-      </c>
-      <c r="W2" t="str">
-        <f t="shared" si="0"/>
-        <v>1223</v>
-      </c>
-      <c r="X2" t="str">
-        <f t="shared" si="0"/>
-        <v>1224</v>
-      </c>
-      <c r="Y2" t="str">
-        <f t="shared" si="0"/>
-        <v>1225</v>
-      </c>
-      <c r="Z2" t="str">
-        <f t="shared" si="0"/>
-        <v>1226</v>
-      </c>
-      <c r="AA2" t="str">
-        <f t="shared" si="0"/>
-        <v>1227</v>
-      </c>
-      <c r="AB2" t="str">
-        <f t="shared" si="0"/>
-        <v>1228</v>
-      </c>
-      <c r="AC2" t="str">
-        <f t="shared" si="0"/>
-        <v>1229</v>
-      </c>
-      <c r="AD2" t="str">
-        <f t="shared" si="0"/>
-        <v>1230</v>
-      </c>
-      <c r="AE2" t="str">
-        <f t="shared" si="0"/>
-        <v>1231</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB11EDC-FD90-4D8A-A879-301D8FAE6EDE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2904,11 +2651,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93193C7-BF85-49ED-9DC0-AFF2FB74C7EB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -2918,7 +2665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F9F35F-FEFD-4648-9450-43BABC70E3B7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2942,7 +2689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FECCE2-187B-4C09-8986-7E310541492F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2953,4 +2700,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40683F6B-2CEC-4535-8F82-ABD88B44B4FC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/doc/学习总结/项目管理模板.xlsx
+++ b/src/main/doc/学习总结/项目管理模板.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\学习总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39C3CBF-370A-47CA-AA39-4061E2C035EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8979EE5-D2BB-4CDA-AA2C-F2AD8B4ED5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
-    <sheet name="排期计划" sheetId="2" r:id="rId2"/>
-    <sheet name="资源日历" sheetId="3" r:id="rId3"/>
-    <sheet name="日报汇报样式" sheetId="14" r:id="rId4"/>
-    <sheet name="成本" sheetId="4" r:id="rId5"/>
-    <sheet name="风险及问题管理" sheetId="5" r:id="rId6"/>
-    <sheet name="角色及责任边界" sheetId="6" r:id="rId7"/>
-    <sheet name="项目章程" sheetId="7" r:id="rId8"/>
-    <sheet name="沟通机制" sheetId="9" r:id="rId9"/>
-    <sheet name="请假" sheetId="8" r:id="rId10"/>
-    <sheet name="干系人列表" sheetId="10" r:id="rId11"/>
-    <sheet name="节假日" sheetId="12" r:id="rId12"/>
-    <sheet name="干系人列表全览" sheetId="11" r:id="rId13"/>
-    <sheet name="任务完成标准" sheetId="13" r:id="rId14"/>
+    <sheet name="总体规划" sheetId="15" r:id="rId2"/>
+    <sheet name="排期计划" sheetId="2" r:id="rId3"/>
+    <sheet name="资源日历" sheetId="3" r:id="rId4"/>
+    <sheet name="日报汇报样式" sheetId="14" r:id="rId5"/>
+    <sheet name="成本" sheetId="4" r:id="rId6"/>
+    <sheet name="风险及问题管理" sheetId="5" r:id="rId7"/>
+    <sheet name="角色及责任边界" sheetId="6" r:id="rId8"/>
+    <sheet name="项目章程" sheetId="7" r:id="rId9"/>
+    <sheet name="沟通机制" sheetId="9" r:id="rId10"/>
+    <sheet name="请假" sheetId="8" r:id="rId11"/>
+    <sheet name="干系人列表" sheetId="10" r:id="rId12"/>
+    <sheet name="节假日" sheetId="12" r:id="rId13"/>
+    <sheet name="干系人列表全览" sheetId="11" r:id="rId14"/>
+    <sheet name="任务完成标准" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,8 +46,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={42297D93-E2F3-4243-9CF0-886AB5946C2D}</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{42297D93-E2F3-4243-9CF0-886AB5946C2D}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
+    单位是（人/月）</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
   <si>
     <t>分项目阶段的角色及责任边界</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +431,201 @@
   </si>
   <si>
     <t>1231</t>
+  </si>
+  <si>
+    <t>需求
+根据排期计划自动绘制人员资源日历，排期计划日期调整资源日历也同步调整。排期计划中如果有新增人员，自动绘制资源日历。资源日历中每一天的单元格中增加当天的排期计划中工作任务的引用。 
+基础资料：
+1. 工作日表
+2. 节假日表
+3. 人员清单
+4  请假清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细工作描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作量（人/天）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品组工作量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发组工作量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试组工作量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w2</t>
+  </si>
+  <si>
+    <t>w3</t>
+  </si>
+  <si>
+    <t>w4</t>
+  </si>
+  <si>
+    <t>1月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求调研及分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRD编写及评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目管理系统建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王武</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际人力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需补充人力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力资源系统建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘芳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -422,7 +636,7 @@
     <numFmt numFmtId="176" formatCode="[$-804]aaa;@"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,8 +683,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,8 +746,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -619,11 +858,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -671,6 +947,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -686,6 +1007,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="皇甫 青松" id="{71F2907C-CC5C-4173-A653-A8EA8B3EE6D9}" userId="1beb595f0c92952b" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -963,12 +1290,186 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H1" dT="2021-02-18T08:39:31.36" personId="{71F2907C-CC5C-4173-A653-A8EA8B3EE6D9}" id="{42297D93-E2F3-4243-9CF0-886AB5946C2D}">
+    <text>单位是（人/月）</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C6:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C6" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C6:I21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40683F6B-2CEC-4535-8F82-ABD88B44B4FC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -978,12 +1479,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C8DE3A-3F3D-43A0-BF30-4305468AD8BB}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF9E1AF-E87F-4583-83FC-32FAEFFB4AF3}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -1581,7 +2082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3CAC16-B2C3-4FCE-A5F8-31CF30B2BB50}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1601,12 +2102,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76521C09-62D8-48D0-BF71-4E6B25C19FE6}">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1908,12 +2409,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409C98A0-1891-4D85-AFE5-409BAFFEA473}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1924,27 +2425,963 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C4D2EC-755A-48F0-B896-2836A7909C5B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16811B0A-B549-44D2-B7B1-A44DDEF62805}">
+  <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="10.125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="10" max="10" width="6.5" customWidth="1"/>
+    <col min="11" max="34" width="3.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="41">
+        <v>44197</v>
+      </c>
+      <c r="F3" s="41">
+        <v>44316</v>
+      </c>
+      <c r="G3" s="42">
+        <v>90</v>
+      </c>
+      <c r="H3" s="42">
+        <v>16</v>
+      </c>
+      <c r="I3" s="42">
+        <v>120</v>
+      </c>
+      <c r="J3" s="42">
+        <v>50</v>
+      </c>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="47"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="47"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="47"/>
+      <c r="X7" s="47"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" s="36"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="40">
+        <v>2</v>
+      </c>
+      <c r="L8" s="40">
+        <v>2</v>
+      </c>
+      <c r="M8" s="40">
+        <v>2</v>
+      </c>
+      <c r="N8" s="40">
+        <v>2</v>
+      </c>
+      <c r="O8" s="40">
+        <v>2</v>
+      </c>
+      <c r="P8" s="40">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="40">
+        <v>45</v>
+      </c>
+      <c r="R8" s="40">
+        <v>45</v>
+      </c>
+      <c r="S8" s="40">
+        <v>45</v>
+      </c>
+      <c r="T8" s="40">
+        <v>45</v>
+      </c>
+      <c r="U8" s="40">
+        <v>45</v>
+      </c>
+      <c r="V8" s="40">
+        <v>45</v>
+      </c>
+      <c r="W8" s="40">
+        <v>45</v>
+      </c>
+      <c r="X8" s="40">
+        <v>30</v>
+      </c>
+      <c r="Y8" s="40">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="40">
+        <v>15</v>
+      </c>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="40"/>
+      <c r="AE8" s="40"/>
+      <c r="AF8" s="40"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="40"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9" s="36"/>
+      <c r="B9" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="41">
+        <v>44228</v>
+      </c>
+      <c r="F9" s="41">
+        <v>44377</v>
+      </c>
+      <c r="G9" s="42">
+        <v>110</v>
+      </c>
+      <c r="H9" s="42">
+        <v>16</v>
+      </c>
+      <c r="I9" s="42">
+        <v>120</v>
+      </c>
+      <c r="J9" s="42">
+        <v>50</v>
+      </c>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="47"/>
+      <c r="AB12" s="47"/>
+      <c r="AC12" s="47"/>
+      <c r="AD12" s="47"/>
+      <c r="AE12" s="47"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="47"/>
+      <c r="AG13" s="47"/>
+      <c r="AH13" s="47"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="40">
+        <v>2</v>
+      </c>
+      <c r="L14" s="40">
+        <v>2</v>
+      </c>
+      <c r="M14" s="40">
+        <v>2</v>
+      </c>
+      <c r="N14" s="40">
+        <v>2</v>
+      </c>
+      <c r="O14" s="40">
+        <v>2</v>
+      </c>
+      <c r="P14" s="40">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="40">
+        <v>45</v>
+      </c>
+      <c r="R14" s="40">
+        <v>45</v>
+      </c>
+      <c r="S14" s="40">
+        <v>45</v>
+      </c>
+      <c r="T14" s="40">
+        <v>45</v>
+      </c>
+      <c r="U14" s="40">
+        <v>45</v>
+      </c>
+      <c r="V14" s="40">
+        <v>45</v>
+      </c>
+      <c r="W14" s="40">
+        <v>45</v>
+      </c>
+      <c r="X14" s="40">
+        <v>30</v>
+      </c>
+      <c r="Y14" s="40">
+        <v>25</v>
+      </c>
+      <c r="Z14" s="40">
+        <v>15</v>
+      </c>
+      <c r="AA14" s="40"/>
+      <c r="AB14" s="40"/>
+      <c r="AC14" s="40"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="40"/>
+      <c r="AF14" s="40"/>
+      <c r="AG14" s="40"/>
+      <c r="AH14" s="40"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+    </row>
+    <row r="17" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C4D2EC-755A-48F0-B896-2836A7909C5B}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A76A0A-684E-4BE9-9365-48D75E1CDA0D}">
   <dimension ref="B1:AG27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2297,7 +3734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4021D1BC-DDFB-4C25-9D3D-821719E323AE}">
   <dimension ref="B1:AJ27"/>
   <sheetViews>
@@ -2638,7 +4075,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB11EDC-FD90-4D8A-A879-301D8FAE6EDE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2651,11 +4088,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C93193C7-BF85-49ED-9DC0-AFF2FB74C7EB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -2665,7 +4102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F9F35F-FEFD-4648-9450-43BABC70E3B7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2689,7 +4126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FECCE2-187B-4C09-8986-7E310541492F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2700,19 +4137,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40683F6B-2CEC-4535-8F82-ABD88B44B4FC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/main/doc/学习总结/项目管理模板.xlsx
+++ b/src/main/doc/学习总结/项目管理模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\学习总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8979EE5-D2BB-4CDA-AA2C-F2AD8B4ED5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5D729A-76B0-4C44-8E46-FFFB9A964974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="节假日" sheetId="12" r:id="rId13"/>
     <sheet name="干系人列表全览" sheetId="11" r:id="rId14"/>
     <sheet name="任务完成标准" sheetId="13" r:id="rId15"/>
+    <sheet name="休假统计模板" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="184">
   <si>
     <t>分项目阶段的角色及责任边界</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -625,6 +626,164 @@
   </si>
   <si>
     <t>张康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作交接人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0206</t>
+  </si>
+  <si>
+    <t>0207</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>0209</t>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <t>0211</t>
+  </si>
+  <si>
+    <t>0212</t>
+  </si>
+  <si>
+    <t>0213</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>0215</t>
+  </si>
+  <si>
+    <t>0216</t>
+  </si>
+  <si>
+    <t>0217</t>
+  </si>
+  <si>
+    <t>0218</t>
+  </si>
+  <si>
+    <t>0219</t>
+  </si>
+  <si>
+    <t>0220</t>
+  </si>
+  <si>
+    <t>0221</t>
+  </si>
+  <si>
+    <t>0222</t>
+  </si>
+  <si>
+    <t>0223</t>
+  </si>
+  <si>
+    <t>0224</t>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节及周末</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开发完成标准</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：
+    后端：
+    1. 接口开发完成，自己本地验证通过
+    2. 代码已提交代码仓库，且无代码冲突
+    3. 部署到开发环境且自己验证通过（边界验证/空值验证/判断逻辑验证）
+    前端：
+开发完成标准
+	前端开发完成标准
+		页面开发完成
+		根据接口文档和义务逻辑增加页面的判断逻辑/校验逻辑
+		部署到开发环境
+	后端开发完成标准
+		接口文档/详细设计文档编写及数据库表设计完成
+		接口文档及详细设计文档评审完毕
+		接口开发及自测完成（提供postman脚本）
+		接口部署到开发环境
+		提测资料准备
+	联调完成
+		mock逻辑联调
+		和关联方集成联调
+		前后端联调</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -684,14 +843,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,6 +921,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,7 +1065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -932,6 +1098,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,54 +1158,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1309,150 +1489,150 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="6" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1534,8 +1714,8 @@
   </sheetPr>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1853,7 +2033,6 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="4"/>
@@ -1972,7 +2151,6 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="4"/>
@@ -2023,7 +2201,6 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="4"/>
@@ -2118,18 +2295,18 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="13"/>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="13" t="s">
         <v>45</v>
       </c>
@@ -2165,7 +2342,7 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -2195,7 +2372,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="15"/>
       <c r="C4" s="17" t="s">
         <v>58</v>
@@ -2211,7 +2388,7 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -2225,7 +2402,7 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="41" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="13"/>
@@ -2239,7 +2416,7 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -2251,7 +2428,7 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -2263,7 +2440,7 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -2278,7 +2455,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -2293,7 +2470,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -2308,7 +2485,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="41" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="13"/>
@@ -2325,7 +2502,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="30"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -2337,7 +2514,7 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -2349,7 +2526,7 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -2361,7 +2538,7 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -2373,7 +2550,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -2385,7 +2562,7 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -2411,16 +2588,719 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409C98A0-1891-4D85-AFE5-409BAFFEA473}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection sqref="A1:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J28"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2889C7-746D-4B09-845B-842F77CC51DD}">
+  <dimension ref="A1:Z8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="24" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.75" customWidth="1"/>
+    <col min="26" max="26" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="O1" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="P1" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q1" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="R1" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="S1" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="T1" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="U1" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="V1" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="W1" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="X1" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="K2" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="M2" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="N2" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="O2" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="P2" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="R2" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="S2" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="T2" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="U2" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="V2" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="W2" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="X2" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="13">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="13">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="13">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2446,84 +3326,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30" t="s">
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30" t="s">
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30" t="s">
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30" t="s">
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30" t="s">
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
       <c r="K2" s="13" t="s">
         <v>122</v>
       </c>
@@ -2598,10 +3478,10 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>138</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -2610,26 +3490,26 @@
       <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="37">
         <v>44197</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="37">
         <v>44316</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="33">
         <v>90</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="33">
         <v>16</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="33">
         <v>120</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="33">
         <v>50</v>
       </c>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
@@ -2654,25 +3534,25 @@
       <c r="AH3" s="13"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
@@ -2694,31 +3574,31 @@
       <c r="AH4" s="13"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
       <c r="V5" s="13"/>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
@@ -2734,34 +3614,34 @@
       <c r="AH5" s="13"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
       <c r="Y6" s="13"/>
       <c r="Z6" s="13"/>
       <c r="AA6" s="13"/>
@@ -2774,20 +3654,20 @@
       <c r="AH6" s="13"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -2800,10 +3680,10 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
       <c r="V7" s="13"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="47"/>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
       <c r="AA7" s="13"/>
       <c r="AB7" s="13"/>
       <c r="AC7" s="13"/>
@@ -2814,78 +3694,78 @@
       <c r="AH7" s="13"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="40">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="28">
         <v>2</v>
       </c>
-      <c r="L8" s="40">
+      <c r="L8" s="28">
         <v>2</v>
       </c>
-      <c r="M8" s="40">
+      <c r="M8" s="28">
         <v>2</v>
       </c>
-      <c r="N8" s="40">
+      <c r="N8" s="28">
         <v>2</v>
       </c>
-      <c r="O8" s="40">
+      <c r="O8" s="28">
         <v>2</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="28">
         <v>45</v>
       </c>
-      <c r="Q8" s="40">
+      <c r="Q8" s="28">
         <v>45</v>
       </c>
-      <c r="R8" s="40">
+      <c r="R8" s="28">
         <v>45</v>
       </c>
-      <c r="S8" s="40">
+      <c r="S8" s="28">
         <v>45</v>
       </c>
-      <c r="T8" s="40">
+      <c r="T8" s="28">
         <v>45</v>
       </c>
-      <c r="U8" s="40">
+      <c r="U8" s="28">
         <v>45</v>
       </c>
-      <c r="V8" s="40">
+      <c r="V8" s="28">
         <v>45</v>
       </c>
-      <c r="W8" s="40">
+      <c r="W8" s="28">
         <v>45</v>
       </c>
-      <c r="X8" s="40">
+      <c r="X8" s="28">
         <v>30</v>
       </c>
-      <c r="Y8" s="40">
+      <c r="Y8" s="28">
         <v>25</v>
       </c>
-      <c r="Z8" s="40">
+      <c r="Z8" s="28">
         <v>15</v>
       </c>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="40"/>
-      <c r="AE8" s="40"/>
-      <c r="AF8" s="40"/>
-      <c r="AG8" s="40"/>
-      <c r="AH8" s="40"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="28"/>
+      <c r="AD8" s="28"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="28"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="38" t="s">
         <v>144</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -2894,40 +3774,40 @@
       <c r="D9" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="37">
         <v>44228</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="37">
         <v>44377</v>
       </c>
-      <c r="G9" s="42">
+      <c r="G9" s="33">
         <v>110</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="33">
         <v>16</v>
       </c>
-      <c r="I9" s="42">
+      <c r="I9" s="33">
         <v>120</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="33">
         <v>50</v>
       </c>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
       <c r="AA9" s="13"/>
       <c r="AB9" s="13"/>
       <c r="AC9" s="13"/>
@@ -2938,36 +3818,36 @@
       <c r="AH9" s="13"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
       <c r="AA10" s="13"/>
       <c r="AB10" s="13"/>
       <c r="AC10" s="13"/>
@@ -2978,36 +3858,36 @@
       <c r="AH10" s="13"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="46"/>
-      <c r="R11" s="46"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
       <c r="AA11" s="13"/>
       <c r="AB11" s="13"/>
       <c r="AC11" s="13"/>
@@ -3018,157 +3898,157 @@
       <c r="AH11" s="13"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="46"/>
-      <c r="P12" s="46"/>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
       <c r="AF12" s="13"/>
       <c r="AG12" s="13"/>
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="46"/>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
       <c r="AA13" s="13"/>
       <c r="AB13" s="13"/>
       <c r="AC13" s="13"/>
       <c r="AD13" s="13"/>
       <c r="AE13" s="13"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="40">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="28">
         <v>2</v>
       </c>
-      <c r="L14" s="40">
+      <c r="L14" s="28">
         <v>2</v>
       </c>
-      <c r="M14" s="40">
+      <c r="M14" s="28">
         <v>2</v>
       </c>
-      <c r="N14" s="40">
+      <c r="N14" s="28">
         <v>2</v>
       </c>
-      <c r="O14" s="40">
+      <c r="O14" s="28">
         <v>2</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="28">
         <v>45</v>
       </c>
-      <c r="Q14" s="40">
+      <c r="Q14" s="28">
         <v>45</v>
       </c>
-      <c r="R14" s="40">
+      <c r="R14" s="28">
         <v>45</v>
       </c>
-      <c r="S14" s="40">
+      <c r="S14" s="28">
         <v>45</v>
       </c>
-      <c r="T14" s="40">
+      <c r="T14" s="28">
         <v>45</v>
       </c>
-      <c r="U14" s="40">
+      <c r="U14" s="28">
         <v>45</v>
       </c>
-      <c r="V14" s="40">
+      <c r="V14" s="28">
         <v>45</v>
       </c>
-      <c r="W14" s="40">
+      <c r="W14" s="28">
         <v>45</v>
       </c>
-      <c r="X14" s="40">
+      <c r="X14" s="28">
         <v>30</v>
       </c>
-      <c r="Y14" s="40">
+      <c r="Y14" s="28">
         <v>25</v>
       </c>
-      <c r="Z14" s="40">
+      <c r="Z14" s="28">
         <v>15</v>
       </c>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="40"/>
-      <c r="AD14" s="40"/>
-      <c r="AE14" s="40"/>
-      <c r="AF14" s="40"/>
-      <c r="AG14" s="40"/>
-      <c r="AH14" s="40"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B15" s="13"/>
@@ -3206,7 +4086,7 @@
       <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="29" t="s">
         <v>142</v>
       </c>
       <c r="B16" s="13"/>
@@ -3244,7 +4124,7 @@
       <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="29" t="s">
         <v>143</v>
       </c>
       <c r="B17" s="13"/>
@@ -3283,11 +4163,22 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G9:G13"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I13"/>
-    <mergeCell ref="J9:J13"/>
-    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="B3:B8"/>
@@ -3296,26 +4187,15 @@
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="E9:E13"/>
     <mergeCell ref="F9:F13"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="J3:J7"/>
     <mergeCell ref="I3:I7"/>
     <mergeCell ref="H3:H7"/>
     <mergeCell ref="G3:G7"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G9:G13"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I13"/>
+    <mergeCell ref="J9:J13"/>
+    <mergeCell ref="D14:J14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3341,31 +4221,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="26" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3394,77 +4274,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
     </row>
     <row r="2" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
     </row>
     <row r="3" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="46" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="20">
@@ -3562,7 +4442,7 @@
       </c>
     </row>
     <row r="4" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="28"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="19">
         <v>44166</v>
       </c>
@@ -3749,92 +4629,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
     </row>
     <row r="3" spans="2:36" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="47" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="20" t="s">
@@ -3932,10 +4812,10 @@
       </c>
     </row>
     <row r="4" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="19">
         <v>44166</v>
       </c>

--- a/src/main/doc/学习总结/项目管理模板.xlsx
+++ b/src/main/doc/学习总结/项目管理模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\学习总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5D729A-76B0-4C44-8E46-FFFB9A964974}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD41A12D-6D43-4B1B-A053-BB1266C34F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,9 @@
     <sheet name="干系人列表全览" sheetId="11" r:id="rId14"/>
     <sheet name="任务完成标准" sheetId="13" r:id="rId15"/>
     <sheet name="休假统计模板" sheetId="16" r:id="rId16"/>
+    <sheet name="研发考核" sheetId="17" r:id="rId17"/>
+    <sheet name="04进度计划" sheetId="18" r:id="rId18"/>
+    <sheet name="项目进度计划表" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,8 +68,46 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{F4821580-6732-4672-A97F-4FD6AC9753C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">提前至少5工作日以上
+客户好评需书面确认
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="301">
   <si>
     <t>分项目阶段的角色及责任边界</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -786,16 +827,665 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>开发人员考核表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>考核人</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核周期</t>
+  </si>
+  <si>
+    <t>考核事项</t>
+  </si>
+  <si>
+    <t>比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事项说明</t>
+  </si>
+  <si>
+    <t>分值</t>
+  </si>
+  <si>
+    <t>工作业绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考评期间无加减分项时基础评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、项目/产品发布稳定并提前，得到客户好评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、生产环境无1、2级bug（每月累计1分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、考评期间参加公司技术竞赛获得冠军（计1分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、技术创新，显著提升工作效率，评审通过并应用后，根据评审结果确定加分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>减分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、考评期间发布计划延期（每延期5日计1分，5日以下计0分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、生产环境1级bug（每个计1分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、生产环境2级bug（每5个计1分，不足5个按5个计算）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、24小时内未修复1,2级bug（每次检查通报计1分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、5日内未修复3级bug（每次检查通报计1分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、24小时内未响应bug（每次检查通报计1分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、延期7日积压任务（每次检查通报计1分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、5日内提交评审无结果（每次检查通报计1分）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>态度、纪律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、严格遵守上级领导的工作安排，积极主动完成本职工作。          2、严格遵守公司《员工手册》及提及的相关制度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考核人评语</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>总评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">考评说明：    
+①研发团队非研发部门，应该按照一段时间内的项目合理划分，团队需有团队负责人。                                                                                ②生产环境出现1、2级bug，测试团队承担主要责任，研发团队根据bug分析报告确认是否承担团队责任，如果承担团队责任，团队成员集体减分。不单独按照个人评分。                  
+③生产环境当月有发布并且无1、2级bug，测试团队全体+1分，连续2月无bug,团队+2分，以此类推，上限5分。当月无发布回归基准分。
+④产品经理、项目经理、团队负责人，需明确界定发布延期是开发未按时提交还是测试未按时完成测试。开发提交测试后，1-2级问题过多，影响测试进度，可以申请提交单退回，退回需研发和测试上级负责人共同审批。如果开发提交单被测试退回，以最后一次提交时间为开发提交时间。 
+⑤研发团队工作任务数据来源TFS，由综合部抽查并通报各负责人，每月2-4次。
+⑥产品发布计划，由测试团队编制，需要产品经理或项目经理评审。   
+⑦工作态度重点考评工作安排是否可以主动克服困难并完成。                                                                                                                                                             
+⑧工作纪律重点考评是否在工作时间处理与工作无关的事情。参考公司员工手册。                                                                                         ⑨总评分基准分10分。
+  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04项目进度计划表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、项目基本情况</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>T 客户考察公司</t>
+  </si>
+  <si>
+    <t>项目编号</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0808</t>
+  </si>
+  <si>
+    <t>制作人</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>项目经理</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作日期</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、项目进度表</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>8
+-Jul</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>9
+-Jul</t>
+  </si>
+  <si>
+    <t>10
+-Jul</t>
+  </si>
+  <si>
+    <t>11
+-Jul</t>
+  </si>
+  <si>
+    <t>12
+-Jul</t>
+  </si>
+  <si>
+    <t>13
+-Jul</t>
+  </si>
+  <si>
+    <t>14
+-Jul</t>
+  </si>
+  <si>
+    <t>15
+-Jul</t>
+  </si>
+  <si>
+    <t>16
+-Jul</t>
+  </si>
+  <si>
+    <t>17
+-Jul</t>
+  </si>
+  <si>
+    <t>18
+-Jul</t>
+  </si>
+  <si>
+    <t>19
+-Jul</t>
+  </si>
+  <si>
+    <t>20
+-Jul</t>
+  </si>
+  <si>
+    <t>21
+-Jul</t>
+  </si>
+  <si>
+    <t>22
+-Jul</t>
+  </si>
+  <si>
+    <t>23
+-Jul</t>
+  </si>
+  <si>
+    <t>24
+-Jul</t>
+  </si>
+  <si>
+    <t>25
+-Jul</t>
+  </si>
+  <si>
+    <t>26
+-Jul</t>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键里程碑</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>开工会</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月8日成立项目组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段I  邀请客户</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月11日递交邀请函给CTO及相关人员</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>111  递交邀请函给客户</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>112  安排行程</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月14日确定考察人员及行程安排</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>113  确认来访人员行程</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段II  落实资源</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>211  安排我司高层接待资源</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月16日前与公司沟通确认考察安排及资源协调</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>212  安排各部门座谈人员</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘峰</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>213  确定总部可参观场所</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段III  预定后勤资源</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 项目进度计划表</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Project Schedule</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>一、项目基本情况</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> I. Project Basic Info</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>项目名称</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> project name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>项目编号</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> project code</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>制作人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> prepared by</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>审核人</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> reviewed by</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>项目经理</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> project manager</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>制作日期</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> date</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">二、项目进度表 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>II.Project Schedule</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>月Month</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月Jan</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人 Resp.</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键里程碑 
+Milestone</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要活动/日</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>D15</t>
+  </si>
+  <si>
+    <t>D16</t>
+  </si>
+  <si>
+    <t>D17</t>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-804]aaa;@"/>
     <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -850,8 +1540,161 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -930,8 +1773,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1061,11 +1928,471 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1110,71 +2437,448 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="17" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="17" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{56DBBC9F-4047-49B5-B421-A577B78961E4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1486,153 +3190,153 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="32" t="s">
+    <row r="6" spans="3:9">
+      <c r="C6" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1652,7 +3356,7 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1664,10 +3368,10 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -1676,7 +3380,7 @@
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1718,7 +3422,7 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
@@ -1734,7 +3438,7 @@
     <col min="15" max="15" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1781,7 +3485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1808,7 +3512,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" outlineLevel="1">
       <c r="A3" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1835,7 +3539,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" outlineLevel="1">
       <c r="A4" s="9">
         <v>1.2</v>
       </c>
@@ -1862,7 +3566,7 @@
       <c r="N4" s="3"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" outlineLevel="1">
       <c r="A5" s="9">
         <v>1.3</v>
       </c>
@@ -1889,7 +3593,7 @@
       <c r="N5" s="3"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -1916,7 +3620,7 @@
       <c r="N6" s="3"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" outlineLevel="1">
       <c r="A7" s="3">
         <v>2.1</v>
       </c>
@@ -1943,7 +3647,7 @@
       <c r="N7" s="3"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" outlineLevel="1">
       <c r="A8" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -1970,7 +3674,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1987,7 +3691,7 @@
       <c r="N9" s="3"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2004,7 +3708,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2021,7 +3725,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2037,7 +3741,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2054,7 +3758,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2071,7 +3775,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2088,7 +3792,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2105,7 +3809,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2122,7 +3826,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2139,7 +3843,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2155,7 +3859,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2172,7 +3876,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2189,7 +3893,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2205,7 +3909,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2222,7 +3926,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -2267,7 +3971,7 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="13.625" customWidth="1"/>
     <col min="4" max="4" width="15.5" customWidth="1"/>
@@ -2287,31 +3991,31 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="9" max="9" width="9.125" customWidth="1"/>
     <col min="10" max="10" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="13"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
       <c r="J1" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="13" t="s">
         <v>38</v>
       </c>
@@ -2341,8 +4045,8 @@
       </c>
       <c r="J2" s="13"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -2371,8 +4075,8 @@
       </c>
       <c r="J3" s="13"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="41"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="40"/>
       <c r="B4" s="15"/>
       <c r="C4" s="17" t="s">
         <v>58</v>
@@ -2387,8 +4091,8 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="41"/>
+    <row r="5" spans="1:11">
+      <c r="A5" s="40"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -2401,8 +4105,8 @@
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="40" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="13"/>
@@ -2415,8 +4119,8 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
+    <row r="7" spans="1:11">
+      <c r="A7" s="40"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -2427,8 +4131,8 @@
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
+    <row r="8" spans="1:11">
+      <c r="A8" s="40"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -2439,8 +4143,8 @@
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="41"/>
+    <row r="9" spans="1:11">
+      <c r="A9" s="40"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -2454,8 +4158,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="41"/>
+    <row r="10" spans="1:11">
+      <c r="A10" s="40"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -2469,8 +4173,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
+    <row r="11" spans="1:11">
+      <c r="A11" s="40"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -2484,8 +4188,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="40" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="13"/>
@@ -2501,8 +4205,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
+    <row r="13" spans="1:11">
+      <c r="A13" s="40"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -2513,8 +4217,8 @@
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
+    <row r="14" spans="1:11">
+      <c r="A14" s="40"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -2525,8 +4229,8 @@
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
+    <row r="15" spans="1:11">
+      <c r="A15" s="40"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -2537,8 +4241,8 @@
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
+    <row r="16" spans="1:11">
+      <c r="A16" s="40"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -2549,8 +4253,8 @@
       <c r="I16" s="13"/>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
+    <row r="17" spans="1:10">
+      <c r="A17" s="40"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -2561,8 +4265,8 @@
       <c r="I17" s="13"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="41"/>
+    <row r="18" spans="1:10">
+      <c r="A18" s="40"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -2590,14 +4294,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409C98A0-1891-4D85-AFE5-409BAFFEA473}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="53" t="s">
         <v>183</v>
       </c>
       <c r="B1" s="54"/>
@@ -2610,7 +4314,7 @@
       <c r="I1" s="54"/>
       <c r="J1" s="54"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="54"/>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
@@ -2622,7 +4326,7 @@
       <c r="I2" s="54"/>
       <c r="J2" s="54"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="54"/>
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
@@ -2634,7 +4338,7 @@
       <c r="I3" s="54"/>
       <c r="J3" s="54"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="54"/>
       <c r="B4" s="54"/>
       <c r="C4" s="54"/>
@@ -2646,7 +4350,7 @@
       <c r="I4" s="54"/>
       <c r="J4" s="54"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="54"/>
       <c r="B5" s="54"/>
       <c r="C5" s="54"/>
@@ -2658,7 +4362,7 @@
       <c r="I5" s="54"/>
       <c r="J5" s="54"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="54"/>
       <c r="B6" s="54"/>
       <c r="C6" s="54"/>
@@ -2670,7 +4374,7 @@
       <c r="I6" s="54"/>
       <c r="J6" s="54"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="54"/>
       <c r="B7" s="54"/>
       <c r="C7" s="54"/>
@@ -2682,7 +4386,7 @@
       <c r="I7" s="54"/>
       <c r="J7" s="54"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="54"/>
       <c r="B8" s="54"/>
       <c r="C8" s="54"/>
@@ -2694,7 +4398,7 @@
       <c r="I8" s="54"/>
       <c r="J8" s="54"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
@@ -2706,7 +4410,7 @@
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="54"/>
       <c r="B10" s="54"/>
       <c r="C10" s="54"/>
@@ -2718,7 +4422,7 @@
       <c r="I10" s="54"/>
       <c r="J10" s="54"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="54"/>
       <c r="B11" s="54"/>
       <c r="C11" s="54"/>
@@ -2730,7 +4434,7 @@
       <c r="I11" s="54"/>
       <c r="J11" s="54"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="54"/>
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
@@ -2742,7 +4446,7 @@
       <c r="I12" s="54"/>
       <c r="J12" s="54"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="54"/>
       <c r="B13" s="54"/>
       <c r="C13" s="54"/>
@@ -2754,7 +4458,7 @@
       <c r="I13" s="54"/>
       <c r="J13" s="54"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="54"/>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -2766,7 +4470,7 @@
       <c r="I14" s="54"/>
       <c r="J14" s="54"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="54"/>
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
@@ -2778,7 +4482,7 @@
       <c r="I15" s="54"/>
       <c r="J15" s="54"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="54"/>
       <c r="B16" s="54"/>
       <c r="C16" s="54"/>
@@ -2790,7 +4494,7 @@
       <c r="I16" s="54"/>
       <c r="J16" s="54"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="54"/>
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
@@ -2802,7 +4506,7 @@
       <c r="I17" s="54"/>
       <c r="J17" s="54"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="54"/>
       <c r="B18" s="54"/>
       <c r="C18" s="54"/>
@@ -2814,7 +4518,7 @@
       <c r="I18" s="54"/>
       <c r="J18" s="54"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="54"/>
       <c r="B19" s="54"/>
       <c r="C19" s="54"/>
@@ -2826,7 +4530,7 @@
       <c r="I19" s="54"/>
       <c r="J19" s="54"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="54"/>
       <c r="B20" s="54"/>
       <c r="C20" s="54"/>
@@ -2838,7 +4542,7 @@
       <c r="I20" s="54"/>
       <c r="J20" s="54"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="54"/>
       <c r="B21" s="54"/>
       <c r="C21" s="54"/>
@@ -2850,7 +4554,7 @@
       <c r="I21" s="54"/>
       <c r="J21" s="54"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="54"/>
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
@@ -2862,7 +4566,7 @@
       <c r="I22" s="54"/>
       <c r="J22" s="54"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="54"/>
       <c r="B23" s="54"/>
       <c r="C23" s="54"/>
@@ -2874,7 +4578,7 @@
       <c r="I23" s="54"/>
       <c r="J23" s="54"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="54"/>
       <c r="B24" s="54"/>
       <c r="C24" s="54"/>
@@ -2886,7 +4590,7 @@
       <c r="I24" s="54"/>
       <c r="J24" s="54"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="54"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -2898,7 +4602,7 @@
       <c r="I25" s="54"/>
       <c r="J25" s="54"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="54"/>
       <c r="B26" s="54"/>
       <c r="C26" s="54"/>
@@ -2910,7 +4614,7 @@
       <c r="I26" s="54"/>
       <c r="J26" s="54"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="54"/>
       <c r="B27" s="54"/>
       <c r="C27" s="54"/>
@@ -2922,7 +4626,7 @@
       <c r="I27" s="54"/>
       <c r="J27" s="54"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10">
       <c r="A28" s="54"/>
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
@@ -2951,7 +4655,7 @@
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="3" width="5.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
@@ -2960,147 +4664,147 @@
     <col min="26" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+    <row r="1" spans="1:26">
+      <c r="A1" s="55" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="52" t="s">
+      <c r="L1" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="52" t="s">
+      <c r="O1" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="Q1" s="52" t="s">
+      <c r="Q1" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="R1" s="52" t="s">
+      <c r="R1" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="S1" s="52" t="s">
+      <c r="S1" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="T1" s="52" t="s">
+      <c r="T1" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="U1" s="52" t="s">
+      <c r="U1" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="V1" s="52" t="s">
+      <c r="V1" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="W1" s="52" t="s">
+      <c r="W1" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="X1" s="52" t="s">
+      <c r="X1" s="35" t="s">
         <v>172</v>
       </c>
       <c r="Y1" s="13"/>
-      <c r="Z1" s="48" t="s">
+      <c r="Z1" s="32" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52" t="s">
+    <row r="2" spans="1:26">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="L2" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="M2" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="O2" s="52" t="s">
+      <c r="O2" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="Q2" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="R2" s="52" t="s">
+      <c r="R2" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="S2" s="52" t="s">
+      <c r="S2" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="T2" s="52" t="s">
+      <c r="T2" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="U2" s="52" t="s">
+      <c r="U2" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="V2" s="52" t="s">
+      <c r="V2" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="W2" s="52" t="s">
+      <c r="W2" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="X2" s="52" t="s">
+      <c r="X2" s="35" t="s">
         <v>178</v>
       </c>
       <c r="Y2" s="13"/>
@@ -3108,7 +4812,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -3121,32 +4825,32 @@
       <c r="D3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="33"/>
       <c r="F3" s="13"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
       <c r="Y3" s="13"/>
       <c r="Z3" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -3159,13 +4863,13 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
@@ -3175,7 +4879,7 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -3188,13 +4892,13 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
@@ -3204,7 +4908,7 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="13"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -3217,13 +4921,13 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
@@ -3233,7 +4937,7 @@
       <c r="X6" s="13"/>
       <c r="Y6" s="13"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -3246,13 +4950,13 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
@@ -3262,7 +4966,7 @@
       <c r="X7" s="13"/>
       <c r="Y7" s="13"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -3275,13 +4979,13 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -3304,6 +5008,2405 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953B0F94-F6A2-499A-96D1-5FD0C71FF636}">
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="3" width="5.625" customWidth="1"/>
+    <col min="10" max="10" width="6.25" customWidth="1"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A1" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
+    </row>
+    <row r="2" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A2" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
+    </row>
+    <row r="3" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A3" s="64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="K3" s="64"/>
+    </row>
+    <row r="4" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A4" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="69">
+        <v>10</v>
+      </c>
+      <c r="K4" s="73">
+        <f>J4+J5+J6+J7+J8-J9-J10-J11-J12-J13-J14-J15-J16</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="31.5" customHeight="1">
+      <c r="A5" s="74"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="78">
+        <v>1</v>
+      </c>
+      <c r="K5" s="79"/>
+    </row>
+    <row r="6" spans="1:15" ht="31.5" customHeight="1">
+      <c r="A6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="80" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="78">
+        <v>1</v>
+      </c>
+      <c r="K6" s="79"/>
+    </row>
+    <row r="7" spans="1:15" ht="31.5" customHeight="1">
+      <c r="A7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="78">
+        <v>1</v>
+      </c>
+      <c r="K7" s="79"/>
+    </row>
+    <row r="8" spans="1:15" ht="32.25" customHeight="1">
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="78">
+        <v>1</v>
+      </c>
+      <c r="K8" s="79"/>
+    </row>
+    <row r="9" spans="1:15" ht="39" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="78">
+        <v>1</v>
+      </c>
+      <c r="K9" s="79"/>
+    </row>
+    <row r="10" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A10" s="74"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="78">
+        <v>1</v>
+      </c>
+      <c r="K10" s="79"/>
+    </row>
+    <row r="11" spans="1:15" ht="42" customHeight="1">
+      <c r="A11" s="74"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="83" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="78">
+        <v>1</v>
+      </c>
+      <c r="K11" s="79"/>
+    </row>
+    <row r="12" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A12" s="74"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="78">
+        <v>1</v>
+      </c>
+      <c r="K12" s="79"/>
+    </row>
+    <row r="13" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A13" s="74"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="78">
+        <v>1</v>
+      </c>
+      <c r="K13" s="79"/>
+      <c r="O13" s="86"/>
+    </row>
+    <row r="14" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="78">
+        <v>1</v>
+      </c>
+      <c r="K14" s="79"/>
+    </row>
+    <row r="15" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A15" s="74"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="78">
+        <v>1</v>
+      </c>
+      <c r="K15" s="79"/>
+    </row>
+    <row r="16" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A16" s="87"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="78">
+        <v>1</v>
+      </c>
+      <c r="K16" s="90"/>
+    </row>
+    <row r="17" spans="1:12" ht="48" customHeight="1">
+      <c r="A17" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" s="77"/>
+      <c r="C17" s="91">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="78">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="74.25" customHeight="1">
+      <c r="A18" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="77"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="98"/>
+    </row>
+    <row r="19" spans="1:12" ht="34.5" customHeight="1">
+      <c r="A19" s="77" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="77"/>
+      <c r="C19" s="99">
+        <f>K4*C4+K17*C17</f>
+        <v>7.2000000000000011</v>
+      </c>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="98"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="102" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="103"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="103"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+    </row>
+    <row r="22" spans="1:12" ht="177" customHeight="1">
+      <c r="A22" s="103"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="A20:K22"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="A4:B16"/>
+    <mergeCell ref="C4:C16"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="K4:K16"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="D9:D16"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB48511-63D6-446A-B1FF-9232BEDA11E4}">
+  <dimension ref="A1:V18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="20" width="4.625" style="107" customWidth="1"/>
+    <col min="21" max="21" width="9" style="107"/>
+    <col min="22" max="22" width="18.375" style="107" customWidth="1"/>
+    <col min="23" max="256" width="9" style="107"/>
+    <col min="257" max="257" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="258" max="276" width="4.625" style="107" customWidth="1"/>
+    <col min="277" max="277" width="9" style="107"/>
+    <col min="278" max="278" width="18.375" style="107" customWidth="1"/>
+    <col min="279" max="512" width="9" style="107"/>
+    <col min="513" max="513" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="514" max="532" width="4.625" style="107" customWidth="1"/>
+    <col min="533" max="533" width="9" style="107"/>
+    <col min="534" max="534" width="18.375" style="107" customWidth="1"/>
+    <col min="535" max="768" width="9" style="107"/>
+    <col min="769" max="769" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="770" max="788" width="4.625" style="107" customWidth="1"/>
+    <col min="789" max="789" width="9" style="107"/>
+    <col min="790" max="790" width="18.375" style="107" customWidth="1"/>
+    <col min="791" max="1024" width="9" style="107"/>
+    <col min="1025" max="1025" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1044" width="4.625" style="107" customWidth="1"/>
+    <col min="1045" max="1045" width="9" style="107"/>
+    <col min="1046" max="1046" width="18.375" style="107" customWidth="1"/>
+    <col min="1047" max="1280" width="9" style="107"/>
+    <col min="1281" max="1281" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1300" width="4.625" style="107" customWidth="1"/>
+    <col min="1301" max="1301" width="9" style="107"/>
+    <col min="1302" max="1302" width="18.375" style="107" customWidth="1"/>
+    <col min="1303" max="1536" width="9" style="107"/>
+    <col min="1537" max="1537" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1556" width="4.625" style="107" customWidth="1"/>
+    <col min="1557" max="1557" width="9" style="107"/>
+    <col min="1558" max="1558" width="18.375" style="107" customWidth="1"/>
+    <col min="1559" max="1792" width="9" style="107"/>
+    <col min="1793" max="1793" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1812" width="4.625" style="107" customWidth="1"/>
+    <col min="1813" max="1813" width="9" style="107"/>
+    <col min="1814" max="1814" width="18.375" style="107" customWidth="1"/>
+    <col min="1815" max="2048" width="9" style="107"/>
+    <col min="2049" max="2049" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2068" width="4.625" style="107" customWidth="1"/>
+    <col min="2069" max="2069" width="9" style="107"/>
+    <col min="2070" max="2070" width="18.375" style="107" customWidth="1"/>
+    <col min="2071" max="2304" width="9" style="107"/>
+    <col min="2305" max="2305" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2324" width="4.625" style="107" customWidth="1"/>
+    <col min="2325" max="2325" width="9" style="107"/>
+    <col min="2326" max="2326" width="18.375" style="107" customWidth="1"/>
+    <col min="2327" max="2560" width="9" style="107"/>
+    <col min="2561" max="2561" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2580" width="4.625" style="107" customWidth="1"/>
+    <col min="2581" max="2581" width="9" style="107"/>
+    <col min="2582" max="2582" width="18.375" style="107" customWidth="1"/>
+    <col min="2583" max="2816" width="9" style="107"/>
+    <col min="2817" max="2817" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2836" width="4.625" style="107" customWidth="1"/>
+    <col min="2837" max="2837" width="9" style="107"/>
+    <col min="2838" max="2838" width="18.375" style="107" customWidth="1"/>
+    <col min="2839" max="3072" width="9" style="107"/>
+    <col min="3073" max="3073" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3092" width="4.625" style="107" customWidth="1"/>
+    <col min="3093" max="3093" width="9" style="107"/>
+    <col min="3094" max="3094" width="18.375" style="107" customWidth="1"/>
+    <col min="3095" max="3328" width="9" style="107"/>
+    <col min="3329" max="3329" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3348" width="4.625" style="107" customWidth="1"/>
+    <col min="3349" max="3349" width="9" style="107"/>
+    <col min="3350" max="3350" width="18.375" style="107" customWidth="1"/>
+    <col min="3351" max="3584" width="9" style="107"/>
+    <col min="3585" max="3585" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3604" width="4.625" style="107" customWidth="1"/>
+    <col min="3605" max="3605" width="9" style="107"/>
+    <col min="3606" max="3606" width="18.375" style="107" customWidth="1"/>
+    <col min="3607" max="3840" width="9" style="107"/>
+    <col min="3841" max="3841" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3860" width="4.625" style="107" customWidth="1"/>
+    <col min="3861" max="3861" width="9" style="107"/>
+    <col min="3862" max="3862" width="18.375" style="107" customWidth="1"/>
+    <col min="3863" max="4096" width="9" style="107"/>
+    <col min="4097" max="4097" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4116" width="4.625" style="107" customWidth="1"/>
+    <col min="4117" max="4117" width="9" style="107"/>
+    <col min="4118" max="4118" width="18.375" style="107" customWidth="1"/>
+    <col min="4119" max="4352" width="9" style="107"/>
+    <col min="4353" max="4353" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4372" width="4.625" style="107" customWidth="1"/>
+    <col min="4373" max="4373" width="9" style="107"/>
+    <col min="4374" max="4374" width="18.375" style="107" customWidth="1"/>
+    <col min="4375" max="4608" width="9" style="107"/>
+    <col min="4609" max="4609" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4628" width="4.625" style="107" customWidth="1"/>
+    <col min="4629" max="4629" width="9" style="107"/>
+    <col min="4630" max="4630" width="18.375" style="107" customWidth="1"/>
+    <col min="4631" max="4864" width="9" style="107"/>
+    <col min="4865" max="4865" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4884" width="4.625" style="107" customWidth="1"/>
+    <col min="4885" max="4885" width="9" style="107"/>
+    <col min="4886" max="4886" width="18.375" style="107" customWidth="1"/>
+    <col min="4887" max="5120" width="9" style="107"/>
+    <col min="5121" max="5121" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5140" width="4.625" style="107" customWidth="1"/>
+    <col min="5141" max="5141" width="9" style="107"/>
+    <col min="5142" max="5142" width="18.375" style="107" customWidth="1"/>
+    <col min="5143" max="5376" width="9" style="107"/>
+    <col min="5377" max="5377" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5396" width="4.625" style="107" customWidth="1"/>
+    <col min="5397" max="5397" width="9" style="107"/>
+    <col min="5398" max="5398" width="18.375" style="107" customWidth="1"/>
+    <col min="5399" max="5632" width="9" style="107"/>
+    <col min="5633" max="5633" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5652" width="4.625" style="107" customWidth="1"/>
+    <col min="5653" max="5653" width="9" style="107"/>
+    <col min="5654" max="5654" width="18.375" style="107" customWidth="1"/>
+    <col min="5655" max="5888" width="9" style="107"/>
+    <col min="5889" max="5889" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5908" width="4.625" style="107" customWidth="1"/>
+    <col min="5909" max="5909" width="9" style="107"/>
+    <col min="5910" max="5910" width="18.375" style="107" customWidth="1"/>
+    <col min="5911" max="6144" width="9" style="107"/>
+    <col min="6145" max="6145" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6164" width="4.625" style="107" customWidth="1"/>
+    <col min="6165" max="6165" width="9" style="107"/>
+    <col min="6166" max="6166" width="18.375" style="107" customWidth="1"/>
+    <col min="6167" max="6400" width="9" style="107"/>
+    <col min="6401" max="6401" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6420" width="4.625" style="107" customWidth="1"/>
+    <col min="6421" max="6421" width="9" style="107"/>
+    <col min="6422" max="6422" width="18.375" style="107" customWidth="1"/>
+    <col min="6423" max="6656" width="9" style="107"/>
+    <col min="6657" max="6657" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6676" width="4.625" style="107" customWidth="1"/>
+    <col min="6677" max="6677" width="9" style="107"/>
+    <col min="6678" max="6678" width="18.375" style="107" customWidth="1"/>
+    <col min="6679" max="6912" width="9" style="107"/>
+    <col min="6913" max="6913" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6932" width="4.625" style="107" customWidth="1"/>
+    <col min="6933" max="6933" width="9" style="107"/>
+    <col min="6934" max="6934" width="18.375" style="107" customWidth="1"/>
+    <col min="6935" max="7168" width="9" style="107"/>
+    <col min="7169" max="7169" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7188" width="4.625" style="107" customWidth="1"/>
+    <col min="7189" max="7189" width="9" style="107"/>
+    <col min="7190" max="7190" width="18.375" style="107" customWidth="1"/>
+    <col min="7191" max="7424" width="9" style="107"/>
+    <col min="7425" max="7425" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7444" width="4.625" style="107" customWidth="1"/>
+    <col min="7445" max="7445" width="9" style="107"/>
+    <col min="7446" max="7446" width="18.375" style="107" customWidth="1"/>
+    <col min="7447" max="7680" width="9" style="107"/>
+    <col min="7681" max="7681" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7700" width="4.625" style="107" customWidth="1"/>
+    <col min="7701" max="7701" width="9" style="107"/>
+    <col min="7702" max="7702" width="18.375" style="107" customWidth="1"/>
+    <col min="7703" max="7936" width="9" style="107"/>
+    <col min="7937" max="7937" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7956" width="4.625" style="107" customWidth="1"/>
+    <col min="7957" max="7957" width="9" style="107"/>
+    <col min="7958" max="7958" width="18.375" style="107" customWidth="1"/>
+    <col min="7959" max="8192" width="9" style="107"/>
+    <col min="8193" max="8193" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8212" width="4.625" style="107" customWidth="1"/>
+    <col min="8213" max="8213" width="9" style="107"/>
+    <col min="8214" max="8214" width="18.375" style="107" customWidth="1"/>
+    <col min="8215" max="8448" width="9" style="107"/>
+    <col min="8449" max="8449" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8468" width="4.625" style="107" customWidth="1"/>
+    <col min="8469" max="8469" width="9" style="107"/>
+    <col min="8470" max="8470" width="18.375" style="107" customWidth="1"/>
+    <col min="8471" max="8704" width="9" style="107"/>
+    <col min="8705" max="8705" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8724" width="4.625" style="107" customWidth="1"/>
+    <col min="8725" max="8725" width="9" style="107"/>
+    <col min="8726" max="8726" width="18.375" style="107" customWidth="1"/>
+    <col min="8727" max="8960" width="9" style="107"/>
+    <col min="8961" max="8961" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8980" width="4.625" style="107" customWidth="1"/>
+    <col min="8981" max="8981" width="9" style="107"/>
+    <col min="8982" max="8982" width="18.375" style="107" customWidth="1"/>
+    <col min="8983" max="9216" width="9" style="107"/>
+    <col min="9217" max="9217" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9236" width="4.625" style="107" customWidth="1"/>
+    <col min="9237" max="9237" width="9" style="107"/>
+    <col min="9238" max="9238" width="18.375" style="107" customWidth="1"/>
+    <col min="9239" max="9472" width="9" style="107"/>
+    <col min="9473" max="9473" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9492" width="4.625" style="107" customWidth="1"/>
+    <col min="9493" max="9493" width="9" style="107"/>
+    <col min="9494" max="9494" width="18.375" style="107" customWidth="1"/>
+    <col min="9495" max="9728" width="9" style="107"/>
+    <col min="9729" max="9729" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9748" width="4.625" style="107" customWidth="1"/>
+    <col min="9749" max="9749" width="9" style="107"/>
+    <col min="9750" max="9750" width="18.375" style="107" customWidth="1"/>
+    <col min="9751" max="9984" width="9" style="107"/>
+    <col min="9985" max="9985" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="9986" max="10004" width="4.625" style="107" customWidth="1"/>
+    <col min="10005" max="10005" width="9" style="107"/>
+    <col min="10006" max="10006" width="18.375" style="107" customWidth="1"/>
+    <col min="10007" max="10240" width="9" style="107"/>
+    <col min="10241" max="10241" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10260" width="4.625" style="107" customWidth="1"/>
+    <col min="10261" max="10261" width="9" style="107"/>
+    <col min="10262" max="10262" width="18.375" style="107" customWidth="1"/>
+    <col min="10263" max="10496" width="9" style="107"/>
+    <col min="10497" max="10497" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10516" width="4.625" style="107" customWidth="1"/>
+    <col min="10517" max="10517" width="9" style="107"/>
+    <col min="10518" max="10518" width="18.375" style="107" customWidth="1"/>
+    <col min="10519" max="10752" width="9" style="107"/>
+    <col min="10753" max="10753" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10772" width="4.625" style="107" customWidth="1"/>
+    <col min="10773" max="10773" width="9" style="107"/>
+    <col min="10774" max="10774" width="18.375" style="107" customWidth="1"/>
+    <col min="10775" max="11008" width="9" style="107"/>
+    <col min="11009" max="11009" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11028" width="4.625" style="107" customWidth="1"/>
+    <col min="11029" max="11029" width="9" style="107"/>
+    <col min="11030" max="11030" width="18.375" style="107" customWidth="1"/>
+    <col min="11031" max="11264" width="9" style="107"/>
+    <col min="11265" max="11265" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11284" width="4.625" style="107" customWidth="1"/>
+    <col min="11285" max="11285" width="9" style="107"/>
+    <col min="11286" max="11286" width="18.375" style="107" customWidth="1"/>
+    <col min="11287" max="11520" width="9" style="107"/>
+    <col min="11521" max="11521" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11540" width="4.625" style="107" customWidth="1"/>
+    <col min="11541" max="11541" width="9" style="107"/>
+    <col min="11542" max="11542" width="18.375" style="107" customWidth="1"/>
+    <col min="11543" max="11776" width="9" style="107"/>
+    <col min="11777" max="11777" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11796" width="4.625" style="107" customWidth="1"/>
+    <col min="11797" max="11797" width="9" style="107"/>
+    <col min="11798" max="11798" width="18.375" style="107" customWidth="1"/>
+    <col min="11799" max="12032" width="9" style="107"/>
+    <col min="12033" max="12033" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12052" width="4.625" style="107" customWidth="1"/>
+    <col min="12053" max="12053" width="9" style="107"/>
+    <col min="12054" max="12054" width="18.375" style="107" customWidth="1"/>
+    <col min="12055" max="12288" width="9" style="107"/>
+    <col min="12289" max="12289" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12308" width="4.625" style="107" customWidth="1"/>
+    <col min="12309" max="12309" width="9" style="107"/>
+    <col min="12310" max="12310" width="18.375" style="107" customWidth="1"/>
+    <col min="12311" max="12544" width="9" style="107"/>
+    <col min="12545" max="12545" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12564" width="4.625" style="107" customWidth="1"/>
+    <col min="12565" max="12565" width="9" style="107"/>
+    <col min="12566" max="12566" width="18.375" style="107" customWidth="1"/>
+    <col min="12567" max="12800" width="9" style="107"/>
+    <col min="12801" max="12801" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12820" width="4.625" style="107" customWidth="1"/>
+    <col min="12821" max="12821" width="9" style="107"/>
+    <col min="12822" max="12822" width="18.375" style="107" customWidth="1"/>
+    <col min="12823" max="13056" width="9" style="107"/>
+    <col min="13057" max="13057" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13076" width="4.625" style="107" customWidth="1"/>
+    <col min="13077" max="13077" width="9" style="107"/>
+    <col min="13078" max="13078" width="18.375" style="107" customWidth="1"/>
+    <col min="13079" max="13312" width="9" style="107"/>
+    <col min="13313" max="13313" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13332" width="4.625" style="107" customWidth="1"/>
+    <col min="13333" max="13333" width="9" style="107"/>
+    <col min="13334" max="13334" width="18.375" style="107" customWidth="1"/>
+    <col min="13335" max="13568" width="9" style="107"/>
+    <col min="13569" max="13569" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13588" width="4.625" style="107" customWidth="1"/>
+    <col min="13589" max="13589" width="9" style="107"/>
+    <col min="13590" max="13590" width="18.375" style="107" customWidth="1"/>
+    <col min="13591" max="13824" width="9" style="107"/>
+    <col min="13825" max="13825" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13844" width="4.625" style="107" customWidth="1"/>
+    <col min="13845" max="13845" width="9" style="107"/>
+    <col min="13846" max="13846" width="18.375" style="107" customWidth="1"/>
+    <col min="13847" max="14080" width="9" style="107"/>
+    <col min="14081" max="14081" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14100" width="4.625" style="107" customWidth="1"/>
+    <col min="14101" max="14101" width="9" style="107"/>
+    <col min="14102" max="14102" width="18.375" style="107" customWidth="1"/>
+    <col min="14103" max="14336" width="9" style="107"/>
+    <col min="14337" max="14337" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14356" width="4.625" style="107" customWidth="1"/>
+    <col min="14357" max="14357" width="9" style="107"/>
+    <col min="14358" max="14358" width="18.375" style="107" customWidth="1"/>
+    <col min="14359" max="14592" width="9" style="107"/>
+    <col min="14593" max="14593" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14612" width="4.625" style="107" customWidth="1"/>
+    <col min="14613" max="14613" width="9" style="107"/>
+    <col min="14614" max="14614" width="18.375" style="107" customWidth="1"/>
+    <col min="14615" max="14848" width="9" style="107"/>
+    <col min="14849" max="14849" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14868" width="4.625" style="107" customWidth="1"/>
+    <col min="14869" max="14869" width="9" style="107"/>
+    <col min="14870" max="14870" width="18.375" style="107" customWidth="1"/>
+    <col min="14871" max="15104" width="9" style="107"/>
+    <col min="15105" max="15105" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15124" width="4.625" style="107" customWidth="1"/>
+    <col min="15125" max="15125" width="9" style="107"/>
+    <col min="15126" max="15126" width="18.375" style="107" customWidth="1"/>
+    <col min="15127" max="15360" width="9" style="107"/>
+    <col min="15361" max="15361" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15380" width="4.625" style="107" customWidth="1"/>
+    <col min="15381" max="15381" width="9" style="107"/>
+    <col min="15382" max="15382" width="18.375" style="107" customWidth="1"/>
+    <col min="15383" max="15616" width="9" style="107"/>
+    <col min="15617" max="15617" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15636" width="4.625" style="107" customWidth="1"/>
+    <col min="15637" max="15637" width="9" style="107"/>
+    <col min="15638" max="15638" width="18.375" style="107" customWidth="1"/>
+    <col min="15639" max="15872" width="9" style="107"/>
+    <col min="15873" max="15873" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15892" width="4.625" style="107" customWidth="1"/>
+    <col min="15893" max="15893" width="9" style="107"/>
+    <col min="15894" max="15894" width="18.375" style="107" customWidth="1"/>
+    <col min="15895" max="16128" width="9" style="107"/>
+    <col min="16129" max="16129" width="26.5" style="107" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16148" width="4.625" style="107" customWidth="1"/>
+    <col min="16149" max="16149" width="9" style="107"/>
+    <col min="16150" max="16150" width="18.375" style="107" customWidth="1"/>
+    <col min="16151" max="16384" width="9" style="107"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="20.25">
+      <c r="A1" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="106"/>
+    </row>
+    <row r="2" spans="1:22" ht="21.95" customHeight="1">
+      <c r="A2" s="108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="110"/>
+    </row>
+    <row r="3" spans="1:22" ht="21.95" customHeight="1">
+      <c r="A3" s="111" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112" t="s">
+        <v>218</v>
+      </c>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112" t="s">
+        <v>219</v>
+      </c>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="113"/>
+    </row>
+    <row r="4" spans="1:22" ht="21.95" customHeight="1">
+      <c r="A4" s="111" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112" t="s">
+        <v>223</v>
+      </c>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="113"/>
+    </row>
+    <row r="5" spans="1:22" ht="21.95" customHeight="1">
+      <c r="A5" s="111" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="114">
+        <v>43654</v>
+      </c>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="115"/>
+    </row>
+    <row r="6" spans="1:22" ht="21.95" customHeight="1">
+      <c r="A6" s="108" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="109"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="110"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="117">
+        <v>0</v>
+      </c>
+      <c r="C7" s="118">
+        <v>1</v>
+      </c>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118">
+        <v>2</v>
+      </c>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118">
+        <v>3</v>
+      </c>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="119"/>
+    </row>
+    <row r="8" spans="1:22" ht="32.25" customHeight="1">
+      <c r="A8" s="116" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="120" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="120" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" s="120" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="120" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="120" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8" s="120" t="s">
+        <v>235</v>
+      </c>
+      <c r="I8" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="J8" s="120" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" s="120" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="120" t="s">
+        <v>239</v>
+      </c>
+      <c r="M8" s="120" t="s">
+        <v>240</v>
+      </c>
+      <c r="N8" s="120" t="s">
+        <v>241</v>
+      </c>
+      <c r="O8" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="P8" s="120" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q8" s="120" t="s">
+        <v>244</v>
+      </c>
+      <c r="R8" s="120" t="s">
+        <v>245</v>
+      </c>
+      <c r="S8" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="T8" s="120" t="s">
+        <v>247</v>
+      </c>
+      <c r="U8" s="117" t="s">
+        <v>248</v>
+      </c>
+      <c r="V8" s="119" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="21.95" customHeight="1">
+      <c r="A9" s="116" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="122" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="21.95" customHeight="1">
+      <c r="A10" s="116" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="123" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="21.95" customHeight="1">
+      <c r="A11" s="124" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="117" t="s">
+        <v>255</v>
+      </c>
+      <c r="V11" s="123"/>
+    </row>
+    <row r="12" spans="1:22" ht="21.95" customHeight="1">
+      <c r="A12" s="124" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="117"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="117" t="s">
+        <v>257</v>
+      </c>
+      <c r="V12" s="123" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="21.95" customHeight="1">
+      <c r="A13" s="124" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117" t="s">
+        <v>260</v>
+      </c>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="117"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117" t="s">
+        <v>255</v>
+      </c>
+      <c r="V13" s="123"/>
+    </row>
+    <row r="14" spans="1:22" ht="21.95" customHeight="1">
+      <c r="A14" s="116" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="122"/>
+    </row>
+    <row r="15" spans="1:22" ht="21.95" customHeight="1">
+      <c r="A15" s="124" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="125"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
+      <c r="T15" s="117"/>
+      <c r="U15" s="117" t="s">
+        <v>257</v>
+      </c>
+      <c r="V15" s="123" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="21.95" customHeight="1">
+      <c r="A16" s="124" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="117" t="s">
+        <v>265</v>
+      </c>
+      <c r="V16" s="123"/>
+    </row>
+    <row r="17" spans="1:22" ht="21.95" customHeight="1">
+      <c r="A17" s="124" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117" t="s">
+        <v>265</v>
+      </c>
+      <c r="V17" s="123"/>
+    </row>
+    <row r="18" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
+      <c r="A18" s="126" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="127"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="127"/>
+      <c r="P18" s="127"/>
+      <c r="Q18" s="127"/>
+      <c r="R18" s="127"/>
+      <c r="S18" s="127"/>
+      <c r="T18" s="127"/>
+      <c r="U18" s="127"/>
+      <c r="V18" s="129"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="V15:V17"/>
+    <mergeCell ref="A6:V6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:Q5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A8F3FF-DC0B-4CA7-9483-807188F8C27C}">
+  <dimension ref="B1:W27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="133"/>
+    <col min="2" max="3" width="14.5" style="133" customWidth="1"/>
+    <col min="4" max="21" width="4.5" style="133" customWidth="1"/>
+    <col min="22" max="23" width="14.5" style="133" customWidth="1"/>
+    <col min="24" max="257" width="9" style="133"/>
+    <col min="258" max="259" width="14.5" style="133" customWidth="1"/>
+    <col min="260" max="277" width="4.5" style="133" customWidth="1"/>
+    <col min="278" max="279" width="14.5" style="133" customWidth="1"/>
+    <col min="280" max="513" width="9" style="133"/>
+    <col min="514" max="515" width="14.5" style="133" customWidth="1"/>
+    <col min="516" max="533" width="4.5" style="133" customWidth="1"/>
+    <col min="534" max="535" width="14.5" style="133" customWidth="1"/>
+    <col min="536" max="769" width="9" style="133"/>
+    <col min="770" max="771" width="14.5" style="133" customWidth="1"/>
+    <col min="772" max="789" width="4.5" style="133" customWidth="1"/>
+    <col min="790" max="791" width="14.5" style="133" customWidth="1"/>
+    <col min="792" max="1025" width="9" style="133"/>
+    <col min="1026" max="1027" width="14.5" style="133" customWidth="1"/>
+    <col min="1028" max="1045" width="4.5" style="133" customWidth="1"/>
+    <col min="1046" max="1047" width="14.5" style="133" customWidth="1"/>
+    <col min="1048" max="1281" width="9" style="133"/>
+    <col min="1282" max="1283" width="14.5" style="133" customWidth="1"/>
+    <col min="1284" max="1301" width="4.5" style="133" customWidth="1"/>
+    <col min="1302" max="1303" width="14.5" style="133" customWidth="1"/>
+    <col min="1304" max="1537" width="9" style="133"/>
+    <col min="1538" max="1539" width="14.5" style="133" customWidth="1"/>
+    <col min="1540" max="1557" width="4.5" style="133" customWidth="1"/>
+    <col min="1558" max="1559" width="14.5" style="133" customWidth="1"/>
+    <col min="1560" max="1793" width="9" style="133"/>
+    <col min="1794" max="1795" width="14.5" style="133" customWidth="1"/>
+    <col min="1796" max="1813" width="4.5" style="133" customWidth="1"/>
+    <col min="1814" max="1815" width="14.5" style="133" customWidth="1"/>
+    <col min="1816" max="2049" width="9" style="133"/>
+    <col min="2050" max="2051" width="14.5" style="133" customWidth="1"/>
+    <col min="2052" max="2069" width="4.5" style="133" customWidth="1"/>
+    <col min="2070" max="2071" width="14.5" style="133" customWidth="1"/>
+    <col min="2072" max="2305" width="9" style="133"/>
+    <col min="2306" max="2307" width="14.5" style="133" customWidth="1"/>
+    <col min="2308" max="2325" width="4.5" style="133" customWidth="1"/>
+    <col min="2326" max="2327" width="14.5" style="133" customWidth="1"/>
+    <col min="2328" max="2561" width="9" style="133"/>
+    <col min="2562" max="2563" width="14.5" style="133" customWidth="1"/>
+    <col min="2564" max="2581" width="4.5" style="133" customWidth="1"/>
+    <col min="2582" max="2583" width="14.5" style="133" customWidth="1"/>
+    <col min="2584" max="2817" width="9" style="133"/>
+    <col min="2818" max="2819" width="14.5" style="133" customWidth="1"/>
+    <col min="2820" max="2837" width="4.5" style="133" customWidth="1"/>
+    <col min="2838" max="2839" width="14.5" style="133" customWidth="1"/>
+    <col min="2840" max="3073" width="9" style="133"/>
+    <col min="3074" max="3075" width="14.5" style="133" customWidth="1"/>
+    <col min="3076" max="3093" width="4.5" style="133" customWidth="1"/>
+    <col min="3094" max="3095" width="14.5" style="133" customWidth="1"/>
+    <col min="3096" max="3329" width="9" style="133"/>
+    <col min="3330" max="3331" width="14.5" style="133" customWidth="1"/>
+    <col min="3332" max="3349" width="4.5" style="133" customWidth="1"/>
+    <col min="3350" max="3351" width="14.5" style="133" customWidth="1"/>
+    <col min="3352" max="3585" width="9" style="133"/>
+    <col min="3586" max="3587" width="14.5" style="133" customWidth="1"/>
+    <col min="3588" max="3605" width="4.5" style="133" customWidth="1"/>
+    <col min="3606" max="3607" width="14.5" style="133" customWidth="1"/>
+    <col min="3608" max="3841" width="9" style="133"/>
+    <col min="3842" max="3843" width="14.5" style="133" customWidth="1"/>
+    <col min="3844" max="3861" width="4.5" style="133" customWidth="1"/>
+    <col min="3862" max="3863" width="14.5" style="133" customWidth="1"/>
+    <col min="3864" max="4097" width="9" style="133"/>
+    <col min="4098" max="4099" width="14.5" style="133" customWidth="1"/>
+    <col min="4100" max="4117" width="4.5" style="133" customWidth="1"/>
+    <col min="4118" max="4119" width="14.5" style="133" customWidth="1"/>
+    <col min="4120" max="4353" width="9" style="133"/>
+    <col min="4354" max="4355" width="14.5" style="133" customWidth="1"/>
+    <col min="4356" max="4373" width="4.5" style="133" customWidth="1"/>
+    <col min="4374" max="4375" width="14.5" style="133" customWidth="1"/>
+    <col min="4376" max="4609" width="9" style="133"/>
+    <col min="4610" max="4611" width="14.5" style="133" customWidth="1"/>
+    <col min="4612" max="4629" width="4.5" style="133" customWidth="1"/>
+    <col min="4630" max="4631" width="14.5" style="133" customWidth="1"/>
+    <col min="4632" max="4865" width="9" style="133"/>
+    <col min="4866" max="4867" width="14.5" style="133" customWidth="1"/>
+    <col min="4868" max="4885" width="4.5" style="133" customWidth="1"/>
+    <col min="4886" max="4887" width="14.5" style="133" customWidth="1"/>
+    <col min="4888" max="5121" width="9" style="133"/>
+    <col min="5122" max="5123" width="14.5" style="133" customWidth="1"/>
+    <col min="5124" max="5141" width="4.5" style="133" customWidth="1"/>
+    <col min="5142" max="5143" width="14.5" style="133" customWidth="1"/>
+    <col min="5144" max="5377" width="9" style="133"/>
+    <col min="5378" max="5379" width="14.5" style="133" customWidth="1"/>
+    <col min="5380" max="5397" width="4.5" style="133" customWidth="1"/>
+    <col min="5398" max="5399" width="14.5" style="133" customWidth="1"/>
+    <col min="5400" max="5633" width="9" style="133"/>
+    <col min="5634" max="5635" width="14.5" style="133" customWidth="1"/>
+    <col min="5636" max="5653" width="4.5" style="133" customWidth="1"/>
+    <col min="5654" max="5655" width="14.5" style="133" customWidth="1"/>
+    <col min="5656" max="5889" width="9" style="133"/>
+    <col min="5890" max="5891" width="14.5" style="133" customWidth="1"/>
+    <col min="5892" max="5909" width="4.5" style="133" customWidth="1"/>
+    <col min="5910" max="5911" width="14.5" style="133" customWidth="1"/>
+    <col min="5912" max="6145" width="9" style="133"/>
+    <col min="6146" max="6147" width="14.5" style="133" customWidth="1"/>
+    <col min="6148" max="6165" width="4.5" style="133" customWidth="1"/>
+    <col min="6166" max="6167" width="14.5" style="133" customWidth="1"/>
+    <col min="6168" max="6401" width="9" style="133"/>
+    <col min="6402" max="6403" width="14.5" style="133" customWidth="1"/>
+    <col min="6404" max="6421" width="4.5" style="133" customWidth="1"/>
+    <col min="6422" max="6423" width="14.5" style="133" customWidth="1"/>
+    <col min="6424" max="6657" width="9" style="133"/>
+    <col min="6658" max="6659" width="14.5" style="133" customWidth="1"/>
+    <col min="6660" max="6677" width="4.5" style="133" customWidth="1"/>
+    <col min="6678" max="6679" width="14.5" style="133" customWidth="1"/>
+    <col min="6680" max="6913" width="9" style="133"/>
+    <col min="6914" max="6915" width="14.5" style="133" customWidth="1"/>
+    <col min="6916" max="6933" width="4.5" style="133" customWidth="1"/>
+    <col min="6934" max="6935" width="14.5" style="133" customWidth="1"/>
+    <col min="6936" max="7169" width="9" style="133"/>
+    <col min="7170" max="7171" width="14.5" style="133" customWidth="1"/>
+    <col min="7172" max="7189" width="4.5" style="133" customWidth="1"/>
+    <col min="7190" max="7191" width="14.5" style="133" customWidth="1"/>
+    <col min="7192" max="7425" width="9" style="133"/>
+    <col min="7426" max="7427" width="14.5" style="133" customWidth="1"/>
+    <col min="7428" max="7445" width="4.5" style="133" customWidth="1"/>
+    <col min="7446" max="7447" width="14.5" style="133" customWidth="1"/>
+    <col min="7448" max="7681" width="9" style="133"/>
+    <col min="7682" max="7683" width="14.5" style="133" customWidth="1"/>
+    <col min="7684" max="7701" width="4.5" style="133" customWidth="1"/>
+    <col min="7702" max="7703" width="14.5" style="133" customWidth="1"/>
+    <col min="7704" max="7937" width="9" style="133"/>
+    <col min="7938" max="7939" width="14.5" style="133" customWidth="1"/>
+    <col min="7940" max="7957" width="4.5" style="133" customWidth="1"/>
+    <col min="7958" max="7959" width="14.5" style="133" customWidth="1"/>
+    <col min="7960" max="8193" width="9" style="133"/>
+    <col min="8194" max="8195" width="14.5" style="133" customWidth="1"/>
+    <col min="8196" max="8213" width="4.5" style="133" customWidth="1"/>
+    <col min="8214" max="8215" width="14.5" style="133" customWidth="1"/>
+    <col min="8216" max="8449" width="9" style="133"/>
+    <col min="8450" max="8451" width="14.5" style="133" customWidth="1"/>
+    <col min="8452" max="8469" width="4.5" style="133" customWidth="1"/>
+    <col min="8470" max="8471" width="14.5" style="133" customWidth="1"/>
+    <col min="8472" max="8705" width="9" style="133"/>
+    <col min="8706" max="8707" width="14.5" style="133" customWidth="1"/>
+    <col min="8708" max="8725" width="4.5" style="133" customWidth="1"/>
+    <col min="8726" max="8727" width="14.5" style="133" customWidth="1"/>
+    <col min="8728" max="8961" width="9" style="133"/>
+    <col min="8962" max="8963" width="14.5" style="133" customWidth="1"/>
+    <col min="8964" max="8981" width="4.5" style="133" customWidth="1"/>
+    <col min="8982" max="8983" width="14.5" style="133" customWidth="1"/>
+    <col min="8984" max="9217" width="9" style="133"/>
+    <col min="9218" max="9219" width="14.5" style="133" customWidth="1"/>
+    <col min="9220" max="9237" width="4.5" style="133" customWidth="1"/>
+    <col min="9238" max="9239" width="14.5" style="133" customWidth="1"/>
+    <col min="9240" max="9473" width="9" style="133"/>
+    <col min="9474" max="9475" width="14.5" style="133" customWidth="1"/>
+    <col min="9476" max="9493" width="4.5" style="133" customWidth="1"/>
+    <col min="9494" max="9495" width="14.5" style="133" customWidth="1"/>
+    <col min="9496" max="9729" width="9" style="133"/>
+    <col min="9730" max="9731" width="14.5" style="133" customWidth="1"/>
+    <col min="9732" max="9749" width="4.5" style="133" customWidth="1"/>
+    <col min="9750" max="9751" width="14.5" style="133" customWidth="1"/>
+    <col min="9752" max="9985" width="9" style="133"/>
+    <col min="9986" max="9987" width="14.5" style="133" customWidth="1"/>
+    <col min="9988" max="10005" width="4.5" style="133" customWidth="1"/>
+    <col min="10006" max="10007" width="14.5" style="133" customWidth="1"/>
+    <col min="10008" max="10241" width="9" style="133"/>
+    <col min="10242" max="10243" width="14.5" style="133" customWidth="1"/>
+    <col min="10244" max="10261" width="4.5" style="133" customWidth="1"/>
+    <col min="10262" max="10263" width="14.5" style="133" customWidth="1"/>
+    <col min="10264" max="10497" width="9" style="133"/>
+    <col min="10498" max="10499" width="14.5" style="133" customWidth="1"/>
+    <col min="10500" max="10517" width="4.5" style="133" customWidth="1"/>
+    <col min="10518" max="10519" width="14.5" style="133" customWidth="1"/>
+    <col min="10520" max="10753" width="9" style="133"/>
+    <col min="10754" max="10755" width="14.5" style="133" customWidth="1"/>
+    <col min="10756" max="10773" width="4.5" style="133" customWidth="1"/>
+    <col min="10774" max="10775" width="14.5" style="133" customWidth="1"/>
+    <col min="10776" max="11009" width="9" style="133"/>
+    <col min="11010" max="11011" width="14.5" style="133" customWidth="1"/>
+    <col min="11012" max="11029" width="4.5" style="133" customWidth="1"/>
+    <col min="11030" max="11031" width="14.5" style="133" customWidth="1"/>
+    <col min="11032" max="11265" width="9" style="133"/>
+    <col min="11266" max="11267" width="14.5" style="133" customWidth="1"/>
+    <col min="11268" max="11285" width="4.5" style="133" customWidth="1"/>
+    <col min="11286" max="11287" width="14.5" style="133" customWidth="1"/>
+    <col min="11288" max="11521" width="9" style="133"/>
+    <col min="11522" max="11523" width="14.5" style="133" customWidth="1"/>
+    <col min="11524" max="11541" width="4.5" style="133" customWidth="1"/>
+    <col min="11542" max="11543" width="14.5" style="133" customWidth="1"/>
+    <col min="11544" max="11777" width="9" style="133"/>
+    <col min="11778" max="11779" width="14.5" style="133" customWidth="1"/>
+    <col min="11780" max="11797" width="4.5" style="133" customWidth="1"/>
+    <col min="11798" max="11799" width="14.5" style="133" customWidth="1"/>
+    <col min="11800" max="12033" width="9" style="133"/>
+    <col min="12034" max="12035" width="14.5" style="133" customWidth="1"/>
+    <col min="12036" max="12053" width="4.5" style="133" customWidth="1"/>
+    <col min="12054" max="12055" width="14.5" style="133" customWidth="1"/>
+    <col min="12056" max="12289" width="9" style="133"/>
+    <col min="12290" max="12291" width="14.5" style="133" customWidth="1"/>
+    <col min="12292" max="12309" width="4.5" style="133" customWidth="1"/>
+    <col min="12310" max="12311" width="14.5" style="133" customWidth="1"/>
+    <col min="12312" max="12545" width="9" style="133"/>
+    <col min="12546" max="12547" width="14.5" style="133" customWidth="1"/>
+    <col min="12548" max="12565" width="4.5" style="133" customWidth="1"/>
+    <col min="12566" max="12567" width="14.5" style="133" customWidth="1"/>
+    <col min="12568" max="12801" width="9" style="133"/>
+    <col min="12802" max="12803" width="14.5" style="133" customWidth="1"/>
+    <col min="12804" max="12821" width="4.5" style="133" customWidth="1"/>
+    <col min="12822" max="12823" width="14.5" style="133" customWidth="1"/>
+    <col min="12824" max="13057" width="9" style="133"/>
+    <col min="13058" max="13059" width="14.5" style="133" customWidth="1"/>
+    <col min="13060" max="13077" width="4.5" style="133" customWidth="1"/>
+    <col min="13078" max="13079" width="14.5" style="133" customWidth="1"/>
+    <col min="13080" max="13313" width="9" style="133"/>
+    <col min="13314" max="13315" width="14.5" style="133" customWidth="1"/>
+    <col min="13316" max="13333" width="4.5" style="133" customWidth="1"/>
+    <col min="13334" max="13335" width="14.5" style="133" customWidth="1"/>
+    <col min="13336" max="13569" width="9" style="133"/>
+    <col min="13570" max="13571" width="14.5" style="133" customWidth="1"/>
+    <col min="13572" max="13589" width="4.5" style="133" customWidth="1"/>
+    <col min="13590" max="13591" width="14.5" style="133" customWidth="1"/>
+    <col min="13592" max="13825" width="9" style="133"/>
+    <col min="13826" max="13827" width="14.5" style="133" customWidth="1"/>
+    <col min="13828" max="13845" width="4.5" style="133" customWidth="1"/>
+    <col min="13846" max="13847" width="14.5" style="133" customWidth="1"/>
+    <col min="13848" max="14081" width="9" style="133"/>
+    <col min="14082" max="14083" width="14.5" style="133" customWidth="1"/>
+    <col min="14084" max="14101" width="4.5" style="133" customWidth="1"/>
+    <col min="14102" max="14103" width="14.5" style="133" customWidth="1"/>
+    <col min="14104" max="14337" width="9" style="133"/>
+    <col min="14338" max="14339" width="14.5" style="133" customWidth="1"/>
+    <col min="14340" max="14357" width="4.5" style="133" customWidth="1"/>
+    <col min="14358" max="14359" width="14.5" style="133" customWidth="1"/>
+    <col min="14360" max="14593" width="9" style="133"/>
+    <col min="14594" max="14595" width="14.5" style="133" customWidth="1"/>
+    <col min="14596" max="14613" width="4.5" style="133" customWidth="1"/>
+    <col min="14614" max="14615" width="14.5" style="133" customWidth="1"/>
+    <col min="14616" max="14849" width="9" style="133"/>
+    <col min="14850" max="14851" width="14.5" style="133" customWidth="1"/>
+    <col min="14852" max="14869" width="4.5" style="133" customWidth="1"/>
+    <col min="14870" max="14871" width="14.5" style="133" customWidth="1"/>
+    <col min="14872" max="15105" width="9" style="133"/>
+    <col min="15106" max="15107" width="14.5" style="133" customWidth="1"/>
+    <col min="15108" max="15125" width="4.5" style="133" customWidth="1"/>
+    <col min="15126" max="15127" width="14.5" style="133" customWidth="1"/>
+    <col min="15128" max="15361" width="9" style="133"/>
+    <col min="15362" max="15363" width="14.5" style="133" customWidth="1"/>
+    <col min="15364" max="15381" width="4.5" style="133" customWidth="1"/>
+    <col min="15382" max="15383" width="14.5" style="133" customWidth="1"/>
+    <col min="15384" max="15617" width="9" style="133"/>
+    <col min="15618" max="15619" width="14.5" style="133" customWidth="1"/>
+    <col min="15620" max="15637" width="4.5" style="133" customWidth="1"/>
+    <col min="15638" max="15639" width="14.5" style="133" customWidth="1"/>
+    <col min="15640" max="15873" width="9" style="133"/>
+    <col min="15874" max="15875" width="14.5" style="133" customWidth="1"/>
+    <col min="15876" max="15893" width="4.5" style="133" customWidth="1"/>
+    <col min="15894" max="15895" width="14.5" style="133" customWidth="1"/>
+    <col min="15896" max="16129" width="9" style="133"/>
+    <col min="16130" max="16131" width="14.5" style="133" customWidth="1"/>
+    <col min="16132" max="16149" width="4.5" style="133" customWidth="1"/>
+    <col min="16150" max="16151" width="14.5" style="133" customWidth="1"/>
+    <col min="16152" max="16384" width="9" style="133"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" ht="20.25">
+      <c r="B1" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="132"/>
+    </row>
+    <row r="2" spans="2:23" ht="21" thickBot="1">
+      <c r="B2" s="134" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="136"/>
+    </row>
+    <row r="3" spans="2:23" ht="21" thickBot="1">
+      <c r="B3" s="137"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="139"/>
+    </row>
+    <row r="4" spans="2:23" ht="15" thickBot="1">
+      <c r="B4" s="140" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="141"/>
+      <c r="K4" s="141"/>
+      <c r="L4" s="141"/>
+      <c r="M4" s="141"/>
+      <c r="N4" s="141"/>
+      <c r="O4" s="141"/>
+      <c r="P4" s="141"/>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="141"/>
+      <c r="S4" s="141"/>
+      <c r="T4" s="141"/>
+      <c r="U4" s="141"/>
+      <c r="V4" s="141"/>
+      <c r="W4" s="142"/>
+    </row>
+    <row r="5" spans="2:23" ht="16.5" thickBot="1">
+      <c r="B5" s="143" t="s">
+        <v>271</v>
+      </c>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="147"/>
+      <c r="M5" s="143" t="s">
+        <v>272</v>
+      </c>
+      <c r="N5" s="148"/>
+      <c r="O5" s="148"/>
+      <c r="P5" s="148"/>
+      <c r="Q5" s="148"/>
+      <c r="R5" s="148"/>
+      <c r="S5" s="148"/>
+      <c r="T5" s="148"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="150"/>
+    </row>
+    <row r="6" spans="2:23" ht="15" thickBot="1">
+      <c r="B6" s="143" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="144"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="146"/>
+      <c r="H6" s="146"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="143" t="s">
+        <v>274</v>
+      </c>
+      <c r="N6" s="148"/>
+      <c r="O6" s="148"/>
+      <c r="P6" s="148"/>
+      <c r="Q6" s="148"/>
+      <c r="R6" s="148"/>
+      <c r="S6" s="148"/>
+      <c r="T6" s="148"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="142"/>
+    </row>
+    <row r="7" spans="2:23" ht="16.5" thickBot="1">
+      <c r="B7" s="151" t="s">
+        <v>275</v>
+      </c>
+      <c r="C7" s="152"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="154"/>
+      <c r="L7" s="155"/>
+      <c r="M7" s="151" t="s">
+        <v>276</v>
+      </c>
+      <c r="N7" s="156"/>
+      <c r="O7" s="156"/>
+      <c r="P7" s="156"/>
+      <c r="Q7" s="156"/>
+      <c r="R7" s="156"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="152"/>
+      <c r="V7" s="157"/>
+      <c r="W7" s="158"/>
+    </row>
+    <row r="8" spans="2:23" ht="15" thickBot="1">
+      <c r="B8" s="159" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="160"/>
+      <c r="P8" s="160"/>
+      <c r="Q8" s="160"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="160"/>
+      <c r="T8" s="160"/>
+      <c r="U8" s="160"/>
+      <c r="V8" s="160"/>
+      <c r="W8" s="161"/>
+    </row>
+    <row r="9" spans="2:23">
+      <c r="B9" s="162" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="163"/>
+      <c r="D9" s="164" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+      <c r="N9" s="165"/>
+      <c r="O9" s="165"/>
+      <c r="P9" s="165"/>
+      <c r="Q9" s="165"/>
+      <c r="R9" s="165"/>
+      <c r="S9" s="165"/>
+      <c r="T9" s="165"/>
+      <c r="U9" s="166"/>
+      <c r="V9" s="163" t="s">
+        <v>280</v>
+      </c>
+      <c r="W9" s="167" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" ht="15" thickBot="1">
+      <c r="B10" s="168" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="169"/>
+      <c r="D10" s="170" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="170" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" s="170" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" s="170" t="s">
+        <v>286</v>
+      </c>
+      <c r="H10" s="170" t="s">
+        <v>287</v>
+      </c>
+      <c r="I10" s="170" t="s">
+        <v>288</v>
+      </c>
+      <c r="J10" s="170" t="s">
+        <v>289</v>
+      </c>
+      <c r="K10" s="170" t="s">
+        <v>290</v>
+      </c>
+      <c r="L10" s="170" t="s">
+        <v>291</v>
+      </c>
+      <c r="M10" s="170" t="s">
+        <v>292</v>
+      </c>
+      <c r="N10" s="170" t="s">
+        <v>293</v>
+      </c>
+      <c r="O10" s="170" t="s">
+        <v>294</v>
+      </c>
+      <c r="P10" s="170" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q10" s="170" t="s">
+        <v>296</v>
+      </c>
+      <c r="R10" s="170" t="s">
+        <v>297</v>
+      </c>
+      <c r="S10" s="170" t="s">
+        <v>298</v>
+      </c>
+      <c r="T10" s="170" t="s">
+        <v>299</v>
+      </c>
+      <c r="U10" s="170" t="s">
+        <v>300</v>
+      </c>
+      <c r="V10" s="171"/>
+      <c r="W10" s="172"/>
+    </row>
+    <row r="11" spans="2:23" ht="19.5" customHeight="1">
+      <c r="B11" s="173"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="174"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="174"/>
+      <c r="P11" s="174"/>
+      <c r="Q11" s="174"/>
+      <c r="R11" s="174"/>
+      <c r="S11" s="174"/>
+      <c r="T11" s="174"/>
+      <c r="U11" s="174"/>
+      <c r="V11" s="174"/>
+      <c r="W11" s="175"/>
+    </row>
+    <row r="12" spans="2:23" ht="19.5" customHeight="1">
+      <c r="B12" s="176"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="178"/>
+      <c r="L12" s="178"/>
+      <c r="M12" s="178"/>
+      <c r="N12" s="178"/>
+      <c r="O12" s="178"/>
+      <c r="P12" s="178"/>
+      <c r="Q12" s="178"/>
+      <c r="R12" s="178"/>
+      <c r="S12" s="178"/>
+      <c r="T12" s="178"/>
+      <c r="U12" s="178"/>
+      <c r="V12" s="178"/>
+      <c r="W12" s="179"/>
+    </row>
+    <row r="13" spans="2:23" ht="19.5" customHeight="1">
+      <c r="B13" s="176"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="178"/>
+      <c r="M13" s="178"/>
+      <c r="N13" s="178"/>
+      <c r="O13" s="178"/>
+      <c r="P13" s="178"/>
+      <c r="Q13" s="178"/>
+      <c r="R13" s="178"/>
+      <c r="S13" s="178"/>
+      <c r="T13" s="178"/>
+      <c r="U13" s="178"/>
+      <c r="V13" s="178"/>
+      <c r="W13" s="179"/>
+    </row>
+    <row r="14" spans="2:23" ht="19.5" customHeight="1">
+      <c r="B14" s="176"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="178"/>
+      <c r="M14" s="178"/>
+      <c r="N14" s="178"/>
+      <c r="O14" s="178"/>
+      <c r="P14" s="178"/>
+      <c r="Q14" s="178"/>
+      <c r="R14" s="178"/>
+      <c r="S14" s="178"/>
+      <c r="T14" s="178"/>
+      <c r="U14" s="178"/>
+      <c r="V14" s="178"/>
+      <c r="W14" s="179"/>
+    </row>
+    <row r="15" spans="2:23" ht="19.5" customHeight="1">
+      <c r="B15" s="176"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="178"/>
+      <c r="M15" s="178"/>
+      <c r="N15" s="178"/>
+      <c r="O15" s="178"/>
+      <c r="P15" s="178"/>
+      <c r="Q15" s="178"/>
+      <c r="R15" s="178"/>
+      <c r="S15" s="178"/>
+      <c r="T15" s="178"/>
+      <c r="U15" s="178"/>
+      <c r="V15" s="178"/>
+      <c r="W15" s="179"/>
+    </row>
+    <row r="16" spans="2:23" ht="19.5" customHeight="1">
+      <c r="B16" s="176"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="178"/>
+      <c r="M16" s="178"/>
+      <c r="N16" s="178"/>
+      <c r="O16" s="178"/>
+      <c r="P16" s="178"/>
+      <c r="Q16" s="178"/>
+      <c r="R16" s="178"/>
+      <c r="S16" s="178"/>
+      <c r="T16" s="178"/>
+      <c r="U16" s="178"/>
+      <c r="V16" s="178"/>
+      <c r="W16" s="179"/>
+    </row>
+    <row r="17" spans="2:23" ht="19.5" customHeight="1">
+      <c r="B17" s="176"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="178"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="178"/>
+      <c r="K17" s="178"/>
+      <c r="L17" s="178"/>
+      <c r="M17" s="178"/>
+      <c r="N17" s="178"/>
+      <c r="O17" s="178"/>
+      <c r="P17" s="178"/>
+      <c r="Q17" s="178"/>
+      <c r="R17" s="178"/>
+      <c r="S17" s="178"/>
+      <c r="T17" s="178"/>
+      <c r="U17" s="178"/>
+      <c r="V17" s="178"/>
+      <c r="W17" s="179"/>
+    </row>
+    <row r="18" spans="2:23" ht="19.5" customHeight="1">
+      <c r="B18" s="176"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="178"/>
+      <c r="M18" s="178"/>
+      <c r="N18" s="178"/>
+      <c r="O18" s="178"/>
+      <c r="P18" s="178"/>
+      <c r="Q18" s="178"/>
+      <c r="R18" s="178"/>
+      <c r="S18" s="178"/>
+      <c r="T18" s="178"/>
+      <c r="U18" s="178"/>
+      <c r="V18" s="178"/>
+      <c r="W18" s="179"/>
+    </row>
+    <row r="19" spans="2:23" ht="19.5" customHeight="1">
+      <c r="B19" s="176"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="178"/>
+      <c r="L19" s="178"/>
+      <c r="M19" s="178"/>
+      <c r="N19" s="178"/>
+      <c r="O19" s="178"/>
+      <c r="P19" s="178"/>
+      <c r="Q19" s="178"/>
+      <c r="R19" s="178"/>
+      <c r="S19" s="178"/>
+      <c r="T19" s="178"/>
+      <c r="U19" s="178"/>
+      <c r="V19" s="178"/>
+      <c r="W19" s="179"/>
+    </row>
+    <row r="20" spans="2:23" ht="19.5" customHeight="1">
+      <c r="B20" s="176"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="178"/>
+      <c r="K20" s="178"/>
+      <c r="L20" s="178"/>
+      <c r="M20" s="178"/>
+      <c r="N20" s="178"/>
+      <c r="O20" s="178"/>
+      <c r="P20" s="178"/>
+      <c r="Q20" s="178"/>
+      <c r="R20" s="178"/>
+      <c r="S20" s="178"/>
+      <c r="T20" s="178"/>
+      <c r="U20" s="178"/>
+      <c r="V20" s="178"/>
+      <c r="W20" s="179"/>
+    </row>
+    <row r="21" spans="2:23" ht="19.5" customHeight="1">
+      <c r="B21" s="176"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="178"/>
+      <c r="M21" s="178"/>
+      <c r="N21" s="178"/>
+      <c r="O21" s="178"/>
+      <c r="P21" s="178"/>
+      <c r="Q21" s="178"/>
+      <c r="R21" s="178"/>
+      <c r="S21" s="178"/>
+      <c r="T21" s="178"/>
+      <c r="U21" s="178"/>
+      <c r="V21" s="178"/>
+      <c r="W21" s="179"/>
+    </row>
+    <row r="22" spans="2:23" ht="19.5" customHeight="1">
+      <c r="B22" s="176"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="178"/>
+      <c r="G22" s="178"/>
+      <c r="H22" s="178"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="178"/>
+      <c r="L22" s="178"/>
+      <c r="M22" s="178"/>
+      <c r="N22" s="178"/>
+      <c r="O22" s="178"/>
+      <c r="P22" s="178"/>
+      <c r="Q22" s="178"/>
+      <c r="R22" s="178"/>
+      <c r="S22" s="178"/>
+      <c r="T22" s="178"/>
+      <c r="U22" s="178"/>
+      <c r="V22" s="178"/>
+      <c r="W22" s="179"/>
+    </row>
+    <row r="23" spans="2:23" ht="19.5" customHeight="1">
+      <c r="B23" s="176"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="178"/>
+      <c r="M23" s="178"/>
+      <c r="N23" s="178"/>
+      <c r="O23" s="178"/>
+      <c r="P23" s="178"/>
+      <c r="Q23" s="178"/>
+      <c r="R23" s="178"/>
+      <c r="S23" s="178"/>
+      <c r="T23" s="178"/>
+      <c r="U23" s="178"/>
+      <c r="V23" s="178"/>
+      <c r="W23" s="179"/>
+    </row>
+    <row r="24" spans="2:23" ht="19.5" customHeight="1">
+      <c r="B24" s="176"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="178"/>
+      <c r="H24" s="178"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="178"/>
+      <c r="M24" s="178"/>
+      <c r="N24" s="178"/>
+      <c r="O24" s="178"/>
+      <c r="P24" s="178"/>
+      <c r="Q24" s="178"/>
+      <c r="R24" s="178"/>
+      <c r="S24" s="178"/>
+      <c r="T24" s="178"/>
+      <c r="U24" s="178"/>
+      <c r="V24" s="178"/>
+      <c r="W24" s="179"/>
+    </row>
+    <row r="25" spans="2:23" ht="19.5" customHeight="1">
+      <c r="B25" s="176"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="178"/>
+      <c r="H25" s="178"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="178"/>
+      <c r="M25" s="178"/>
+      <c r="N25" s="178"/>
+      <c r="O25" s="178"/>
+      <c r="P25" s="178"/>
+      <c r="Q25" s="178"/>
+      <c r="R25" s="178"/>
+      <c r="S25" s="178"/>
+      <c r="T25" s="178"/>
+      <c r="U25" s="178"/>
+      <c r="V25" s="178"/>
+      <c r="W25" s="179"/>
+    </row>
+    <row r="26" spans="2:23" ht="19.5" customHeight="1">
+      <c r="B26" s="176"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="H26" s="178"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="178"/>
+      <c r="M26" s="178"/>
+      <c r="N26" s="178"/>
+      <c r="O26" s="178"/>
+      <c r="P26" s="178"/>
+      <c r="Q26" s="178"/>
+      <c r="R26" s="178"/>
+      <c r="S26" s="178"/>
+      <c r="T26" s="178"/>
+      <c r="U26" s="178"/>
+      <c r="V26" s="178"/>
+      <c r="W26" s="179"/>
+    </row>
+    <row r="27" spans="2:23" ht="19.5" customHeight="1" thickBot="1">
+      <c r="B27" s="168"/>
+      <c r="C27" s="169"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="180"/>
+      <c r="K27" s="180"/>
+      <c r="L27" s="180"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="180"/>
+      <c r="O27" s="180"/>
+      <c r="P27" s="180"/>
+      <c r="Q27" s="180"/>
+      <c r="R27" s="180"/>
+      <c r="S27" s="180"/>
+      <c r="T27" s="180"/>
+      <c r="U27" s="180"/>
+      <c r="V27" s="180"/>
+      <c r="W27" s="181"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B8:W8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:U9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="B1:W1"/>
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B3:W3"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="V5:W5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16811B0A-B549-44D2-B7B1-A44DDEF62805}">
   <dimension ref="A1:AH17"/>
@@ -3312,7 +7415,7 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
@@ -3325,85 +7428,85 @@
     <col min="11" max="34" width="3.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:34" ht="13.5" customHeight="1">
+      <c r="A1" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41" t="s">
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41" t="s">
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41" t="s">
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="13" t="s">
         <v>122</v>
       </c>
@@ -3477,11 +7580,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+    <row r="3" spans="1:34" ht="14.25" customHeight="1">
+      <c r="A3" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="44" t="s">
         <v>138</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -3490,22 +7593,22 @@
       <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="41">
         <v>44197</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="41">
         <v>44316</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="48">
         <v>90</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="48">
         <v>16</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="48">
         <v>120</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="48">
         <v>50</v>
       </c>
       <c r="K3" s="31"/>
@@ -3533,21 +7636,21 @@
       <c r="AG3" s="13"/>
       <c r="AH3" s="13"/>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+    <row r="4" spans="1:34">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="31"/>
@@ -3573,21 +7676,21 @@
       <c r="AG4" s="13"/>
       <c r="AH4" s="13"/>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
+    <row r="5" spans="1:34">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -3613,21 +7716,21 @@
       <c r="AG5" s="13"/>
       <c r="AH5" s="13"/>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
+    <row r="6" spans="1:34">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -3653,21 +7756,21 @@
       <c r="AG6" s="13"/>
       <c r="AH6" s="13"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
+    <row r="7" spans="1:34">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -3693,19 +7796,19 @@
       <c r="AG7" s="13"/>
       <c r="AH7" s="13"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
+    <row r="8" spans="1:34">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
       <c r="K8" s="28">
         <v>2</v>
       </c>
@@ -3763,9 +7866,9 @@
       <c r="AG8" s="28"/>
       <c r="AH8" s="28"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A9" s="39"/>
-      <c r="B9" s="38" t="s">
+    <row r="9" spans="1:34">
+      <c r="A9" s="45"/>
+      <c r="B9" s="44" t="s">
         <v>144</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -3774,22 +7877,22 @@
       <c r="D9" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="41">
         <v>44228</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="41">
         <v>44377</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="48">
         <v>110</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="48">
         <v>16</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="48">
         <v>120</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="48">
         <v>50</v>
       </c>
       <c r="K9" s="30"/>
@@ -3817,21 +7920,21 @@
       <c r="AG9" s="13"/>
       <c r="AH9" s="13"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
+    <row r="10" spans="1:34">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
@@ -3857,21 +7960,21 @@
       <c r="AG10" s="13"/>
       <c r="AH10" s="13"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
+    <row r="11" spans="1:34">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
@@ -3897,21 +8000,21 @@
       <c r="AG11" s="13"/>
       <c r="AH11" s="13"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
+    <row r="12" spans="1:34">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
@@ -3937,21 +8040,21 @@
       <c r="AG12" s="13"/>
       <c r="AH12" s="13"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
+    <row r="13" spans="1:34">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
@@ -3977,19 +8080,19 @@
       <c r="AG13" s="31"/>
       <c r="AH13" s="31"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
+    <row r="14" spans="1:34">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
       <c r="K14" s="28">
         <v>2</v>
       </c>
@@ -4047,7 +8150,7 @@
       <c r="AG14" s="28"/>
       <c r="AH14" s="28"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34">
       <c r="A15" s="29" t="s">
         <v>141</v>
       </c>
@@ -4085,7 +8188,7 @@
       <c r="AG15" s="13"/>
       <c r="AH15" s="13"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34">
       <c r="A16" s="29" t="s">
         <v>142</v>
       </c>
@@ -4123,7 +8226,7 @@
       <c r="AG16" s="13"/>
       <c r="AH16" s="13"/>
     </row>
-    <row r="17" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="15.75" customHeight="1">
       <c r="A17" s="29" t="s">
         <v>143</v>
       </c>
@@ -4163,22 +8266,7 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="D14:J14"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="B3:B8"/>
@@ -4195,7 +8283,22 @@
     <mergeCell ref="H9:H13"/>
     <mergeCell ref="I9:I13"/>
     <mergeCell ref="J9:J13"/>
-    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4211,7 +8314,7 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
@@ -4220,7 +8323,7 @@
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="26" t="s">
         <v>103</v>
       </c>
@@ -4264,7 +8367,7 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="11" width="8.25" bestFit="1" customWidth="1"/>
@@ -4273,78 +8376,78 @@
     <col min="16" max="33" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="2:33">
+      <c r="B1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-    </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.2">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-    </row>
-    <row r="3" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="46" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+    </row>
+    <row r="2" spans="2:33">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+    </row>
+    <row r="3" spans="2:33" ht="21.75" customHeight="1">
+      <c r="B3" s="51" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="20">
@@ -4441,8 +8544,8 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="4" spans="2:33" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="46"/>
+    <row r="4" spans="2:33" ht="21" customHeight="1">
+      <c r="B4" s="51"/>
       <c r="C4" s="19">
         <v>44166</v>
       </c>
@@ -4537,7 +8640,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="5" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:33">
       <c r="B5" s="25" t="s">
         <v>62</v>
       </c>
@@ -4565,7 +8668,7 @@
       <c r="AF5" s="21"/>
       <c r="AG5" s="21"/>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:33">
       <c r="B6" s="25" t="s">
         <v>64</v>
       </c>
@@ -4589,17 +8692,17 @@
       <c r="Z6" s="21"/>
       <c r="AA6" s="21"/>
     </row>
-    <row r="25" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="15:15">
       <c r="O25" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="15:15">
       <c r="O26" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="15:15">
       <c r="O27" s="24" t="s">
         <v>67</v>
       </c>
@@ -4622,99 +8725,99 @@
       <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="36" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="2:36">
+      <c r="B1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="45"/>
-      <c r="AJ1" s="45"/>
-    </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-    </row>
-    <row r="3" spans="2:36" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="46" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+    </row>
+    <row r="2" spans="2:36">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+    </row>
+    <row r="3" spans="2:36" ht="21.75" customHeight="1">
+      <c r="B3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="52" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="20" t="s">
@@ -4811,11 +8914,11 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="2:36" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
+    <row r="4" spans="2:36" ht="21" customHeight="1">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="19">
         <v>44166</v>
       </c>
@@ -4910,7 +9013,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:36">
       <c r="B5" s="25" t="s">
         <v>15</v>
       </c>
@@ -4918,7 +9021,7 @@
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
     </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:36">
       <c r="B6" s="25" t="s">
         <v>20</v>
       </c>
@@ -4926,17 +9029,17 @@
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
     </row>
-    <row r="25" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="18:18">
       <c r="R25" s="21" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="18:18">
       <c r="R26" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="18:18">
       <c r="R27" s="24" t="s">
         <v>67</v>
       </c>
@@ -4961,7 +9064,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4974,7 +9077,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4990,12 +9093,12 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5012,7 +9115,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/doc/学习总结/项目管理模板.xlsx
+++ b/src/main/doc/学习总结/项目管理模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\学习总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD41A12D-6D43-4B1B-A053-BB1266C34F1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7756F8C6-4543-440C-A1B0-A5681A147192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -2442,42 +2442,133 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2499,147 +2590,149 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="17" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="17" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2650,74 +2743,101 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="17" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="17" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2728,9 +2848,6 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2749,131 +2866,14 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3193,150 +3193,150 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="6" spans="3:9">
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
     </row>
     <row r="15" spans="3:9">
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
     </row>
     <row r="16" spans="3:9">
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" spans="3:9">
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
     </row>
     <row r="18" spans="3:9">
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="3:9">
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
     </row>
     <row r="20" spans="3:9">
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
     </row>
     <row r="21" spans="3:9">
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3999,18 +3999,18 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="13"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
       <c r="J1" s="13" t="s">
         <v>45</v>
       </c>
@@ -4046,7 +4046,7 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="77" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -4076,7 +4076,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="40"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="15"/>
       <c r="C4" s="17" t="s">
         <v>58</v>
@@ -4092,7 +4092,7 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="40"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -4106,7 +4106,7 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="77" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="13"/>
@@ -4120,7 +4120,7 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="40"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -4132,7 +4132,7 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="40"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -4144,7 +4144,7 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="40"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -4159,7 +4159,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="40"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -4174,7 +4174,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="40"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -4189,7 +4189,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="77" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="13"/>
@@ -4206,7 +4206,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="40"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -4218,7 +4218,7 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="40"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -4230,7 +4230,7 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="40"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -4242,7 +4242,7 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="40"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -4254,7 +4254,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="40"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -4266,7 +4266,7 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="40"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -4301,342 +4301,342 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="84" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4665,16 +4665,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="86" t="s">
         <v>152</v>
       </c>
       <c r="E1" s="35" t="s">
@@ -4743,10 +4743,10 @@
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="35" t="s">
         <v>173</v>
       </c>
@@ -5025,410 +5025,403 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="120" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="57"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="58" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="124"/>
+      <c r="C3" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64" t="s">
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="102" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68">
+      <c r="B4" s="103"/>
+      <c r="C4" s="108">
         <v>0.8</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="111" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="69">
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="42">
         <v>10</v>
       </c>
-      <c r="K4" s="73">
+      <c r="K4" s="114">
         <f>J4+J5+J6+J7+J8-J9-J10-J11-J12-J13-J14-J15-J16</f>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77" t="s">
+      <c r="A5" s="104"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="78">
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="43">
         <v>1</v>
       </c>
-      <c r="K5" s="79"/>
+      <c r="K5" s="115"/>
     </row>
     <row r="6" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A6" s="74"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="80" t="s">
+      <c r="A6" s="104"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="78">
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="43">
         <v>1</v>
       </c>
-      <c r="K6" s="79"/>
+      <c r="K6" s="115"/>
     </row>
     <row r="7" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="38" t="s">
+      <c r="A7" s="104"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="78">
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="43">
         <v>1</v>
       </c>
-      <c r="K7" s="79"/>
+      <c r="K7" s="115"/>
     </row>
     <row r="8" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="39" t="s">
+      <c r="A8" s="104"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="78">
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="43">
         <v>1</v>
       </c>
-      <c r="K8" s="79"/>
+      <c r="K8" s="115"/>
     </row>
     <row r="9" spans="1:15" ht="39" customHeight="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="77" t="s">
+      <c r="A9" s="104"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="78">
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="43">
         <v>1</v>
       </c>
-      <c r="K9" s="79"/>
+      <c r="K9" s="115"/>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="83" t="s">
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="99" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="78">
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="43">
         <v>1</v>
       </c>
-      <c r="K10" s="79"/>
+      <c r="K10" s="115"/>
     </row>
     <row r="11" spans="1:15" ht="42" customHeight="1">
-      <c r="A11" s="74"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="83" t="s">
+      <c r="A11" s="104"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="99" t="s">
         <v>203</v>
       </c>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="78">
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="43">
         <v>1</v>
       </c>
-      <c r="K11" s="79"/>
+      <c r="K11" s="115"/>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A12" s="74"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="83" t="s">
+      <c r="A12" s="104"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="78">
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="43">
         <v>1</v>
       </c>
-      <c r="K12" s="79"/>
+      <c r="K12" s="115"/>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A13" s="74"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="39" t="s">
+      <c r="A13" s="104"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="78">
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="43">
         <v>1</v>
       </c>
-      <c r="K13" s="79"/>
-      <c r="O13" s="86"/>
+      <c r="K13" s="115"/>
+      <c r="O13" s="44"/>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A14" s="74"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="39" t="s">
+      <c r="A14" s="104"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="78">
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="43">
         <v>1</v>
       </c>
-      <c r="K14" s="79"/>
+      <c r="K14" s="115"/>
     </row>
     <row r="15" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A15" s="74"/>
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="39" t="s">
+      <c r="A15" s="104"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="78">
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="43">
         <v>1</v>
       </c>
-      <c r="K15" s="79"/>
+      <c r="K15" s="115"/>
     </row>
     <row r="16" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A16" s="87"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="39" t="s">
+      <c r="A16" s="106"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="78">
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="43">
         <v>1</v>
       </c>
-      <c r="K16" s="90"/>
+      <c r="K16" s="116"/>
     </row>
     <row r="17" spans="1:12" ht="48" customHeight="1">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="91">
+      <c r="B17" s="87"/>
+      <c r="C17" s="45">
         <v>0.2</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="78">
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="43">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="74.25" customHeight="1">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="98"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="46"/>
     </row>
     <row r="19" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="99">
+      <c r="B19" s="87"/>
+      <c r="C19" s="88">
         <f>K4*C4+K17*C17</f>
         <v>7.2000000000000011</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="98"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="46"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="103"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="103"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="103"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
     </row>
     <row r="22" spans="1:12" ht="177" customHeight="1">
-      <c r="A22" s="103"/>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="A20:K22"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="A4:B16"/>
     <mergeCell ref="C4:C16"/>
@@ -5440,13 +5433,20 @@
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="D9:D16"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="A20:K22"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5466,895 +5466,894 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="2" max="20" width="4.625" style="107" customWidth="1"/>
-    <col min="21" max="21" width="9" style="107"/>
-    <col min="22" max="22" width="18.375" style="107" customWidth="1"/>
-    <col min="23" max="256" width="9" style="107"/>
-    <col min="257" max="257" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="258" max="276" width="4.625" style="107" customWidth="1"/>
-    <col min="277" max="277" width="9" style="107"/>
-    <col min="278" max="278" width="18.375" style="107" customWidth="1"/>
-    <col min="279" max="512" width="9" style="107"/>
-    <col min="513" max="513" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="514" max="532" width="4.625" style="107" customWidth="1"/>
-    <col min="533" max="533" width="9" style="107"/>
-    <col min="534" max="534" width="18.375" style="107" customWidth="1"/>
-    <col min="535" max="768" width="9" style="107"/>
-    <col min="769" max="769" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="770" max="788" width="4.625" style="107" customWidth="1"/>
-    <col min="789" max="789" width="9" style="107"/>
-    <col min="790" max="790" width="18.375" style="107" customWidth="1"/>
-    <col min="791" max="1024" width="9" style="107"/>
-    <col min="1025" max="1025" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1044" width="4.625" style="107" customWidth="1"/>
-    <col min="1045" max="1045" width="9" style="107"/>
-    <col min="1046" max="1046" width="18.375" style="107" customWidth="1"/>
-    <col min="1047" max="1280" width="9" style="107"/>
-    <col min="1281" max="1281" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1300" width="4.625" style="107" customWidth="1"/>
-    <col min="1301" max="1301" width="9" style="107"/>
-    <col min="1302" max="1302" width="18.375" style="107" customWidth="1"/>
-    <col min="1303" max="1536" width="9" style="107"/>
-    <col min="1537" max="1537" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1556" width="4.625" style="107" customWidth="1"/>
-    <col min="1557" max="1557" width="9" style="107"/>
-    <col min="1558" max="1558" width="18.375" style="107" customWidth="1"/>
-    <col min="1559" max="1792" width="9" style="107"/>
-    <col min="1793" max="1793" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1812" width="4.625" style="107" customWidth="1"/>
-    <col min="1813" max="1813" width="9" style="107"/>
-    <col min="1814" max="1814" width="18.375" style="107" customWidth="1"/>
-    <col min="1815" max="2048" width="9" style="107"/>
-    <col min="2049" max="2049" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2068" width="4.625" style="107" customWidth="1"/>
-    <col min="2069" max="2069" width="9" style="107"/>
-    <col min="2070" max="2070" width="18.375" style="107" customWidth="1"/>
-    <col min="2071" max="2304" width="9" style="107"/>
-    <col min="2305" max="2305" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2324" width="4.625" style="107" customWidth="1"/>
-    <col min="2325" max="2325" width="9" style="107"/>
-    <col min="2326" max="2326" width="18.375" style="107" customWidth="1"/>
-    <col min="2327" max="2560" width="9" style="107"/>
-    <col min="2561" max="2561" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2580" width="4.625" style="107" customWidth="1"/>
-    <col min="2581" max="2581" width="9" style="107"/>
-    <col min="2582" max="2582" width="18.375" style="107" customWidth="1"/>
-    <col min="2583" max="2816" width="9" style="107"/>
-    <col min="2817" max="2817" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2836" width="4.625" style="107" customWidth="1"/>
-    <col min="2837" max="2837" width="9" style="107"/>
-    <col min="2838" max="2838" width="18.375" style="107" customWidth="1"/>
-    <col min="2839" max="3072" width="9" style="107"/>
-    <col min="3073" max="3073" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3092" width="4.625" style="107" customWidth="1"/>
-    <col min="3093" max="3093" width="9" style="107"/>
-    <col min="3094" max="3094" width="18.375" style="107" customWidth="1"/>
-    <col min="3095" max="3328" width="9" style="107"/>
-    <col min="3329" max="3329" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3348" width="4.625" style="107" customWidth="1"/>
-    <col min="3349" max="3349" width="9" style="107"/>
-    <col min="3350" max="3350" width="18.375" style="107" customWidth="1"/>
-    <col min="3351" max="3584" width="9" style="107"/>
-    <col min="3585" max="3585" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3604" width="4.625" style="107" customWidth="1"/>
-    <col min="3605" max="3605" width="9" style="107"/>
-    <col min="3606" max="3606" width="18.375" style="107" customWidth="1"/>
-    <col min="3607" max="3840" width="9" style="107"/>
-    <col min="3841" max="3841" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3860" width="4.625" style="107" customWidth="1"/>
-    <col min="3861" max="3861" width="9" style="107"/>
-    <col min="3862" max="3862" width="18.375" style="107" customWidth="1"/>
-    <col min="3863" max="4096" width="9" style="107"/>
-    <col min="4097" max="4097" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4116" width="4.625" style="107" customWidth="1"/>
-    <col min="4117" max="4117" width="9" style="107"/>
-    <col min="4118" max="4118" width="18.375" style="107" customWidth="1"/>
-    <col min="4119" max="4352" width="9" style="107"/>
-    <col min="4353" max="4353" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4372" width="4.625" style="107" customWidth="1"/>
-    <col min="4373" max="4373" width="9" style="107"/>
-    <col min="4374" max="4374" width="18.375" style="107" customWidth="1"/>
-    <col min="4375" max="4608" width="9" style="107"/>
-    <col min="4609" max="4609" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4628" width="4.625" style="107" customWidth="1"/>
-    <col min="4629" max="4629" width="9" style="107"/>
-    <col min="4630" max="4630" width="18.375" style="107" customWidth="1"/>
-    <col min="4631" max="4864" width="9" style="107"/>
-    <col min="4865" max="4865" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4884" width="4.625" style="107" customWidth="1"/>
-    <col min="4885" max="4885" width="9" style="107"/>
-    <col min="4886" max="4886" width="18.375" style="107" customWidth="1"/>
-    <col min="4887" max="5120" width="9" style="107"/>
-    <col min="5121" max="5121" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5140" width="4.625" style="107" customWidth="1"/>
-    <col min="5141" max="5141" width="9" style="107"/>
-    <col min="5142" max="5142" width="18.375" style="107" customWidth="1"/>
-    <col min="5143" max="5376" width="9" style="107"/>
-    <col min="5377" max="5377" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5396" width="4.625" style="107" customWidth="1"/>
-    <col min="5397" max="5397" width="9" style="107"/>
-    <col min="5398" max="5398" width="18.375" style="107" customWidth="1"/>
-    <col min="5399" max="5632" width="9" style="107"/>
-    <col min="5633" max="5633" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5652" width="4.625" style="107" customWidth="1"/>
-    <col min="5653" max="5653" width="9" style="107"/>
-    <col min="5654" max="5654" width="18.375" style="107" customWidth="1"/>
-    <col min="5655" max="5888" width="9" style="107"/>
-    <col min="5889" max="5889" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5908" width="4.625" style="107" customWidth="1"/>
-    <col min="5909" max="5909" width="9" style="107"/>
-    <col min="5910" max="5910" width="18.375" style="107" customWidth="1"/>
-    <col min="5911" max="6144" width="9" style="107"/>
-    <col min="6145" max="6145" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6164" width="4.625" style="107" customWidth="1"/>
-    <col min="6165" max="6165" width="9" style="107"/>
-    <col min="6166" max="6166" width="18.375" style="107" customWidth="1"/>
-    <col min="6167" max="6400" width="9" style="107"/>
-    <col min="6401" max="6401" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6420" width="4.625" style="107" customWidth="1"/>
-    <col min="6421" max="6421" width="9" style="107"/>
-    <col min="6422" max="6422" width="18.375" style="107" customWidth="1"/>
-    <col min="6423" max="6656" width="9" style="107"/>
-    <col min="6657" max="6657" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6676" width="4.625" style="107" customWidth="1"/>
-    <col min="6677" max="6677" width="9" style="107"/>
-    <col min="6678" max="6678" width="18.375" style="107" customWidth="1"/>
-    <col min="6679" max="6912" width="9" style="107"/>
-    <col min="6913" max="6913" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6932" width="4.625" style="107" customWidth="1"/>
-    <col min="6933" max="6933" width="9" style="107"/>
-    <col min="6934" max="6934" width="18.375" style="107" customWidth="1"/>
-    <col min="6935" max="7168" width="9" style="107"/>
-    <col min="7169" max="7169" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7188" width="4.625" style="107" customWidth="1"/>
-    <col min="7189" max="7189" width="9" style="107"/>
-    <col min="7190" max="7190" width="18.375" style="107" customWidth="1"/>
-    <col min="7191" max="7424" width="9" style="107"/>
-    <col min="7425" max="7425" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7444" width="4.625" style="107" customWidth="1"/>
-    <col min="7445" max="7445" width="9" style="107"/>
-    <col min="7446" max="7446" width="18.375" style="107" customWidth="1"/>
-    <col min="7447" max="7680" width="9" style="107"/>
-    <col min="7681" max="7681" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7700" width="4.625" style="107" customWidth="1"/>
-    <col min="7701" max="7701" width="9" style="107"/>
-    <col min="7702" max="7702" width="18.375" style="107" customWidth="1"/>
-    <col min="7703" max="7936" width="9" style="107"/>
-    <col min="7937" max="7937" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7956" width="4.625" style="107" customWidth="1"/>
-    <col min="7957" max="7957" width="9" style="107"/>
-    <col min="7958" max="7958" width="18.375" style="107" customWidth="1"/>
-    <col min="7959" max="8192" width="9" style="107"/>
-    <col min="8193" max="8193" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8212" width="4.625" style="107" customWidth="1"/>
-    <col min="8213" max="8213" width="9" style="107"/>
-    <col min="8214" max="8214" width="18.375" style="107" customWidth="1"/>
-    <col min="8215" max="8448" width="9" style="107"/>
-    <col min="8449" max="8449" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8468" width="4.625" style="107" customWidth="1"/>
-    <col min="8469" max="8469" width="9" style="107"/>
-    <col min="8470" max="8470" width="18.375" style="107" customWidth="1"/>
-    <col min="8471" max="8704" width="9" style="107"/>
-    <col min="8705" max="8705" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8724" width="4.625" style="107" customWidth="1"/>
-    <col min="8725" max="8725" width="9" style="107"/>
-    <col min="8726" max="8726" width="18.375" style="107" customWidth="1"/>
-    <col min="8727" max="8960" width="9" style="107"/>
-    <col min="8961" max="8961" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8980" width="4.625" style="107" customWidth="1"/>
-    <col min="8981" max="8981" width="9" style="107"/>
-    <col min="8982" max="8982" width="18.375" style="107" customWidth="1"/>
-    <col min="8983" max="9216" width="9" style="107"/>
-    <col min="9217" max="9217" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9236" width="4.625" style="107" customWidth="1"/>
-    <col min="9237" max="9237" width="9" style="107"/>
-    <col min="9238" max="9238" width="18.375" style="107" customWidth="1"/>
-    <col min="9239" max="9472" width="9" style="107"/>
-    <col min="9473" max="9473" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9492" width="4.625" style="107" customWidth="1"/>
-    <col min="9493" max="9493" width="9" style="107"/>
-    <col min="9494" max="9494" width="18.375" style="107" customWidth="1"/>
-    <col min="9495" max="9728" width="9" style="107"/>
-    <col min="9729" max="9729" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9748" width="4.625" style="107" customWidth="1"/>
-    <col min="9749" max="9749" width="9" style="107"/>
-    <col min="9750" max="9750" width="18.375" style="107" customWidth="1"/>
-    <col min="9751" max="9984" width="9" style="107"/>
-    <col min="9985" max="9985" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="9986" max="10004" width="4.625" style="107" customWidth="1"/>
-    <col min="10005" max="10005" width="9" style="107"/>
-    <col min="10006" max="10006" width="18.375" style="107" customWidth="1"/>
-    <col min="10007" max="10240" width="9" style="107"/>
-    <col min="10241" max="10241" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10260" width="4.625" style="107" customWidth="1"/>
-    <col min="10261" max="10261" width="9" style="107"/>
-    <col min="10262" max="10262" width="18.375" style="107" customWidth="1"/>
-    <col min="10263" max="10496" width="9" style="107"/>
-    <col min="10497" max="10497" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10516" width="4.625" style="107" customWidth="1"/>
-    <col min="10517" max="10517" width="9" style="107"/>
-    <col min="10518" max="10518" width="18.375" style="107" customWidth="1"/>
-    <col min="10519" max="10752" width="9" style="107"/>
-    <col min="10753" max="10753" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10772" width="4.625" style="107" customWidth="1"/>
-    <col min="10773" max="10773" width="9" style="107"/>
-    <col min="10774" max="10774" width="18.375" style="107" customWidth="1"/>
-    <col min="10775" max="11008" width="9" style="107"/>
-    <col min="11009" max="11009" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11028" width="4.625" style="107" customWidth="1"/>
-    <col min="11029" max="11029" width="9" style="107"/>
-    <col min="11030" max="11030" width="18.375" style="107" customWidth="1"/>
-    <col min="11031" max="11264" width="9" style="107"/>
-    <col min="11265" max="11265" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11284" width="4.625" style="107" customWidth="1"/>
-    <col min="11285" max="11285" width="9" style="107"/>
-    <col min="11286" max="11286" width="18.375" style="107" customWidth="1"/>
-    <col min="11287" max="11520" width="9" style="107"/>
-    <col min="11521" max="11521" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11540" width="4.625" style="107" customWidth="1"/>
-    <col min="11541" max="11541" width="9" style="107"/>
-    <col min="11542" max="11542" width="18.375" style="107" customWidth="1"/>
-    <col min="11543" max="11776" width="9" style="107"/>
-    <col min="11777" max="11777" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11796" width="4.625" style="107" customWidth="1"/>
-    <col min="11797" max="11797" width="9" style="107"/>
-    <col min="11798" max="11798" width="18.375" style="107" customWidth="1"/>
-    <col min="11799" max="12032" width="9" style="107"/>
-    <col min="12033" max="12033" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12052" width="4.625" style="107" customWidth="1"/>
-    <col min="12053" max="12053" width="9" style="107"/>
-    <col min="12054" max="12054" width="18.375" style="107" customWidth="1"/>
-    <col min="12055" max="12288" width="9" style="107"/>
-    <col min="12289" max="12289" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12308" width="4.625" style="107" customWidth="1"/>
-    <col min="12309" max="12309" width="9" style="107"/>
-    <col min="12310" max="12310" width="18.375" style="107" customWidth="1"/>
-    <col min="12311" max="12544" width="9" style="107"/>
-    <col min="12545" max="12545" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12564" width="4.625" style="107" customWidth="1"/>
-    <col min="12565" max="12565" width="9" style="107"/>
-    <col min="12566" max="12566" width="18.375" style="107" customWidth="1"/>
-    <col min="12567" max="12800" width="9" style="107"/>
-    <col min="12801" max="12801" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12820" width="4.625" style="107" customWidth="1"/>
-    <col min="12821" max="12821" width="9" style="107"/>
-    <col min="12822" max="12822" width="18.375" style="107" customWidth="1"/>
-    <col min="12823" max="13056" width="9" style="107"/>
-    <col min="13057" max="13057" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13076" width="4.625" style="107" customWidth="1"/>
-    <col min="13077" max="13077" width="9" style="107"/>
-    <col min="13078" max="13078" width="18.375" style="107" customWidth="1"/>
-    <col min="13079" max="13312" width="9" style="107"/>
-    <col min="13313" max="13313" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13332" width="4.625" style="107" customWidth="1"/>
-    <col min="13333" max="13333" width="9" style="107"/>
-    <col min="13334" max="13334" width="18.375" style="107" customWidth="1"/>
-    <col min="13335" max="13568" width="9" style="107"/>
-    <col min="13569" max="13569" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13588" width="4.625" style="107" customWidth="1"/>
-    <col min="13589" max="13589" width="9" style="107"/>
-    <col min="13590" max="13590" width="18.375" style="107" customWidth="1"/>
-    <col min="13591" max="13824" width="9" style="107"/>
-    <col min="13825" max="13825" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13844" width="4.625" style="107" customWidth="1"/>
-    <col min="13845" max="13845" width="9" style="107"/>
-    <col min="13846" max="13846" width="18.375" style="107" customWidth="1"/>
-    <col min="13847" max="14080" width="9" style="107"/>
-    <col min="14081" max="14081" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14100" width="4.625" style="107" customWidth="1"/>
-    <col min="14101" max="14101" width="9" style="107"/>
-    <col min="14102" max="14102" width="18.375" style="107" customWidth="1"/>
-    <col min="14103" max="14336" width="9" style="107"/>
-    <col min="14337" max="14337" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14356" width="4.625" style="107" customWidth="1"/>
-    <col min="14357" max="14357" width="9" style="107"/>
-    <col min="14358" max="14358" width="18.375" style="107" customWidth="1"/>
-    <col min="14359" max="14592" width="9" style="107"/>
-    <col min="14593" max="14593" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14612" width="4.625" style="107" customWidth="1"/>
-    <col min="14613" max="14613" width="9" style="107"/>
-    <col min="14614" max="14614" width="18.375" style="107" customWidth="1"/>
-    <col min="14615" max="14848" width="9" style="107"/>
-    <col min="14849" max="14849" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14868" width="4.625" style="107" customWidth="1"/>
-    <col min="14869" max="14869" width="9" style="107"/>
-    <col min="14870" max="14870" width="18.375" style="107" customWidth="1"/>
-    <col min="14871" max="15104" width="9" style="107"/>
-    <col min="15105" max="15105" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15124" width="4.625" style="107" customWidth="1"/>
-    <col min="15125" max="15125" width="9" style="107"/>
-    <col min="15126" max="15126" width="18.375" style="107" customWidth="1"/>
-    <col min="15127" max="15360" width="9" style="107"/>
-    <col min="15361" max="15361" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15380" width="4.625" style="107" customWidth="1"/>
-    <col min="15381" max="15381" width="9" style="107"/>
-    <col min="15382" max="15382" width="18.375" style="107" customWidth="1"/>
-    <col min="15383" max="15616" width="9" style="107"/>
-    <col min="15617" max="15617" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15636" width="4.625" style="107" customWidth="1"/>
-    <col min="15637" max="15637" width="9" style="107"/>
-    <col min="15638" max="15638" width="18.375" style="107" customWidth="1"/>
-    <col min="15639" max="15872" width="9" style="107"/>
-    <col min="15873" max="15873" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15892" width="4.625" style="107" customWidth="1"/>
-    <col min="15893" max="15893" width="9" style="107"/>
-    <col min="15894" max="15894" width="18.375" style="107" customWidth="1"/>
-    <col min="15895" max="16128" width="9" style="107"/>
-    <col min="16129" max="16129" width="26.5" style="107" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16148" width="4.625" style="107" customWidth="1"/>
-    <col min="16149" max="16149" width="9" style="107"/>
-    <col min="16150" max="16150" width="18.375" style="107" customWidth="1"/>
-    <col min="16151" max="16384" width="9" style="107"/>
+    <col min="1" max="1" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="20" width="4.625" style="47" customWidth="1"/>
+    <col min="21" max="21" width="9" style="47"/>
+    <col min="22" max="22" width="18.375" style="47" customWidth="1"/>
+    <col min="23" max="256" width="9" style="47"/>
+    <col min="257" max="257" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="258" max="276" width="4.625" style="47" customWidth="1"/>
+    <col min="277" max="277" width="9" style="47"/>
+    <col min="278" max="278" width="18.375" style="47" customWidth="1"/>
+    <col min="279" max="512" width="9" style="47"/>
+    <col min="513" max="513" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="514" max="532" width="4.625" style="47" customWidth="1"/>
+    <col min="533" max="533" width="9" style="47"/>
+    <col min="534" max="534" width="18.375" style="47" customWidth="1"/>
+    <col min="535" max="768" width="9" style="47"/>
+    <col min="769" max="769" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="770" max="788" width="4.625" style="47" customWidth="1"/>
+    <col min="789" max="789" width="9" style="47"/>
+    <col min="790" max="790" width="18.375" style="47" customWidth="1"/>
+    <col min="791" max="1024" width="9" style="47"/>
+    <col min="1025" max="1025" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1044" width="4.625" style="47" customWidth="1"/>
+    <col min="1045" max="1045" width="9" style="47"/>
+    <col min="1046" max="1046" width="18.375" style="47" customWidth="1"/>
+    <col min="1047" max="1280" width="9" style="47"/>
+    <col min="1281" max="1281" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1300" width="4.625" style="47" customWidth="1"/>
+    <col min="1301" max="1301" width="9" style="47"/>
+    <col min="1302" max="1302" width="18.375" style="47" customWidth="1"/>
+    <col min="1303" max="1536" width="9" style="47"/>
+    <col min="1537" max="1537" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1556" width="4.625" style="47" customWidth="1"/>
+    <col min="1557" max="1557" width="9" style="47"/>
+    <col min="1558" max="1558" width="18.375" style="47" customWidth="1"/>
+    <col min="1559" max="1792" width="9" style="47"/>
+    <col min="1793" max="1793" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1812" width="4.625" style="47" customWidth="1"/>
+    <col min="1813" max="1813" width="9" style="47"/>
+    <col min="1814" max="1814" width="18.375" style="47" customWidth="1"/>
+    <col min="1815" max="2048" width="9" style="47"/>
+    <col min="2049" max="2049" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2068" width="4.625" style="47" customWidth="1"/>
+    <col min="2069" max="2069" width="9" style="47"/>
+    <col min="2070" max="2070" width="18.375" style="47" customWidth="1"/>
+    <col min="2071" max="2304" width="9" style="47"/>
+    <col min="2305" max="2305" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2324" width="4.625" style="47" customWidth="1"/>
+    <col min="2325" max="2325" width="9" style="47"/>
+    <col min="2326" max="2326" width="18.375" style="47" customWidth="1"/>
+    <col min="2327" max="2560" width="9" style="47"/>
+    <col min="2561" max="2561" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2580" width="4.625" style="47" customWidth="1"/>
+    <col min="2581" max="2581" width="9" style="47"/>
+    <col min="2582" max="2582" width="18.375" style="47" customWidth="1"/>
+    <col min="2583" max="2816" width="9" style="47"/>
+    <col min="2817" max="2817" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2836" width="4.625" style="47" customWidth="1"/>
+    <col min="2837" max="2837" width="9" style="47"/>
+    <col min="2838" max="2838" width="18.375" style="47" customWidth="1"/>
+    <col min="2839" max="3072" width="9" style="47"/>
+    <col min="3073" max="3073" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3092" width="4.625" style="47" customWidth="1"/>
+    <col min="3093" max="3093" width="9" style="47"/>
+    <col min="3094" max="3094" width="18.375" style="47" customWidth="1"/>
+    <col min="3095" max="3328" width="9" style="47"/>
+    <col min="3329" max="3329" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3348" width="4.625" style="47" customWidth="1"/>
+    <col min="3349" max="3349" width="9" style="47"/>
+    <col min="3350" max="3350" width="18.375" style="47" customWidth="1"/>
+    <col min="3351" max="3584" width="9" style="47"/>
+    <col min="3585" max="3585" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3604" width="4.625" style="47" customWidth="1"/>
+    <col min="3605" max="3605" width="9" style="47"/>
+    <col min="3606" max="3606" width="18.375" style="47" customWidth="1"/>
+    <col min="3607" max="3840" width="9" style="47"/>
+    <col min="3841" max="3841" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3860" width="4.625" style="47" customWidth="1"/>
+    <col min="3861" max="3861" width="9" style="47"/>
+    <col min="3862" max="3862" width="18.375" style="47" customWidth="1"/>
+    <col min="3863" max="4096" width="9" style="47"/>
+    <col min="4097" max="4097" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4116" width="4.625" style="47" customWidth="1"/>
+    <col min="4117" max="4117" width="9" style="47"/>
+    <col min="4118" max="4118" width="18.375" style="47" customWidth="1"/>
+    <col min="4119" max="4352" width="9" style="47"/>
+    <col min="4353" max="4353" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4372" width="4.625" style="47" customWidth="1"/>
+    <col min="4373" max="4373" width="9" style="47"/>
+    <col min="4374" max="4374" width="18.375" style="47" customWidth="1"/>
+    <col min="4375" max="4608" width="9" style="47"/>
+    <col min="4609" max="4609" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4628" width="4.625" style="47" customWidth="1"/>
+    <col min="4629" max="4629" width="9" style="47"/>
+    <col min="4630" max="4630" width="18.375" style="47" customWidth="1"/>
+    <col min="4631" max="4864" width="9" style="47"/>
+    <col min="4865" max="4865" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4884" width="4.625" style="47" customWidth="1"/>
+    <col min="4885" max="4885" width="9" style="47"/>
+    <col min="4886" max="4886" width="18.375" style="47" customWidth="1"/>
+    <col min="4887" max="5120" width="9" style="47"/>
+    <col min="5121" max="5121" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5140" width="4.625" style="47" customWidth="1"/>
+    <col min="5141" max="5141" width="9" style="47"/>
+    <col min="5142" max="5142" width="18.375" style="47" customWidth="1"/>
+    <col min="5143" max="5376" width="9" style="47"/>
+    <col min="5377" max="5377" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5396" width="4.625" style="47" customWidth="1"/>
+    <col min="5397" max="5397" width="9" style="47"/>
+    <col min="5398" max="5398" width="18.375" style="47" customWidth="1"/>
+    <col min="5399" max="5632" width="9" style="47"/>
+    <col min="5633" max="5633" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5652" width="4.625" style="47" customWidth="1"/>
+    <col min="5653" max="5653" width="9" style="47"/>
+    <col min="5654" max="5654" width="18.375" style="47" customWidth="1"/>
+    <col min="5655" max="5888" width="9" style="47"/>
+    <col min="5889" max="5889" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5908" width="4.625" style="47" customWidth="1"/>
+    <col min="5909" max="5909" width="9" style="47"/>
+    <col min="5910" max="5910" width="18.375" style="47" customWidth="1"/>
+    <col min="5911" max="6144" width="9" style="47"/>
+    <col min="6145" max="6145" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6164" width="4.625" style="47" customWidth="1"/>
+    <col min="6165" max="6165" width="9" style="47"/>
+    <col min="6166" max="6166" width="18.375" style="47" customWidth="1"/>
+    <col min="6167" max="6400" width="9" style="47"/>
+    <col min="6401" max="6401" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6420" width="4.625" style="47" customWidth="1"/>
+    <col min="6421" max="6421" width="9" style="47"/>
+    <col min="6422" max="6422" width="18.375" style="47" customWidth="1"/>
+    <col min="6423" max="6656" width="9" style="47"/>
+    <col min="6657" max="6657" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6676" width="4.625" style="47" customWidth="1"/>
+    <col min="6677" max="6677" width="9" style="47"/>
+    <col min="6678" max="6678" width="18.375" style="47" customWidth="1"/>
+    <col min="6679" max="6912" width="9" style="47"/>
+    <col min="6913" max="6913" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6932" width="4.625" style="47" customWidth="1"/>
+    <col min="6933" max="6933" width="9" style="47"/>
+    <col min="6934" max="6934" width="18.375" style="47" customWidth="1"/>
+    <col min="6935" max="7168" width="9" style="47"/>
+    <col min="7169" max="7169" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7188" width="4.625" style="47" customWidth="1"/>
+    <col min="7189" max="7189" width="9" style="47"/>
+    <col min="7190" max="7190" width="18.375" style="47" customWidth="1"/>
+    <col min="7191" max="7424" width="9" style="47"/>
+    <col min="7425" max="7425" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7444" width="4.625" style="47" customWidth="1"/>
+    <col min="7445" max="7445" width="9" style="47"/>
+    <col min="7446" max="7446" width="18.375" style="47" customWidth="1"/>
+    <col min="7447" max="7680" width="9" style="47"/>
+    <col min="7681" max="7681" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7700" width="4.625" style="47" customWidth="1"/>
+    <col min="7701" max="7701" width="9" style="47"/>
+    <col min="7702" max="7702" width="18.375" style="47" customWidth="1"/>
+    <col min="7703" max="7936" width="9" style="47"/>
+    <col min="7937" max="7937" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7956" width="4.625" style="47" customWidth="1"/>
+    <col min="7957" max="7957" width="9" style="47"/>
+    <col min="7958" max="7958" width="18.375" style="47" customWidth="1"/>
+    <col min="7959" max="8192" width="9" style="47"/>
+    <col min="8193" max="8193" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8212" width="4.625" style="47" customWidth="1"/>
+    <col min="8213" max="8213" width="9" style="47"/>
+    <col min="8214" max="8214" width="18.375" style="47" customWidth="1"/>
+    <col min="8215" max="8448" width="9" style="47"/>
+    <col min="8449" max="8449" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8468" width="4.625" style="47" customWidth="1"/>
+    <col min="8469" max="8469" width="9" style="47"/>
+    <col min="8470" max="8470" width="18.375" style="47" customWidth="1"/>
+    <col min="8471" max="8704" width="9" style="47"/>
+    <col min="8705" max="8705" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8724" width="4.625" style="47" customWidth="1"/>
+    <col min="8725" max="8725" width="9" style="47"/>
+    <col min="8726" max="8726" width="18.375" style="47" customWidth="1"/>
+    <col min="8727" max="8960" width="9" style="47"/>
+    <col min="8961" max="8961" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8980" width="4.625" style="47" customWidth="1"/>
+    <col min="8981" max="8981" width="9" style="47"/>
+    <col min="8982" max="8982" width="18.375" style="47" customWidth="1"/>
+    <col min="8983" max="9216" width="9" style="47"/>
+    <col min="9217" max="9217" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9236" width="4.625" style="47" customWidth="1"/>
+    <col min="9237" max="9237" width="9" style="47"/>
+    <col min="9238" max="9238" width="18.375" style="47" customWidth="1"/>
+    <col min="9239" max="9472" width="9" style="47"/>
+    <col min="9473" max="9473" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9492" width="4.625" style="47" customWidth="1"/>
+    <col min="9493" max="9493" width="9" style="47"/>
+    <col min="9494" max="9494" width="18.375" style="47" customWidth="1"/>
+    <col min="9495" max="9728" width="9" style="47"/>
+    <col min="9729" max="9729" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9748" width="4.625" style="47" customWidth="1"/>
+    <col min="9749" max="9749" width="9" style="47"/>
+    <col min="9750" max="9750" width="18.375" style="47" customWidth="1"/>
+    <col min="9751" max="9984" width="9" style="47"/>
+    <col min="9985" max="9985" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="9986" max="10004" width="4.625" style="47" customWidth="1"/>
+    <col min="10005" max="10005" width="9" style="47"/>
+    <col min="10006" max="10006" width="18.375" style="47" customWidth="1"/>
+    <col min="10007" max="10240" width="9" style="47"/>
+    <col min="10241" max="10241" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10260" width="4.625" style="47" customWidth="1"/>
+    <col min="10261" max="10261" width="9" style="47"/>
+    <col min="10262" max="10262" width="18.375" style="47" customWidth="1"/>
+    <col min="10263" max="10496" width="9" style="47"/>
+    <col min="10497" max="10497" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10516" width="4.625" style="47" customWidth="1"/>
+    <col min="10517" max="10517" width="9" style="47"/>
+    <col min="10518" max="10518" width="18.375" style="47" customWidth="1"/>
+    <col min="10519" max="10752" width="9" style="47"/>
+    <col min="10753" max="10753" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10772" width="4.625" style="47" customWidth="1"/>
+    <col min="10773" max="10773" width="9" style="47"/>
+    <col min="10774" max="10774" width="18.375" style="47" customWidth="1"/>
+    <col min="10775" max="11008" width="9" style="47"/>
+    <col min="11009" max="11009" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11028" width="4.625" style="47" customWidth="1"/>
+    <col min="11029" max="11029" width="9" style="47"/>
+    <col min="11030" max="11030" width="18.375" style="47" customWidth="1"/>
+    <col min="11031" max="11264" width="9" style="47"/>
+    <col min="11265" max="11265" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11284" width="4.625" style="47" customWidth="1"/>
+    <col min="11285" max="11285" width="9" style="47"/>
+    <col min="11286" max="11286" width="18.375" style="47" customWidth="1"/>
+    <col min="11287" max="11520" width="9" style="47"/>
+    <col min="11521" max="11521" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11540" width="4.625" style="47" customWidth="1"/>
+    <col min="11541" max="11541" width="9" style="47"/>
+    <col min="11542" max="11542" width="18.375" style="47" customWidth="1"/>
+    <col min="11543" max="11776" width="9" style="47"/>
+    <col min="11777" max="11777" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11796" width="4.625" style="47" customWidth="1"/>
+    <col min="11797" max="11797" width="9" style="47"/>
+    <col min="11798" max="11798" width="18.375" style="47" customWidth="1"/>
+    <col min="11799" max="12032" width="9" style="47"/>
+    <col min="12033" max="12033" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12052" width="4.625" style="47" customWidth="1"/>
+    <col min="12053" max="12053" width="9" style="47"/>
+    <col min="12054" max="12054" width="18.375" style="47" customWidth="1"/>
+    <col min="12055" max="12288" width="9" style="47"/>
+    <col min="12289" max="12289" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12308" width="4.625" style="47" customWidth="1"/>
+    <col min="12309" max="12309" width="9" style="47"/>
+    <col min="12310" max="12310" width="18.375" style="47" customWidth="1"/>
+    <col min="12311" max="12544" width="9" style="47"/>
+    <col min="12545" max="12545" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12564" width="4.625" style="47" customWidth="1"/>
+    <col min="12565" max="12565" width="9" style="47"/>
+    <col min="12566" max="12566" width="18.375" style="47" customWidth="1"/>
+    <col min="12567" max="12800" width="9" style="47"/>
+    <col min="12801" max="12801" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12820" width="4.625" style="47" customWidth="1"/>
+    <col min="12821" max="12821" width="9" style="47"/>
+    <col min="12822" max="12822" width="18.375" style="47" customWidth="1"/>
+    <col min="12823" max="13056" width="9" style="47"/>
+    <col min="13057" max="13057" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13076" width="4.625" style="47" customWidth="1"/>
+    <col min="13077" max="13077" width="9" style="47"/>
+    <col min="13078" max="13078" width="18.375" style="47" customWidth="1"/>
+    <col min="13079" max="13312" width="9" style="47"/>
+    <col min="13313" max="13313" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13332" width="4.625" style="47" customWidth="1"/>
+    <col min="13333" max="13333" width="9" style="47"/>
+    <col min="13334" max="13334" width="18.375" style="47" customWidth="1"/>
+    <col min="13335" max="13568" width="9" style="47"/>
+    <col min="13569" max="13569" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13588" width="4.625" style="47" customWidth="1"/>
+    <col min="13589" max="13589" width="9" style="47"/>
+    <col min="13590" max="13590" width="18.375" style="47" customWidth="1"/>
+    <col min="13591" max="13824" width="9" style="47"/>
+    <col min="13825" max="13825" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13844" width="4.625" style="47" customWidth="1"/>
+    <col min="13845" max="13845" width="9" style="47"/>
+    <col min="13846" max="13846" width="18.375" style="47" customWidth="1"/>
+    <col min="13847" max="14080" width="9" style="47"/>
+    <col min="14081" max="14081" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14100" width="4.625" style="47" customWidth="1"/>
+    <col min="14101" max="14101" width="9" style="47"/>
+    <col min="14102" max="14102" width="18.375" style="47" customWidth="1"/>
+    <col min="14103" max="14336" width="9" style="47"/>
+    <col min="14337" max="14337" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14356" width="4.625" style="47" customWidth="1"/>
+    <col min="14357" max="14357" width="9" style="47"/>
+    <col min="14358" max="14358" width="18.375" style="47" customWidth="1"/>
+    <col min="14359" max="14592" width="9" style="47"/>
+    <col min="14593" max="14593" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14612" width="4.625" style="47" customWidth="1"/>
+    <col min="14613" max="14613" width="9" style="47"/>
+    <col min="14614" max="14614" width="18.375" style="47" customWidth="1"/>
+    <col min="14615" max="14848" width="9" style="47"/>
+    <col min="14849" max="14849" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14868" width="4.625" style="47" customWidth="1"/>
+    <col min="14869" max="14869" width="9" style="47"/>
+    <col min="14870" max="14870" width="18.375" style="47" customWidth="1"/>
+    <col min="14871" max="15104" width="9" style="47"/>
+    <col min="15105" max="15105" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15124" width="4.625" style="47" customWidth="1"/>
+    <col min="15125" max="15125" width="9" style="47"/>
+    <col min="15126" max="15126" width="18.375" style="47" customWidth="1"/>
+    <col min="15127" max="15360" width="9" style="47"/>
+    <col min="15361" max="15361" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15380" width="4.625" style="47" customWidth="1"/>
+    <col min="15381" max="15381" width="9" style="47"/>
+    <col min="15382" max="15382" width="18.375" style="47" customWidth="1"/>
+    <col min="15383" max="15616" width="9" style="47"/>
+    <col min="15617" max="15617" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15636" width="4.625" style="47" customWidth="1"/>
+    <col min="15637" max="15637" width="9" style="47"/>
+    <col min="15638" max="15638" width="18.375" style="47" customWidth="1"/>
+    <col min="15639" max="15872" width="9" style="47"/>
+    <col min="15873" max="15873" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15892" width="4.625" style="47" customWidth="1"/>
+    <col min="15893" max="15893" width="9" style="47"/>
+    <col min="15894" max="15894" width="18.375" style="47" customWidth="1"/>
+    <col min="15895" max="16128" width="9" style="47"/>
+    <col min="16129" max="16129" width="26.5" style="47" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16148" width="4.625" style="47" customWidth="1"/>
+    <col min="16149" max="16149" width="9" style="47"/>
+    <col min="16150" max="16150" width="18.375" style="47" customWidth="1"/>
+    <col min="16151" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="135" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105"/>
-      <c r="V1" s="106"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="137"/>
     </row>
     <row r="2" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="110"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="128"/>
     </row>
     <row r="3" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="130" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112" t="s">
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="G3" s="112"/>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112" t="s">
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131" t="s">
         <v>218</v>
       </c>
-      <c r="M3" s="112"/>
-      <c r="N3" s="112"/>
-      <c r="O3" s="112"/>
-      <c r="P3" s="112"/>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="112" t="s">
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131" t="s">
         <v>219</v>
       </c>
-      <c r="S3" s="112"/>
-      <c r="T3" s="112"/>
-      <c r="U3" s="112"/>
-      <c r="V3" s="113"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="132"/>
     </row>
     <row r="4" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112" t="s">
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131" t="s">
         <v>221</v>
       </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112" t="s">
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131" t="s">
         <v>222</v>
       </c>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112" t="s">
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131" t="s">
         <v>223</v>
       </c>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="113"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="132"/>
     </row>
     <row r="5" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112" t="s">
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131" t="s">
         <v>221</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112" t="s">
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131" t="s">
         <v>225</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="114">
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="133">
         <v>43654</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="115"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="133"/>
+      <c r="V5" s="134"/>
     </row>
     <row r="6" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="110"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="128"/>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="B7" s="117">
+      <c r="B7" s="49">
         <v>0</v>
       </c>
-      <c r="C7" s="118">
+      <c r="C7" s="129">
         <v>1</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118">
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129">
         <v>2</v>
       </c>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118">
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129">
         <v>3</v>
       </c>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="117"/>
-      <c r="V7" s="119"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="50"/>
     </row>
     <row r="8" spans="1:22" ht="32.25" customHeight="1">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="F8" s="120" t="s">
+      <c r="F8" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="G8" s="120" t="s">
+      <c r="G8" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="H8" s="120" t="s">
+      <c r="H8" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="I8" s="120" t="s">
+      <c r="I8" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="J8" s="120" t="s">
+      <c r="J8" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="K8" s="120" t="s">
+      <c r="K8" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="L8" s="120" t="s">
+      <c r="L8" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="M8" s="120" t="s">
+      <c r="M8" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="N8" s="120" t="s">
+      <c r="N8" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="O8" s="120" t="s">
+      <c r="O8" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="P8" s="120" t="s">
+      <c r="P8" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="Q8" s="120" t="s">
+      <c r="Q8" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="R8" s="120" t="s">
+      <c r="R8" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="S8" s="120" t="s">
+      <c r="S8" s="51" t="s">
         <v>246</v>
       </c>
-      <c r="T8" s="120" t="s">
+      <c r="T8" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="U8" s="117" t="s">
+      <c r="U8" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="V8" s="119" t="s">
+      <c r="V8" s="50" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A9" s="116" t="s">
+      <c r="A9" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-      <c r="U9" s="117"/>
-      <c r="V9" s="122" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="53" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="117"/>
-      <c r="R10" s="117"/>
-      <c r="S10" s="117"/>
-      <c r="T10" s="117"/>
-      <c r="U10" s="117"/>
-      <c r="V10" s="123" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="125" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="117"/>
-      <c r="R11" s="117"/>
-      <c r="S11" s="117"/>
-      <c r="T11" s="117"/>
-      <c r="U11" s="117" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="V11" s="123"/>
+      <c r="V11" s="125"/>
     </row>
     <row r="12" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
-      <c r="Q12" s="117"/>
-      <c r="R12" s="117"/>
-      <c r="S12" s="117"/>
-      <c r="T12" s="117"/>
-      <c r="U12" s="117" t="s">
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="V12" s="123" t="s">
+      <c r="V12" s="125" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="117"/>
-      <c r="R13" s="117"/>
-      <c r="S13" s="117"/>
-      <c r="T13" s="117"/>
-      <c r="U13" s="117" t="s">
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="V13" s="123"/>
+      <c r="V13" s="125"/>
     </row>
     <row r="14" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A14" s="116" t="s">
+      <c r="A14" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="121"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="117"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-      <c r="U14" s="117"/>
-      <c r="V14" s="122"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="53"/>
     </row>
     <row r="15" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A15" s="124" t="s">
+      <c r="A15" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="125"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="117"/>
-      <c r="U15" s="117" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="V15" s="123" t="s">
+      <c r="V15" s="125" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A16" s="124" t="s">
+      <c r="A16" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="117"/>
-      <c r="U16" s="117" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="V16" s="123"/>
+      <c r="V16" s="125"/>
     </row>
     <row r="17" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="117"/>
-      <c r="S17" s="117"/>
-      <c r="T17" s="117"/>
-      <c r="U17" s="117" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="V17" s="123"/>
+      <c r="V17" s="125"/>
     </row>
     <row r="18" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
-      <c r="A18" s="126" t="s">
+      <c r="A18" s="56" t="s">
         <v>267</v>
       </c>
-      <c r="B18" s="127"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="127"/>
-      <c r="O18" s="127"/>
-      <c r="P18" s="127"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="127"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="127"/>
-      <c r="V18" s="129"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="V15:V17"/>
-    <mergeCell ref="A6:V6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="R3:V3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="L4:Q4"/>
@@ -6363,12 +6362,13 @@
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="L5:Q5"/>
     <mergeCell ref="R5:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="V15:V17"/>
+    <mergeCell ref="A6:V6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="V12:V13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6380,1010 +6380,995 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A8F3FF-DC0B-4CA7-9483-807188F8C27C}">
   <dimension ref="B1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="133"/>
-    <col min="2" max="3" width="14.5" style="133" customWidth="1"/>
-    <col min="4" max="21" width="4.5" style="133" customWidth="1"/>
-    <col min="22" max="23" width="14.5" style="133" customWidth="1"/>
-    <col min="24" max="257" width="9" style="133"/>
-    <col min="258" max="259" width="14.5" style="133" customWidth="1"/>
-    <col min="260" max="277" width="4.5" style="133" customWidth="1"/>
-    <col min="278" max="279" width="14.5" style="133" customWidth="1"/>
-    <col min="280" max="513" width="9" style="133"/>
-    <col min="514" max="515" width="14.5" style="133" customWidth="1"/>
-    <col min="516" max="533" width="4.5" style="133" customWidth="1"/>
-    <col min="534" max="535" width="14.5" style="133" customWidth="1"/>
-    <col min="536" max="769" width="9" style="133"/>
-    <col min="770" max="771" width="14.5" style="133" customWidth="1"/>
-    <col min="772" max="789" width="4.5" style="133" customWidth="1"/>
-    <col min="790" max="791" width="14.5" style="133" customWidth="1"/>
-    <col min="792" max="1025" width="9" style="133"/>
-    <col min="1026" max="1027" width="14.5" style="133" customWidth="1"/>
-    <col min="1028" max="1045" width="4.5" style="133" customWidth="1"/>
-    <col min="1046" max="1047" width="14.5" style="133" customWidth="1"/>
-    <col min="1048" max="1281" width="9" style="133"/>
-    <col min="1282" max="1283" width="14.5" style="133" customWidth="1"/>
-    <col min="1284" max="1301" width="4.5" style="133" customWidth="1"/>
-    <col min="1302" max="1303" width="14.5" style="133" customWidth="1"/>
-    <col min="1304" max="1537" width="9" style="133"/>
-    <col min="1538" max="1539" width="14.5" style="133" customWidth="1"/>
-    <col min="1540" max="1557" width="4.5" style="133" customWidth="1"/>
-    <col min="1558" max="1559" width="14.5" style="133" customWidth="1"/>
-    <col min="1560" max="1793" width="9" style="133"/>
-    <col min="1794" max="1795" width="14.5" style="133" customWidth="1"/>
-    <col min="1796" max="1813" width="4.5" style="133" customWidth="1"/>
-    <col min="1814" max="1815" width="14.5" style="133" customWidth="1"/>
-    <col min="1816" max="2049" width="9" style="133"/>
-    <col min="2050" max="2051" width="14.5" style="133" customWidth="1"/>
-    <col min="2052" max="2069" width="4.5" style="133" customWidth="1"/>
-    <col min="2070" max="2071" width="14.5" style="133" customWidth="1"/>
-    <col min="2072" max="2305" width="9" style="133"/>
-    <col min="2306" max="2307" width="14.5" style="133" customWidth="1"/>
-    <col min="2308" max="2325" width="4.5" style="133" customWidth="1"/>
-    <col min="2326" max="2327" width="14.5" style="133" customWidth="1"/>
-    <col min="2328" max="2561" width="9" style="133"/>
-    <col min="2562" max="2563" width="14.5" style="133" customWidth="1"/>
-    <col min="2564" max="2581" width="4.5" style="133" customWidth="1"/>
-    <col min="2582" max="2583" width="14.5" style="133" customWidth="1"/>
-    <col min="2584" max="2817" width="9" style="133"/>
-    <col min="2818" max="2819" width="14.5" style="133" customWidth="1"/>
-    <col min="2820" max="2837" width="4.5" style="133" customWidth="1"/>
-    <col min="2838" max="2839" width="14.5" style="133" customWidth="1"/>
-    <col min="2840" max="3073" width="9" style="133"/>
-    <col min="3074" max="3075" width="14.5" style="133" customWidth="1"/>
-    <col min="3076" max="3093" width="4.5" style="133" customWidth="1"/>
-    <col min="3094" max="3095" width="14.5" style="133" customWidth="1"/>
-    <col min="3096" max="3329" width="9" style="133"/>
-    <col min="3330" max="3331" width="14.5" style="133" customWidth="1"/>
-    <col min="3332" max="3349" width="4.5" style="133" customWidth="1"/>
-    <col min="3350" max="3351" width="14.5" style="133" customWidth="1"/>
-    <col min="3352" max="3585" width="9" style="133"/>
-    <col min="3586" max="3587" width="14.5" style="133" customWidth="1"/>
-    <col min="3588" max="3605" width="4.5" style="133" customWidth="1"/>
-    <col min="3606" max="3607" width="14.5" style="133" customWidth="1"/>
-    <col min="3608" max="3841" width="9" style="133"/>
-    <col min="3842" max="3843" width="14.5" style="133" customWidth="1"/>
-    <col min="3844" max="3861" width="4.5" style="133" customWidth="1"/>
-    <col min="3862" max="3863" width="14.5" style="133" customWidth="1"/>
-    <col min="3864" max="4097" width="9" style="133"/>
-    <col min="4098" max="4099" width="14.5" style="133" customWidth="1"/>
-    <col min="4100" max="4117" width="4.5" style="133" customWidth="1"/>
-    <col min="4118" max="4119" width="14.5" style="133" customWidth="1"/>
-    <col min="4120" max="4353" width="9" style="133"/>
-    <col min="4354" max="4355" width="14.5" style="133" customWidth="1"/>
-    <col min="4356" max="4373" width="4.5" style="133" customWidth="1"/>
-    <col min="4374" max="4375" width="14.5" style="133" customWidth="1"/>
-    <col min="4376" max="4609" width="9" style="133"/>
-    <col min="4610" max="4611" width="14.5" style="133" customWidth="1"/>
-    <col min="4612" max="4629" width="4.5" style="133" customWidth="1"/>
-    <col min="4630" max="4631" width="14.5" style="133" customWidth="1"/>
-    <col min="4632" max="4865" width="9" style="133"/>
-    <col min="4866" max="4867" width="14.5" style="133" customWidth="1"/>
-    <col min="4868" max="4885" width="4.5" style="133" customWidth="1"/>
-    <col min="4886" max="4887" width="14.5" style="133" customWidth="1"/>
-    <col min="4888" max="5121" width="9" style="133"/>
-    <col min="5122" max="5123" width="14.5" style="133" customWidth="1"/>
-    <col min="5124" max="5141" width="4.5" style="133" customWidth="1"/>
-    <col min="5142" max="5143" width="14.5" style="133" customWidth="1"/>
-    <col min="5144" max="5377" width="9" style="133"/>
-    <col min="5378" max="5379" width="14.5" style="133" customWidth="1"/>
-    <col min="5380" max="5397" width="4.5" style="133" customWidth="1"/>
-    <col min="5398" max="5399" width="14.5" style="133" customWidth="1"/>
-    <col min="5400" max="5633" width="9" style="133"/>
-    <col min="5634" max="5635" width="14.5" style="133" customWidth="1"/>
-    <col min="5636" max="5653" width="4.5" style="133" customWidth="1"/>
-    <col min="5654" max="5655" width="14.5" style="133" customWidth="1"/>
-    <col min="5656" max="5889" width="9" style="133"/>
-    <col min="5890" max="5891" width="14.5" style="133" customWidth="1"/>
-    <col min="5892" max="5909" width="4.5" style="133" customWidth="1"/>
-    <col min="5910" max="5911" width="14.5" style="133" customWidth="1"/>
-    <col min="5912" max="6145" width="9" style="133"/>
-    <col min="6146" max="6147" width="14.5" style="133" customWidth="1"/>
-    <col min="6148" max="6165" width="4.5" style="133" customWidth="1"/>
-    <col min="6166" max="6167" width="14.5" style="133" customWidth="1"/>
-    <col min="6168" max="6401" width="9" style="133"/>
-    <col min="6402" max="6403" width="14.5" style="133" customWidth="1"/>
-    <col min="6404" max="6421" width="4.5" style="133" customWidth="1"/>
-    <col min="6422" max="6423" width="14.5" style="133" customWidth="1"/>
-    <col min="6424" max="6657" width="9" style="133"/>
-    <col min="6658" max="6659" width="14.5" style="133" customWidth="1"/>
-    <col min="6660" max="6677" width="4.5" style="133" customWidth="1"/>
-    <col min="6678" max="6679" width="14.5" style="133" customWidth="1"/>
-    <col min="6680" max="6913" width="9" style="133"/>
-    <col min="6914" max="6915" width="14.5" style="133" customWidth="1"/>
-    <col min="6916" max="6933" width="4.5" style="133" customWidth="1"/>
-    <col min="6934" max="6935" width="14.5" style="133" customWidth="1"/>
-    <col min="6936" max="7169" width="9" style="133"/>
-    <col min="7170" max="7171" width="14.5" style="133" customWidth="1"/>
-    <col min="7172" max="7189" width="4.5" style="133" customWidth="1"/>
-    <col min="7190" max="7191" width="14.5" style="133" customWidth="1"/>
-    <col min="7192" max="7425" width="9" style="133"/>
-    <col min="7426" max="7427" width="14.5" style="133" customWidth="1"/>
-    <col min="7428" max="7445" width="4.5" style="133" customWidth="1"/>
-    <col min="7446" max="7447" width="14.5" style="133" customWidth="1"/>
-    <col min="7448" max="7681" width="9" style="133"/>
-    <col min="7682" max="7683" width="14.5" style="133" customWidth="1"/>
-    <col min="7684" max="7701" width="4.5" style="133" customWidth="1"/>
-    <col min="7702" max="7703" width="14.5" style="133" customWidth="1"/>
-    <col min="7704" max="7937" width="9" style="133"/>
-    <col min="7938" max="7939" width="14.5" style="133" customWidth="1"/>
-    <col min="7940" max="7957" width="4.5" style="133" customWidth="1"/>
-    <col min="7958" max="7959" width="14.5" style="133" customWidth="1"/>
-    <col min="7960" max="8193" width="9" style="133"/>
-    <col min="8194" max="8195" width="14.5" style="133" customWidth="1"/>
-    <col min="8196" max="8213" width="4.5" style="133" customWidth="1"/>
-    <col min="8214" max="8215" width="14.5" style="133" customWidth="1"/>
-    <col min="8216" max="8449" width="9" style="133"/>
-    <col min="8450" max="8451" width="14.5" style="133" customWidth="1"/>
-    <col min="8452" max="8469" width="4.5" style="133" customWidth="1"/>
-    <col min="8470" max="8471" width="14.5" style="133" customWidth="1"/>
-    <col min="8472" max="8705" width="9" style="133"/>
-    <col min="8706" max="8707" width="14.5" style="133" customWidth="1"/>
-    <col min="8708" max="8725" width="4.5" style="133" customWidth="1"/>
-    <col min="8726" max="8727" width="14.5" style="133" customWidth="1"/>
-    <col min="8728" max="8961" width="9" style="133"/>
-    <col min="8962" max="8963" width="14.5" style="133" customWidth="1"/>
-    <col min="8964" max="8981" width="4.5" style="133" customWidth="1"/>
-    <col min="8982" max="8983" width="14.5" style="133" customWidth="1"/>
-    <col min="8984" max="9217" width="9" style="133"/>
-    <col min="9218" max="9219" width="14.5" style="133" customWidth="1"/>
-    <col min="9220" max="9237" width="4.5" style="133" customWidth="1"/>
-    <col min="9238" max="9239" width="14.5" style="133" customWidth="1"/>
-    <col min="9240" max="9473" width="9" style="133"/>
-    <col min="9474" max="9475" width="14.5" style="133" customWidth="1"/>
-    <col min="9476" max="9493" width="4.5" style="133" customWidth="1"/>
-    <col min="9494" max="9495" width="14.5" style="133" customWidth="1"/>
-    <col min="9496" max="9729" width="9" style="133"/>
-    <col min="9730" max="9731" width="14.5" style="133" customWidth="1"/>
-    <col min="9732" max="9749" width="4.5" style="133" customWidth="1"/>
-    <col min="9750" max="9751" width="14.5" style="133" customWidth="1"/>
-    <col min="9752" max="9985" width="9" style="133"/>
-    <col min="9986" max="9987" width="14.5" style="133" customWidth="1"/>
-    <col min="9988" max="10005" width="4.5" style="133" customWidth="1"/>
-    <col min="10006" max="10007" width="14.5" style="133" customWidth="1"/>
-    <col min="10008" max="10241" width="9" style="133"/>
-    <col min="10242" max="10243" width="14.5" style="133" customWidth="1"/>
-    <col min="10244" max="10261" width="4.5" style="133" customWidth="1"/>
-    <col min="10262" max="10263" width="14.5" style="133" customWidth="1"/>
-    <col min="10264" max="10497" width="9" style="133"/>
-    <col min="10498" max="10499" width="14.5" style="133" customWidth="1"/>
-    <col min="10500" max="10517" width="4.5" style="133" customWidth="1"/>
-    <col min="10518" max="10519" width="14.5" style="133" customWidth="1"/>
-    <col min="10520" max="10753" width="9" style="133"/>
-    <col min="10754" max="10755" width="14.5" style="133" customWidth="1"/>
-    <col min="10756" max="10773" width="4.5" style="133" customWidth="1"/>
-    <col min="10774" max="10775" width="14.5" style="133" customWidth="1"/>
-    <col min="10776" max="11009" width="9" style="133"/>
-    <col min="11010" max="11011" width="14.5" style="133" customWidth="1"/>
-    <col min="11012" max="11029" width="4.5" style="133" customWidth="1"/>
-    <col min="11030" max="11031" width="14.5" style="133" customWidth="1"/>
-    <col min="11032" max="11265" width="9" style="133"/>
-    <col min="11266" max="11267" width="14.5" style="133" customWidth="1"/>
-    <col min="11268" max="11285" width="4.5" style="133" customWidth="1"/>
-    <col min="11286" max="11287" width="14.5" style="133" customWidth="1"/>
-    <col min="11288" max="11521" width="9" style="133"/>
-    <col min="11522" max="11523" width="14.5" style="133" customWidth="1"/>
-    <col min="11524" max="11541" width="4.5" style="133" customWidth="1"/>
-    <col min="11542" max="11543" width="14.5" style="133" customWidth="1"/>
-    <col min="11544" max="11777" width="9" style="133"/>
-    <col min="11778" max="11779" width="14.5" style="133" customWidth="1"/>
-    <col min="11780" max="11797" width="4.5" style="133" customWidth="1"/>
-    <col min="11798" max="11799" width="14.5" style="133" customWidth="1"/>
-    <col min="11800" max="12033" width="9" style="133"/>
-    <col min="12034" max="12035" width="14.5" style="133" customWidth="1"/>
-    <col min="12036" max="12053" width="4.5" style="133" customWidth="1"/>
-    <col min="12054" max="12055" width="14.5" style="133" customWidth="1"/>
-    <col min="12056" max="12289" width="9" style="133"/>
-    <col min="12290" max="12291" width="14.5" style="133" customWidth="1"/>
-    <col min="12292" max="12309" width="4.5" style="133" customWidth="1"/>
-    <col min="12310" max="12311" width="14.5" style="133" customWidth="1"/>
-    <col min="12312" max="12545" width="9" style="133"/>
-    <col min="12546" max="12547" width="14.5" style="133" customWidth="1"/>
-    <col min="12548" max="12565" width="4.5" style="133" customWidth="1"/>
-    <col min="12566" max="12567" width="14.5" style="133" customWidth="1"/>
-    <col min="12568" max="12801" width="9" style="133"/>
-    <col min="12802" max="12803" width="14.5" style="133" customWidth="1"/>
-    <col min="12804" max="12821" width="4.5" style="133" customWidth="1"/>
-    <col min="12822" max="12823" width="14.5" style="133" customWidth="1"/>
-    <col min="12824" max="13057" width="9" style="133"/>
-    <col min="13058" max="13059" width="14.5" style="133" customWidth="1"/>
-    <col min="13060" max="13077" width="4.5" style="133" customWidth="1"/>
-    <col min="13078" max="13079" width="14.5" style="133" customWidth="1"/>
-    <col min="13080" max="13313" width="9" style="133"/>
-    <col min="13314" max="13315" width="14.5" style="133" customWidth="1"/>
-    <col min="13316" max="13333" width="4.5" style="133" customWidth="1"/>
-    <col min="13334" max="13335" width="14.5" style="133" customWidth="1"/>
-    <col min="13336" max="13569" width="9" style="133"/>
-    <col min="13570" max="13571" width="14.5" style="133" customWidth="1"/>
-    <col min="13572" max="13589" width="4.5" style="133" customWidth="1"/>
-    <col min="13590" max="13591" width="14.5" style="133" customWidth="1"/>
-    <col min="13592" max="13825" width="9" style="133"/>
-    <col min="13826" max="13827" width="14.5" style="133" customWidth="1"/>
-    <col min="13828" max="13845" width="4.5" style="133" customWidth="1"/>
-    <col min="13846" max="13847" width="14.5" style="133" customWidth="1"/>
-    <col min="13848" max="14081" width="9" style="133"/>
-    <col min="14082" max="14083" width="14.5" style="133" customWidth="1"/>
-    <col min="14084" max="14101" width="4.5" style="133" customWidth="1"/>
-    <col min="14102" max="14103" width="14.5" style="133" customWidth="1"/>
-    <col min="14104" max="14337" width="9" style="133"/>
-    <col min="14338" max="14339" width="14.5" style="133" customWidth="1"/>
-    <col min="14340" max="14357" width="4.5" style="133" customWidth="1"/>
-    <col min="14358" max="14359" width="14.5" style="133" customWidth="1"/>
-    <col min="14360" max="14593" width="9" style="133"/>
-    <col min="14594" max="14595" width="14.5" style="133" customWidth="1"/>
-    <col min="14596" max="14613" width="4.5" style="133" customWidth="1"/>
-    <col min="14614" max="14615" width="14.5" style="133" customWidth="1"/>
-    <col min="14616" max="14849" width="9" style="133"/>
-    <col min="14850" max="14851" width="14.5" style="133" customWidth="1"/>
-    <col min="14852" max="14869" width="4.5" style="133" customWidth="1"/>
-    <col min="14870" max="14871" width="14.5" style="133" customWidth="1"/>
-    <col min="14872" max="15105" width="9" style="133"/>
-    <col min="15106" max="15107" width="14.5" style="133" customWidth="1"/>
-    <col min="15108" max="15125" width="4.5" style="133" customWidth="1"/>
-    <col min="15126" max="15127" width="14.5" style="133" customWidth="1"/>
-    <col min="15128" max="15361" width="9" style="133"/>
-    <col min="15362" max="15363" width="14.5" style="133" customWidth="1"/>
-    <col min="15364" max="15381" width="4.5" style="133" customWidth="1"/>
-    <col min="15382" max="15383" width="14.5" style="133" customWidth="1"/>
-    <col min="15384" max="15617" width="9" style="133"/>
-    <col min="15618" max="15619" width="14.5" style="133" customWidth="1"/>
-    <col min="15620" max="15637" width="4.5" style="133" customWidth="1"/>
-    <col min="15638" max="15639" width="14.5" style="133" customWidth="1"/>
-    <col min="15640" max="15873" width="9" style="133"/>
-    <col min="15874" max="15875" width="14.5" style="133" customWidth="1"/>
-    <col min="15876" max="15893" width="4.5" style="133" customWidth="1"/>
-    <col min="15894" max="15895" width="14.5" style="133" customWidth="1"/>
-    <col min="15896" max="16129" width="9" style="133"/>
-    <col min="16130" max="16131" width="14.5" style="133" customWidth="1"/>
-    <col min="16132" max="16149" width="4.5" style="133" customWidth="1"/>
-    <col min="16150" max="16151" width="14.5" style="133" customWidth="1"/>
-    <col min="16152" max="16384" width="9" style="133"/>
+    <col min="1" max="1" width="9" style="60"/>
+    <col min="2" max="3" width="14.5" style="60" customWidth="1"/>
+    <col min="4" max="21" width="4.5" style="60" customWidth="1"/>
+    <col min="22" max="23" width="14.5" style="60" customWidth="1"/>
+    <col min="24" max="257" width="9" style="60"/>
+    <col min="258" max="259" width="14.5" style="60" customWidth="1"/>
+    <col min="260" max="277" width="4.5" style="60" customWidth="1"/>
+    <col min="278" max="279" width="14.5" style="60" customWidth="1"/>
+    <col min="280" max="513" width="9" style="60"/>
+    <col min="514" max="515" width="14.5" style="60" customWidth="1"/>
+    <col min="516" max="533" width="4.5" style="60" customWidth="1"/>
+    <col min="534" max="535" width="14.5" style="60" customWidth="1"/>
+    <col min="536" max="769" width="9" style="60"/>
+    <col min="770" max="771" width="14.5" style="60" customWidth="1"/>
+    <col min="772" max="789" width="4.5" style="60" customWidth="1"/>
+    <col min="790" max="791" width="14.5" style="60" customWidth="1"/>
+    <col min="792" max="1025" width="9" style="60"/>
+    <col min="1026" max="1027" width="14.5" style="60" customWidth="1"/>
+    <col min="1028" max="1045" width="4.5" style="60" customWidth="1"/>
+    <col min="1046" max="1047" width="14.5" style="60" customWidth="1"/>
+    <col min="1048" max="1281" width="9" style="60"/>
+    <col min="1282" max="1283" width="14.5" style="60" customWidth="1"/>
+    <col min="1284" max="1301" width="4.5" style="60" customWidth="1"/>
+    <col min="1302" max="1303" width="14.5" style="60" customWidth="1"/>
+    <col min="1304" max="1537" width="9" style="60"/>
+    <col min="1538" max="1539" width="14.5" style="60" customWidth="1"/>
+    <col min="1540" max="1557" width="4.5" style="60" customWidth="1"/>
+    <col min="1558" max="1559" width="14.5" style="60" customWidth="1"/>
+    <col min="1560" max="1793" width="9" style="60"/>
+    <col min="1794" max="1795" width="14.5" style="60" customWidth="1"/>
+    <col min="1796" max="1813" width="4.5" style="60" customWidth="1"/>
+    <col min="1814" max="1815" width="14.5" style="60" customWidth="1"/>
+    <col min="1816" max="2049" width="9" style="60"/>
+    <col min="2050" max="2051" width="14.5" style="60" customWidth="1"/>
+    <col min="2052" max="2069" width="4.5" style="60" customWidth="1"/>
+    <col min="2070" max="2071" width="14.5" style="60" customWidth="1"/>
+    <col min="2072" max="2305" width="9" style="60"/>
+    <col min="2306" max="2307" width="14.5" style="60" customWidth="1"/>
+    <col min="2308" max="2325" width="4.5" style="60" customWidth="1"/>
+    <col min="2326" max="2327" width="14.5" style="60" customWidth="1"/>
+    <col min="2328" max="2561" width="9" style="60"/>
+    <col min="2562" max="2563" width="14.5" style="60" customWidth="1"/>
+    <col min="2564" max="2581" width="4.5" style="60" customWidth="1"/>
+    <col min="2582" max="2583" width="14.5" style="60" customWidth="1"/>
+    <col min="2584" max="2817" width="9" style="60"/>
+    <col min="2818" max="2819" width="14.5" style="60" customWidth="1"/>
+    <col min="2820" max="2837" width="4.5" style="60" customWidth="1"/>
+    <col min="2838" max="2839" width="14.5" style="60" customWidth="1"/>
+    <col min="2840" max="3073" width="9" style="60"/>
+    <col min="3074" max="3075" width="14.5" style="60" customWidth="1"/>
+    <col min="3076" max="3093" width="4.5" style="60" customWidth="1"/>
+    <col min="3094" max="3095" width="14.5" style="60" customWidth="1"/>
+    <col min="3096" max="3329" width="9" style="60"/>
+    <col min="3330" max="3331" width="14.5" style="60" customWidth="1"/>
+    <col min="3332" max="3349" width="4.5" style="60" customWidth="1"/>
+    <col min="3350" max="3351" width="14.5" style="60" customWidth="1"/>
+    <col min="3352" max="3585" width="9" style="60"/>
+    <col min="3586" max="3587" width="14.5" style="60" customWidth="1"/>
+    <col min="3588" max="3605" width="4.5" style="60" customWidth="1"/>
+    <col min="3606" max="3607" width="14.5" style="60" customWidth="1"/>
+    <col min="3608" max="3841" width="9" style="60"/>
+    <col min="3842" max="3843" width="14.5" style="60" customWidth="1"/>
+    <col min="3844" max="3861" width="4.5" style="60" customWidth="1"/>
+    <col min="3862" max="3863" width="14.5" style="60" customWidth="1"/>
+    <col min="3864" max="4097" width="9" style="60"/>
+    <col min="4098" max="4099" width="14.5" style="60" customWidth="1"/>
+    <col min="4100" max="4117" width="4.5" style="60" customWidth="1"/>
+    <col min="4118" max="4119" width="14.5" style="60" customWidth="1"/>
+    <col min="4120" max="4353" width="9" style="60"/>
+    <col min="4354" max="4355" width="14.5" style="60" customWidth="1"/>
+    <col min="4356" max="4373" width="4.5" style="60" customWidth="1"/>
+    <col min="4374" max="4375" width="14.5" style="60" customWidth="1"/>
+    <col min="4376" max="4609" width="9" style="60"/>
+    <col min="4610" max="4611" width="14.5" style="60" customWidth="1"/>
+    <col min="4612" max="4629" width="4.5" style="60" customWidth="1"/>
+    <col min="4630" max="4631" width="14.5" style="60" customWidth="1"/>
+    <col min="4632" max="4865" width="9" style="60"/>
+    <col min="4866" max="4867" width="14.5" style="60" customWidth="1"/>
+    <col min="4868" max="4885" width="4.5" style="60" customWidth="1"/>
+    <col min="4886" max="4887" width="14.5" style="60" customWidth="1"/>
+    <col min="4888" max="5121" width="9" style="60"/>
+    <col min="5122" max="5123" width="14.5" style="60" customWidth="1"/>
+    <col min="5124" max="5141" width="4.5" style="60" customWidth="1"/>
+    <col min="5142" max="5143" width="14.5" style="60" customWidth="1"/>
+    <col min="5144" max="5377" width="9" style="60"/>
+    <col min="5378" max="5379" width="14.5" style="60" customWidth="1"/>
+    <col min="5380" max="5397" width="4.5" style="60" customWidth="1"/>
+    <col min="5398" max="5399" width="14.5" style="60" customWidth="1"/>
+    <col min="5400" max="5633" width="9" style="60"/>
+    <col min="5634" max="5635" width="14.5" style="60" customWidth="1"/>
+    <col min="5636" max="5653" width="4.5" style="60" customWidth="1"/>
+    <col min="5654" max="5655" width="14.5" style="60" customWidth="1"/>
+    <col min="5656" max="5889" width="9" style="60"/>
+    <col min="5890" max="5891" width="14.5" style="60" customWidth="1"/>
+    <col min="5892" max="5909" width="4.5" style="60" customWidth="1"/>
+    <col min="5910" max="5911" width="14.5" style="60" customWidth="1"/>
+    <col min="5912" max="6145" width="9" style="60"/>
+    <col min="6146" max="6147" width="14.5" style="60" customWidth="1"/>
+    <col min="6148" max="6165" width="4.5" style="60" customWidth="1"/>
+    <col min="6166" max="6167" width="14.5" style="60" customWidth="1"/>
+    <col min="6168" max="6401" width="9" style="60"/>
+    <col min="6402" max="6403" width="14.5" style="60" customWidth="1"/>
+    <col min="6404" max="6421" width="4.5" style="60" customWidth="1"/>
+    <col min="6422" max="6423" width="14.5" style="60" customWidth="1"/>
+    <col min="6424" max="6657" width="9" style="60"/>
+    <col min="6658" max="6659" width="14.5" style="60" customWidth="1"/>
+    <col min="6660" max="6677" width="4.5" style="60" customWidth="1"/>
+    <col min="6678" max="6679" width="14.5" style="60" customWidth="1"/>
+    <col min="6680" max="6913" width="9" style="60"/>
+    <col min="6914" max="6915" width="14.5" style="60" customWidth="1"/>
+    <col min="6916" max="6933" width="4.5" style="60" customWidth="1"/>
+    <col min="6934" max="6935" width="14.5" style="60" customWidth="1"/>
+    <col min="6936" max="7169" width="9" style="60"/>
+    <col min="7170" max="7171" width="14.5" style="60" customWidth="1"/>
+    <col min="7172" max="7189" width="4.5" style="60" customWidth="1"/>
+    <col min="7190" max="7191" width="14.5" style="60" customWidth="1"/>
+    <col min="7192" max="7425" width="9" style="60"/>
+    <col min="7426" max="7427" width="14.5" style="60" customWidth="1"/>
+    <col min="7428" max="7445" width="4.5" style="60" customWidth="1"/>
+    <col min="7446" max="7447" width="14.5" style="60" customWidth="1"/>
+    <col min="7448" max="7681" width="9" style="60"/>
+    <col min="7682" max="7683" width="14.5" style="60" customWidth="1"/>
+    <col min="7684" max="7701" width="4.5" style="60" customWidth="1"/>
+    <col min="7702" max="7703" width="14.5" style="60" customWidth="1"/>
+    <col min="7704" max="7937" width="9" style="60"/>
+    <col min="7938" max="7939" width="14.5" style="60" customWidth="1"/>
+    <col min="7940" max="7957" width="4.5" style="60" customWidth="1"/>
+    <col min="7958" max="7959" width="14.5" style="60" customWidth="1"/>
+    <col min="7960" max="8193" width="9" style="60"/>
+    <col min="8194" max="8195" width="14.5" style="60" customWidth="1"/>
+    <col min="8196" max="8213" width="4.5" style="60" customWidth="1"/>
+    <col min="8214" max="8215" width="14.5" style="60" customWidth="1"/>
+    <col min="8216" max="8449" width="9" style="60"/>
+    <col min="8450" max="8451" width="14.5" style="60" customWidth="1"/>
+    <col min="8452" max="8469" width="4.5" style="60" customWidth="1"/>
+    <col min="8470" max="8471" width="14.5" style="60" customWidth="1"/>
+    <col min="8472" max="8705" width="9" style="60"/>
+    <col min="8706" max="8707" width="14.5" style="60" customWidth="1"/>
+    <col min="8708" max="8725" width="4.5" style="60" customWidth="1"/>
+    <col min="8726" max="8727" width="14.5" style="60" customWidth="1"/>
+    <col min="8728" max="8961" width="9" style="60"/>
+    <col min="8962" max="8963" width="14.5" style="60" customWidth="1"/>
+    <col min="8964" max="8981" width="4.5" style="60" customWidth="1"/>
+    <col min="8982" max="8983" width="14.5" style="60" customWidth="1"/>
+    <col min="8984" max="9217" width="9" style="60"/>
+    <col min="9218" max="9219" width="14.5" style="60" customWidth="1"/>
+    <col min="9220" max="9237" width="4.5" style="60" customWidth="1"/>
+    <col min="9238" max="9239" width="14.5" style="60" customWidth="1"/>
+    <col min="9240" max="9473" width="9" style="60"/>
+    <col min="9474" max="9475" width="14.5" style="60" customWidth="1"/>
+    <col min="9476" max="9493" width="4.5" style="60" customWidth="1"/>
+    <col min="9494" max="9495" width="14.5" style="60" customWidth="1"/>
+    <col min="9496" max="9729" width="9" style="60"/>
+    <col min="9730" max="9731" width="14.5" style="60" customWidth="1"/>
+    <col min="9732" max="9749" width="4.5" style="60" customWidth="1"/>
+    <col min="9750" max="9751" width="14.5" style="60" customWidth="1"/>
+    <col min="9752" max="9985" width="9" style="60"/>
+    <col min="9986" max="9987" width="14.5" style="60" customWidth="1"/>
+    <col min="9988" max="10005" width="4.5" style="60" customWidth="1"/>
+    <col min="10006" max="10007" width="14.5" style="60" customWidth="1"/>
+    <col min="10008" max="10241" width="9" style="60"/>
+    <col min="10242" max="10243" width="14.5" style="60" customWidth="1"/>
+    <col min="10244" max="10261" width="4.5" style="60" customWidth="1"/>
+    <col min="10262" max="10263" width="14.5" style="60" customWidth="1"/>
+    <col min="10264" max="10497" width="9" style="60"/>
+    <col min="10498" max="10499" width="14.5" style="60" customWidth="1"/>
+    <col min="10500" max="10517" width="4.5" style="60" customWidth="1"/>
+    <col min="10518" max="10519" width="14.5" style="60" customWidth="1"/>
+    <col min="10520" max="10753" width="9" style="60"/>
+    <col min="10754" max="10755" width="14.5" style="60" customWidth="1"/>
+    <col min="10756" max="10773" width="4.5" style="60" customWidth="1"/>
+    <col min="10774" max="10775" width="14.5" style="60" customWidth="1"/>
+    <col min="10776" max="11009" width="9" style="60"/>
+    <col min="11010" max="11011" width="14.5" style="60" customWidth="1"/>
+    <col min="11012" max="11029" width="4.5" style="60" customWidth="1"/>
+    <col min="11030" max="11031" width="14.5" style="60" customWidth="1"/>
+    <col min="11032" max="11265" width="9" style="60"/>
+    <col min="11266" max="11267" width="14.5" style="60" customWidth="1"/>
+    <col min="11268" max="11285" width="4.5" style="60" customWidth="1"/>
+    <col min="11286" max="11287" width="14.5" style="60" customWidth="1"/>
+    <col min="11288" max="11521" width="9" style="60"/>
+    <col min="11522" max="11523" width="14.5" style="60" customWidth="1"/>
+    <col min="11524" max="11541" width="4.5" style="60" customWidth="1"/>
+    <col min="11542" max="11543" width="14.5" style="60" customWidth="1"/>
+    <col min="11544" max="11777" width="9" style="60"/>
+    <col min="11778" max="11779" width="14.5" style="60" customWidth="1"/>
+    <col min="11780" max="11797" width="4.5" style="60" customWidth="1"/>
+    <col min="11798" max="11799" width="14.5" style="60" customWidth="1"/>
+    <col min="11800" max="12033" width="9" style="60"/>
+    <col min="12034" max="12035" width="14.5" style="60" customWidth="1"/>
+    <col min="12036" max="12053" width="4.5" style="60" customWidth="1"/>
+    <col min="12054" max="12055" width="14.5" style="60" customWidth="1"/>
+    <col min="12056" max="12289" width="9" style="60"/>
+    <col min="12290" max="12291" width="14.5" style="60" customWidth="1"/>
+    <col min="12292" max="12309" width="4.5" style="60" customWidth="1"/>
+    <col min="12310" max="12311" width="14.5" style="60" customWidth="1"/>
+    <col min="12312" max="12545" width="9" style="60"/>
+    <col min="12546" max="12547" width="14.5" style="60" customWidth="1"/>
+    <col min="12548" max="12565" width="4.5" style="60" customWidth="1"/>
+    <col min="12566" max="12567" width="14.5" style="60" customWidth="1"/>
+    <col min="12568" max="12801" width="9" style="60"/>
+    <col min="12802" max="12803" width="14.5" style="60" customWidth="1"/>
+    <col min="12804" max="12821" width="4.5" style="60" customWidth="1"/>
+    <col min="12822" max="12823" width="14.5" style="60" customWidth="1"/>
+    <col min="12824" max="13057" width="9" style="60"/>
+    <col min="13058" max="13059" width="14.5" style="60" customWidth="1"/>
+    <col min="13060" max="13077" width="4.5" style="60" customWidth="1"/>
+    <col min="13078" max="13079" width="14.5" style="60" customWidth="1"/>
+    <col min="13080" max="13313" width="9" style="60"/>
+    <col min="13314" max="13315" width="14.5" style="60" customWidth="1"/>
+    <col min="13316" max="13333" width="4.5" style="60" customWidth="1"/>
+    <col min="13334" max="13335" width="14.5" style="60" customWidth="1"/>
+    <col min="13336" max="13569" width="9" style="60"/>
+    <col min="13570" max="13571" width="14.5" style="60" customWidth="1"/>
+    <col min="13572" max="13589" width="4.5" style="60" customWidth="1"/>
+    <col min="13590" max="13591" width="14.5" style="60" customWidth="1"/>
+    <col min="13592" max="13825" width="9" style="60"/>
+    <col min="13826" max="13827" width="14.5" style="60" customWidth="1"/>
+    <col min="13828" max="13845" width="4.5" style="60" customWidth="1"/>
+    <col min="13846" max="13847" width="14.5" style="60" customWidth="1"/>
+    <col min="13848" max="14081" width="9" style="60"/>
+    <col min="14082" max="14083" width="14.5" style="60" customWidth="1"/>
+    <col min="14084" max="14101" width="4.5" style="60" customWidth="1"/>
+    <col min="14102" max="14103" width="14.5" style="60" customWidth="1"/>
+    <col min="14104" max="14337" width="9" style="60"/>
+    <col min="14338" max="14339" width="14.5" style="60" customWidth="1"/>
+    <col min="14340" max="14357" width="4.5" style="60" customWidth="1"/>
+    <col min="14358" max="14359" width="14.5" style="60" customWidth="1"/>
+    <col min="14360" max="14593" width="9" style="60"/>
+    <col min="14594" max="14595" width="14.5" style="60" customWidth="1"/>
+    <col min="14596" max="14613" width="4.5" style="60" customWidth="1"/>
+    <col min="14614" max="14615" width="14.5" style="60" customWidth="1"/>
+    <col min="14616" max="14849" width="9" style="60"/>
+    <col min="14850" max="14851" width="14.5" style="60" customWidth="1"/>
+    <col min="14852" max="14869" width="4.5" style="60" customWidth="1"/>
+    <col min="14870" max="14871" width="14.5" style="60" customWidth="1"/>
+    <col min="14872" max="15105" width="9" style="60"/>
+    <col min="15106" max="15107" width="14.5" style="60" customWidth="1"/>
+    <col min="15108" max="15125" width="4.5" style="60" customWidth="1"/>
+    <col min="15126" max="15127" width="14.5" style="60" customWidth="1"/>
+    <col min="15128" max="15361" width="9" style="60"/>
+    <col min="15362" max="15363" width="14.5" style="60" customWidth="1"/>
+    <col min="15364" max="15381" width="4.5" style="60" customWidth="1"/>
+    <col min="15382" max="15383" width="14.5" style="60" customWidth="1"/>
+    <col min="15384" max="15617" width="9" style="60"/>
+    <col min="15618" max="15619" width="14.5" style="60" customWidth="1"/>
+    <col min="15620" max="15637" width="4.5" style="60" customWidth="1"/>
+    <col min="15638" max="15639" width="14.5" style="60" customWidth="1"/>
+    <col min="15640" max="15873" width="9" style="60"/>
+    <col min="15874" max="15875" width="14.5" style="60" customWidth="1"/>
+    <col min="15876" max="15893" width="4.5" style="60" customWidth="1"/>
+    <col min="15894" max="15895" width="14.5" style="60" customWidth="1"/>
+    <col min="15896" max="16129" width="9" style="60"/>
+    <col min="16130" max="16131" width="14.5" style="60" customWidth="1"/>
+    <col min="16132" max="16149" width="4.5" style="60" customWidth="1"/>
+    <col min="16150" max="16151" width="14.5" style="60" customWidth="1"/>
+    <col min="16152" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="20.25">
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="170" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="131"/>
-      <c r="O1" s="131"/>
-      <c r="P1" s="131"/>
-      <c r="Q1" s="131"/>
-      <c r="R1" s="131"/>
-      <c r="S1" s="131"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="132"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="172"/>
     </row>
     <row r="2" spans="2:23" ht="21" thickBot="1">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="173" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="136"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="175"/>
     </row>
     <row r="3" spans="2:23" ht="21" thickBot="1">
-      <c r="B3" s="137"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
-      <c r="I3" s="138"/>
-      <c r="J3" s="138"/>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="139"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="178"/>
     </row>
     <row r="4" spans="2:23" ht="15" thickBot="1">
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="160" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="141"/>
-      <c r="S4" s="141"/>
-      <c r="T4" s="141"/>
-      <c r="U4" s="141"/>
-      <c r="V4" s="141"/>
-      <c r="W4" s="142"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="179"/>
+      <c r="S4" s="179"/>
+      <c r="T4" s="179"/>
+      <c r="U4" s="179"/>
+      <c r="V4" s="179"/>
+      <c r="W4" s="161"/>
     </row>
     <row r="5" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="154" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-      <c r="L5" s="147"/>
-      <c r="M5" s="143" t="s">
+      <c r="C5" s="155"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="154" t="s">
         <v>272</v>
       </c>
-      <c r="N5" s="148"/>
-      <c r="O5" s="148"/>
-      <c r="P5" s="148"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="148"/>
-      <c r="T5" s="148"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="149"/>
-      <c r="W5" s="150"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="159"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="180"/>
+      <c r="W5" s="181"/>
     </row>
     <row r="6" spans="2:23" ht="15" thickBot="1">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="154" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="144"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="143" t="s">
+      <c r="C6" s="155"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="148"/>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="148"/>
-      <c r="S6" s="148"/>
-      <c r="T6" s="148"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="140"/>
-      <c r="W6" s="142"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="159"/>
+      <c r="U6" s="155"/>
+      <c r="V6" s="160"/>
+      <c r="W6" s="161"/>
     </row>
     <row r="7" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="162" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="152"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
-      <c r="G7" s="154"/>
-      <c r="H7" s="154"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="155"/>
-      <c r="M7" s="151" t="s">
+      <c r="C7" s="163"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="162" t="s">
         <v>276</v>
       </c>
-      <c r="N7" s="156"/>
-      <c r="O7" s="156"/>
-      <c r="P7" s="156"/>
-      <c r="Q7" s="156"/>
-      <c r="R7" s="156"/>
-      <c r="S7" s="156"/>
-      <c r="T7" s="156"/>
-      <c r="U7" s="152"/>
-      <c r="V7" s="157"/>
-      <c r="W7" s="158"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="167"/>
+      <c r="R7" s="167"/>
+      <c r="S7" s="167"/>
+      <c r="T7" s="167"/>
+      <c r="U7" s="163"/>
+      <c r="V7" s="168"/>
+      <c r="W7" s="169"/>
     </row>
     <row r="8" spans="2:23" ht="15" thickBot="1">
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="144" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="160"/>
-      <c r="L8" s="160"/>
-      <c r="M8" s="160"/>
-      <c r="N8" s="160"/>
-      <c r="O8" s="160"/>
-      <c r="P8" s="160"/>
-      <c r="Q8" s="160"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="160"/>
-      <c r="T8" s="160"/>
-      <c r="U8" s="160"/>
-      <c r="V8" s="160"/>
-      <c r="W8" s="161"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="146"/>
     </row>
     <row r="9" spans="2:23">
-      <c r="B9" s="162" t="s">
+      <c r="B9" s="147" t="s">
         <v>278</v>
       </c>
-      <c r="C9" s="163"/>
-      <c r="D9" s="164" t="s">
+      <c r="C9" s="148"/>
+      <c r="D9" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="165"/>
-      <c r="M9" s="165"/>
-      <c r="N9" s="165"/>
-      <c r="O9" s="165"/>
-      <c r="P9" s="165"/>
-      <c r="Q9" s="165"/>
-      <c r="R9" s="165"/>
-      <c r="S9" s="165"/>
-      <c r="T9" s="165"/>
-      <c r="U9" s="166"/>
-      <c r="V9" s="163" t="s">
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="150"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="150"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="148" t="s">
         <v>280</v>
       </c>
-      <c r="W9" s="167" t="s">
+      <c r="W9" s="152" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="10" spans="2:23" ht="15" thickBot="1">
-      <c r="B10" s="168" t="s">
+      <c r="B10" s="140" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="169"/>
-      <c r="D10" s="170" t="s">
+      <c r="C10" s="141"/>
+      <c r="D10" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="E10" s="170" t="s">
+      <c r="E10" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="F10" s="170" t="s">
+      <c r="F10" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="G10" s="170" t="s">
+      <c r="G10" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="H10" s="170" t="s">
+      <c r="H10" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="I10" s="170" t="s">
+      <c r="I10" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="J10" s="170" t="s">
+      <c r="J10" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="K10" s="170" t="s">
+      <c r="K10" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="L10" s="170" t="s">
+      <c r="L10" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="M10" s="170" t="s">
+      <c r="M10" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="N10" s="170" t="s">
+      <c r="N10" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="O10" s="170" t="s">
+      <c r="O10" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="P10" s="170" t="s">
+      <c r="P10" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="Q10" s="170" t="s">
+      <c r="Q10" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="R10" s="170" t="s">
+      <c r="R10" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="S10" s="170" t="s">
+      <c r="S10" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="T10" s="170" t="s">
+      <c r="T10" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="U10" s="170" t="s">
+      <c r="U10" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="V10" s="171"/>
-      <c r="W10" s="172"/>
+      <c r="V10" s="151"/>
+      <c r="W10" s="153"/>
     </row>
     <row r="11" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B11" s="173"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="174"/>
-      <c r="M11" s="174"/>
-      <c r="N11" s="174"/>
-      <c r="O11" s="174"/>
-      <c r="P11" s="174"/>
-      <c r="Q11" s="174"/>
-      <c r="R11" s="174"/>
-      <c r="S11" s="174"/>
-      <c r="T11" s="174"/>
-      <c r="U11" s="174"/>
-      <c r="V11" s="174"/>
-      <c r="W11" s="175"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="63"/>
     </row>
     <row r="12" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B12" s="176"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="178"/>
-      <c r="L12" s="178"/>
-      <c r="M12" s="178"/>
-      <c r="N12" s="178"/>
-      <c r="O12" s="178"/>
-      <c r="P12" s="178"/>
-      <c r="Q12" s="178"/>
-      <c r="R12" s="178"/>
-      <c r="S12" s="178"/>
-      <c r="T12" s="178"/>
-      <c r="U12" s="178"/>
-      <c r="V12" s="178"/>
-      <c r="W12" s="179"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="139"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="65"/>
     </row>
     <row r="13" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B13" s="176"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="178"/>
-      <c r="L13" s="178"/>
-      <c r="M13" s="178"/>
-      <c r="N13" s="178"/>
-      <c r="O13" s="178"/>
-      <c r="P13" s="178"/>
-      <c r="Q13" s="178"/>
-      <c r="R13" s="178"/>
-      <c r="S13" s="178"/>
-      <c r="T13" s="178"/>
-      <c r="U13" s="178"/>
-      <c r="V13" s="178"/>
-      <c r="W13" s="179"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="65"/>
     </row>
     <row r="14" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B14" s="176"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="178"/>
-      <c r="M14" s="178"/>
-      <c r="N14" s="178"/>
-      <c r="O14" s="178"/>
-      <c r="P14" s="178"/>
-      <c r="Q14" s="178"/>
-      <c r="R14" s="178"/>
-      <c r="S14" s="178"/>
-      <c r="T14" s="178"/>
-      <c r="U14" s="178"/>
-      <c r="V14" s="178"/>
-      <c r="W14" s="179"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="139"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="65"/>
     </row>
     <row r="15" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B15" s="176"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="178"/>
-      <c r="M15" s="178"/>
-      <c r="N15" s="178"/>
-      <c r="O15" s="178"/>
-      <c r="P15" s="178"/>
-      <c r="Q15" s="178"/>
-      <c r="R15" s="178"/>
-      <c r="S15" s="178"/>
-      <c r="T15" s="178"/>
-      <c r="U15" s="178"/>
-      <c r="V15" s="178"/>
-      <c r="W15" s="179"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="65"/>
     </row>
     <row r="16" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B16" s="176"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="178"/>
-      <c r="M16" s="178"/>
-      <c r="N16" s="178"/>
-      <c r="O16" s="178"/>
-      <c r="P16" s="178"/>
-      <c r="Q16" s="178"/>
-      <c r="R16" s="178"/>
-      <c r="S16" s="178"/>
-      <c r="T16" s="178"/>
-      <c r="U16" s="178"/>
-      <c r="V16" s="178"/>
-      <c r="W16" s="179"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="139"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="65"/>
     </row>
     <row r="17" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B17" s="176"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="178"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="178"/>
-      <c r="L17" s="178"/>
-      <c r="M17" s="178"/>
-      <c r="N17" s="178"/>
-      <c r="O17" s="178"/>
-      <c r="P17" s="178"/>
-      <c r="Q17" s="178"/>
-      <c r="R17" s="178"/>
-      <c r="S17" s="178"/>
-      <c r="T17" s="178"/>
-      <c r="U17" s="178"/>
-      <c r="V17" s="178"/>
-      <c r="W17" s="179"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="65"/>
     </row>
     <row r="18" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B18" s="176"/>
-      <c r="C18" s="177"/>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="178"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="178"/>
-      <c r="N18" s="178"/>
-      <c r="O18" s="178"/>
-      <c r="P18" s="178"/>
-      <c r="Q18" s="178"/>
-      <c r="R18" s="178"/>
-      <c r="S18" s="178"/>
-      <c r="T18" s="178"/>
-      <c r="U18" s="178"/>
-      <c r="V18" s="178"/>
-      <c r="W18" s="179"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="65"/>
     </row>
     <row r="19" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B19" s="176"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="178"/>
-      <c r="M19" s="178"/>
-      <c r="N19" s="178"/>
-      <c r="O19" s="178"/>
-      <c r="P19" s="178"/>
-      <c r="Q19" s="178"/>
-      <c r="R19" s="178"/>
-      <c r="S19" s="178"/>
-      <c r="T19" s="178"/>
-      <c r="U19" s="178"/>
-      <c r="V19" s="178"/>
-      <c r="W19" s="179"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="139"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="65"/>
     </row>
     <row r="20" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B20" s="176"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="178"/>
-      <c r="N20" s="178"/>
-      <c r="O20" s="178"/>
-      <c r="P20" s="178"/>
-      <c r="Q20" s="178"/>
-      <c r="R20" s="178"/>
-      <c r="S20" s="178"/>
-      <c r="T20" s="178"/>
-      <c r="U20" s="178"/>
-      <c r="V20" s="178"/>
-      <c r="W20" s="179"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="65"/>
     </row>
     <row r="21" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B21" s="176"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="178"/>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="178"/>
-      <c r="M21" s="178"/>
-      <c r="N21" s="178"/>
-      <c r="O21" s="178"/>
-      <c r="P21" s="178"/>
-      <c r="Q21" s="178"/>
-      <c r="R21" s="178"/>
-      <c r="S21" s="178"/>
-      <c r="T21" s="178"/>
-      <c r="U21" s="178"/>
-      <c r="V21" s="178"/>
-      <c r="W21" s="179"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="65"/>
     </row>
     <row r="22" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B22" s="176"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="178"/>
-      <c r="M22" s="178"/>
-      <c r="N22" s="178"/>
-      <c r="O22" s="178"/>
-      <c r="P22" s="178"/>
-      <c r="Q22" s="178"/>
-      <c r="R22" s="178"/>
-      <c r="S22" s="178"/>
-      <c r="T22" s="178"/>
-      <c r="U22" s="178"/>
-      <c r="V22" s="178"/>
-      <c r="W22" s="179"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="65"/>
     </row>
     <row r="23" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B23" s="176"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="178"/>
-      <c r="O23" s="178"/>
-      <c r="P23" s="178"/>
-      <c r="Q23" s="178"/>
-      <c r="R23" s="178"/>
-      <c r="S23" s="178"/>
-      <c r="T23" s="178"/>
-      <c r="U23" s="178"/>
-      <c r="V23" s="178"/>
-      <c r="W23" s="179"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="139"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="65"/>
     </row>
     <row r="24" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B24" s="176"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="178"/>
-      <c r="N24" s="178"/>
-      <c r="O24" s="178"/>
-      <c r="P24" s="178"/>
-      <c r="Q24" s="178"/>
-      <c r="R24" s="178"/>
-      <c r="S24" s="178"/>
-      <c r="T24" s="178"/>
-      <c r="U24" s="178"/>
-      <c r="V24" s="178"/>
-      <c r="W24" s="179"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="65"/>
     </row>
     <row r="25" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B25" s="176"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="178"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="178"/>
-      <c r="O25" s="178"/>
-      <c r="P25" s="178"/>
-      <c r="Q25" s="178"/>
-      <c r="R25" s="178"/>
-      <c r="S25" s="178"/>
-      <c r="T25" s="178"/>
-      <c r="U25" s="178"/>
-      <c r="V25" s="178"/>
-      <c r="W25" s="179"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="65"/>
     </row>
     <row r="26" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B26" s="176"/>
-      <c r="C26" s="177"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="178"/>
-      <c r="M26" s="178"/>
-      <c r="N26" s="178"/>
-      <c r="O26" s="178"/>
-      <c r="P26" s="178"/>
-      <c r="Q26" s="178"/>
-      <c r="R26" s="178"/>
-      <c r="S26" s="178"/>
-      <c r="T26" s="178"/>
-      <c r="U26" s="178"/>
-      <c r="V26" s="178"/>
-      <c r="W26" s="179"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="139"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="65"/>
     </row>
     <row r="27" spans="2:23" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B27" s="168"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="180"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="180"/>
-      <c r="Q27" s="180"/>
-      <c r="R27" s="180"/>
-      <c r="S27" s="180"/>
-      <c r="T27" s="180"/>
-      <c r="U27" s="180"/>
-      <c r="V27" s="180"/>
-      <c r="W27" s="181"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B8:W8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:U9"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B1:W1"/>
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B3:W3"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="V5:W5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="M6:U6"/>
@@ -7392,14 +7377,29 @@
     <mergeCell ref="D7:L7"/>
     <mergeCell ref="M7:U7"/>
     <mergeCell ref="V7:W7"/>
-    <mergeCell ref="B1:W1"/>
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="B3:W3"/>
-    <mergeCell ref="B4:W4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="B8:W8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:U9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7411,8 +7411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16811B0A-B549-44D2-B7B1-A44DDEF62805}">
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7429,84 +7429,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="13.5" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40" t="s">
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40" t="s">
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40" t="s">
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40" t="s">
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="13" t="s">
         <v>122</v>
       </c>
@@ -7581,10 +7581,10 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="73" t="s">
         <v>138</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -7593,22 +7593,22 @@
       <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="70">
         <v>44197</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="70">
         <v>44316</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="76">
         <v>90</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="76">
         <v>16</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="76">
         <v>120</v>
       </c>
-      <c r="J3" s="48">
+      <c r="J3" s="76">
         <v>50</v>
       </c>
       <c r="K3" s="31"/>
@@ -7637,20 +7637,20 @@
       <c r="AH3" s="13"/>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="31"/>
@@ -7677,20 +7677,20 @@
       <c r="AH4" s="13"/>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -7717,20 +7717,20 @@
       <c r="AH5" s="13"/>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -7757,20 +7757,20 @@
       <c r="AH6" s="13"/>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -7797,18 +7797,18 @@
       <c r="AH7" s="13"/>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="28">
         <v>2</v>
       </c>
@@ -7867,8 +7867,8 @@
       <c r="AH8" s="28"/>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="45"/>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="73" t="s">
         <v>144</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -7877,22 +7877,22 @@
       <c r="D9" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="70">
         <v>44228</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="70">
         <v>44377</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="76">
         <v>110</v>
       </c>
-      <c r="H9" s="48">
+      <c r="H9" s="76">
         <v>16</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="76">
         <v>120</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="76">
         <v>50</v>
       </c>
       <c r="K9" s="30"/>
@@ -7921,20 +7921,20 @@
       <c r="AH9" s="13"/>
     </row>
     <row r="10" spans="1:34">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
@@ -7961,20 +7961,20 @@
       <c r="AH10" s="13"/>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
@@ -8001,20 +8001,20 @@
       <c r="AH11" s="13"/>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
@@ -8041,20 +8041,20 @@
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
@@ -8081,18 +8081,18 @@
       <c r="AH13" s="31"/>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="28">
         <v>2</v>
       </c>
@@ -8266,11 +8266,22 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="E9:E13"/>
@@ -8283,22 +8294,11 @@
     <mergeCell ref="H9:H13"/>
     <mergeCell ref="I9:I13"/>
     <mergeCell ref="J9:J13"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8377,77 +8377,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
     </row>
     <row r="2" spans="2:33">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
     </row>
     <row r="3" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="82" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="20">
@@ -8545,7 +8545,7 @@
       </c>
     </row>
     <row r="4" spans="2:33" ht="21" customHeight="1">
-      <c r="B4" s="51"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="19">
         <v>44166</v>
       </c>
@@ -8732,92 +8732,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="81"/>
+      <c r="AI1" s="81"/>
+      <c r="AJ1" s="81"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
     </row>
     <row r="3" spans="2:36" ht="21.75" customHeight="1">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="83" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="20" t="s">
@@ -8915,10 +8915,10 @@
       </c>
     </row>
     <row r="4" spans="2:36" ht="21" customHeight="1">
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
       <c r="F4" s="19">
         <v>44166</v>
       </c>

--- a/src/main/doc/学习总结/项目管理模板.xlsx
+++ b/src/main/doc/学习总结/项目管理模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\学习总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7756F8C6-4543-440C-A1B0-A5681A147192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30942C71-3457-44B0-AE10-E6E2AE5FC492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="研发考核" sheetId="17" r:id="rId17"/>
     <sheet name="04进度计划" sheetId="18" r:id="rId18"/>
     <sheet name="项目进度计划表" sheetId="19" r:id="rId19"/>
+    <sheet name="项目阶段及交付物" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="329">
   <si>
     <t>分项目阶段的角色及责任边界</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1472,6 +1473,118 @@
   <si>
     <t>……</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目立项说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目章程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求评审会议纪要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目风险管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目发版记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目遗留问题清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目bug清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件发布包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件代码版本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目整体投入资源说明（拉取jira整体数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试案例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试案例评审会议纪要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试执行计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIT测试报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UAT测试报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目启动会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目计划制定及评审会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求范围确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目沟通管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更控制（变更记录）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目资源日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2536,39 +2649,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2590,9 +2703,87 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2626,122 +2817,167 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="17" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="17" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="17" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="17" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2749,131 +2985,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3187,7 +3300,7 @@
   <dimension ref="C6:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3999,18 +4112,18 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="13"/>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77" t="s">
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
       <c r="J1" s="13" t="s">
         <v>45</v>
       </c>
@@ -4046,7 +4159,7 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="71" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -4076,7 +4189,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="77"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="15"/>
       <c r="C4" s="17" t="s">
         <v>58</v>
@@ -4092,7 +4205,7 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="77"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -4106,7 +4219,7 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="71" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="13"/>
@@ -4120,7 +4233,7 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="77"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -4132,7 +4245,7 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="77"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -4144,7 +4257,7 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="77"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -4159,7 +4272,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="77"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -4174,7 +4287,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="77"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -4189,7 +4302,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="71" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="13"/>
@@ -4206,7 +4319,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="77"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -4218,7 +4331,7 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="77"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -4230,7 +4343,7 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="77"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -4242,7 +4355,7 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="77"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -4254,7 +4367,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="77"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -4266,7 +4379,7 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="77"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -4652,7 +4765,7 @@
   <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5012,7 +5125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953B0F94-F6A2-499A-96D1-5FD0C71FF636}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -5025,403 +5138,405 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="87" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
       <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1">
       <c r="A2" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
       <c r="I2" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A3" s="124" t="s">
+      <c r="A3" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="124"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="124" t="s">
+      <c r="D3" s="91" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124" t="s">
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91" t="s">
         <v>191</v>
       </c>
-      <c r="K3" s="124"/>
+      <c r="K3" s="91"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="108">
+      <c r="B4" s="93"/>
+      <c r="C4" s="98">
         <v>0.8</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="101" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="113"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="103"/>
       <c r="J4" s="42">
         <v>10</v>
       </c>
-      <c r="K4" s="114">
+      <c r="K4" s="104">
         <f>J4+J5+J6+J7+J8-J9-J10-J11-J12-J13-J14-J15-J16</f>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A5" s="104"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="87" t="s">
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="107" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="69" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
       <c r="J5" s="43">
         <v>1</v>
       </c>
-      <c r="K5" s="115"/>
+      <c r="K5" s="105"/>
     </row>
     <row r="6" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A6" s="104"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="117" t="s">
+      <c r="A6" s="94"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
-      <c r="I6" s="119"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="43">
         <v>1</v>
       </c>
-      <c r="K6" s="115"/>
+      <c r="K6" s="105"/>
     </row>
     <row r="7" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="78" t="s">
+      <c r="A7" s="94"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="69" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
       <c r="J7" s="43">
         <v>1</v>
       </c>
-      <c r="K7" s="115"/>
+      <c r="K7" s="105"/>
     </row>
     <row r="8" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="105"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="79" t="s">
+      <c r="A8" s="94"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
       <c r="J8" s="43">
         <v>1</v>
       </c>
-      <c r="K8" s="115"/>
+      <c r="K8" s="105"/>
     </row>
     <row r="9" spans="1:15" ht="39" customHeight="1">
-      <c r="A9" s="104"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="87" t="s">
+      <c r="A9" s="94"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="107" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
       <c r="J9" s="43">
         <v>1</v>
       </c>
-      <c r="K9" s="115"/>
+      <c r="K9" s="105"/>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="99" t="s">
+      <c r="A10" s="94"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="101"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="113"/>
       <c r="J10" s="43">
         <v>1</v>
       </c>
-      <c r="K10" s="115"/>
+      <c r="K10" s="105"/>
     </row>
     <row r="11" spans="1:15" ht="42" customHeight="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="99" t="s">
+      <c r="A11" s="94"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="101"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="113"/>
       <c r="J11" s="43">
         <v>1</v>
       </c>
-      <c r="K11" s="115"/>
+      <c r="K11" s="105"/>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="99" t="s">
+      <c r="A12" s="94"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="101"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="113"/>
       <c r="J12" s="43">
         <v>1</v>
       </c>
-      <c r="K12" s="115"/>
+      <c r="K12" s="105"/>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A13" s="104"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="79" t="s">
+      <c r="A13" s="94"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
       <c r="J13" s="43">
         <v>1</v>
       </c>
-      <c r="K13" s="115"/>
+      <c r="K13" s="105"/>
       <c r="O13" s="44"/>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="105"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="79" t="s">
+      <c r="A14" s="94"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
       <c r="J14" s="43">
         <v>1</v>
       </c>
-      <c r="K14" s="115"/>
+      <c r="K14" s="105"/>
     </row>
     <row r="15" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="79" t="s">
+      <c r="A15" s="94"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
       <c r="J15" s="43">
         <v>1</v>
       </c>
-      <c r="K15" s="115"/>
+      <c r="K15" s="105"/>
     </row>
     <row r="16" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A16" s="106"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="79" t="s">
+      <c r="A16" s="96"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
       <c r="J16" s="43">
         <v>1</v>
       </c>
-      <c r="K16" s="116"/>
+      <c r="K16" s="106"/>
     </row>
     <row r="17" spans="1:12" ht="48" customHeight="1">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="107" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="87"/>
+      <c r="B17" s="107"/>
       <c r="C17" s="45">
         <v>0.2</v>
       </c>
-      <c r="D17" s="93" t="s">
+      <c r="D17" s="119" t="s">
         <v>210</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="94"/>
-      <c r="J17" s="95"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="121"/>
       <c r="K17" s="43">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="74.25" customHeight="1">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="98"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="124"/>
       <c r="L18" s="46"/>
     </row>
     <row r="19" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A19" s="87" t="s">
+      <c r="A19" s="107" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="88">
+      <c r="B19" s="107"/>
+      <c r="C19" s="114">
         <f>K4*C4+K17*C17</f>
         <v>7.2000000000000011</v>
       </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="90"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="116"/>
       <c r="L19" s="46"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="117" t="s">
         <v>213</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
     </row>
     <row r="22" spans="1:12" ht="177" customHeight="1">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="118"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="118"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="118"/>
+      <c r="K22" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="A20:K22"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:K18"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="A4:B16"/>
     <mergeCell ref="C4:C16"/>
@@ -5438,15 +5553,13 @@
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E13:I13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="A20:K22"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5461,7 +5574,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X5" sqref="X5"/>
+      <selection pane="bottomLeft" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5789,178 +5902,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="125" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-      <c r="L1" s="136"/>
-      <c r="M1" s="136"/>
-      <c r="N1" s="136"/>
-      <c r="O1" s="136"/>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="136"/>
-      <c r="T1" s="136"/>
-      <c r="U1" s="136"/>
-      <c r="V1" s="137"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="126"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="126"/>
+      <c r="P1" s="126"/>
+      <c r="Q1" s="126"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="127"/>
     </row>
     <row r="2" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="128"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="130"/>
     </row>
     <row r="3" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="131" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132" t="s">
         <v>217</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131" t="s">
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132" t="s">
         <v>218</v>
       </c>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="131" t="s">
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132" t="s">
         <v>219</v>
       </c>
-      <c r="S3" s="131"/>
-      <c r="T3" s="131"/>
-      <c r="U3" s="131"/>
-      <c r="V3" s="132"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="133"/>
     </row>
     <row r="4" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="131" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131" t="s">
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131" t="s">
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132" t="s">
         <v>222</v>
       </c>
-      <c r="M4" s="131"/>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131" t="s">
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132" t="s">
         <v>223</v>
       </c>
-      <c r="S4" s="131"/>
-      <c r="T4" s="131"/>
-      <c r="U4" s="131"/>
-      <c r="V4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="133"/>
     </row>
     <row r="5" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="131" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131" t="s">
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132" t="s">
         <v>221</v>
       </c>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131" t="s">
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132" t="s">
         <v>225</v>
       </c>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="133">
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="132"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="134">
         <v>43654</v>
       </c>
-      <c r="S5" s="133"/>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="135"/>
     </row>
     <row r="6" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="128" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
-      <c r="O6" s="127"/>
-      <c r="P6" s="127"/>
-      <c r="Q6" s="127"/>
-      <c r="R6" s="127"/>
-      <c r="S6" s="127"/>
-      <c r="T6" s="127"/>
-      <c r="U6" s="127"/>
-      <c r="V6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="129"/>
+      <c r="U6" s="129"/>
+      <c r="V6" s="130"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="48" t="s">
@@ -5969,30 +6082,30 @@
       <c r="B7" s="49">
         <v>0</v>
       </c>
-      <c r="C7" s="129">
+      <c r="C7" s="137">
         <v>1</v>
       </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129">
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137">
         <v>2</v>
       </c>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="129"/>
-      <c r="Q7" s="129">
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137">
         <v>3</v>
       </c>
-      <c r="R7" s="129"/>
-      <c r="S7" s="129"/>
-      <c r="T7" s="129"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="137"/>
+      <c r="T7" s="137"/>
       <c r="U7" s="49"/>
       <c r="V7" s="50"/>
     </row>
@@ -6116,7 +6229,7 @@
       <c r="S10" s="49"/>
       <c r="T10" s="49"/>
       <c r="U10" s="49"/>
-      <c r="V10" s="125" t="s">
+      <c r="V10" s="136" t="s">
         <v>253</v>
       </c>
     </row>
@@ -6146,7 +6259,7 @@
       <c r="U11" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="V11" s="125"/>
+      <c r="V11" s="136"/>
     </row>
     <row r="12" spans="1:22" ht="21.95" customHeight="1">
       <c r="A12" s="54" t="s">
@@ -6174,7 +6287,7 @@
       <c r="U12" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="V12" s="125" t="s">
+      <c r="V12" s="136" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6206,7 +6319,7 @@
       <c r="U13" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="V13" s="125"/>
+      <c r="V13" s="136"/>
     </row>
     <row r="14" spans="1:22" ht="21.95" customHeight="1">
       <c r="A14" s="48" t="s">
@@ -6260,7 +6373,7 @@
       <c r="U15" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="V15" s="125" t="s">
+      <c r="V15" s="136" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6290,7 +6403,7 @@
       <c r="U16" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="V16" s="125"/>
+      <c r="V16" s="136"/>
     </row>
     <row r="17" spans="1:22" ht="21.95" customHeight="1">
       <c r="A17" s="54" t="s">
@@ -6318,7 +6431,7 @@
       <c r="U17" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="V17" s="125"/>
+      <c r="V17" s="136"/>
     </row>
     <row r="18" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
       <c r="A18" s="56" t="s">
@@ -6348,12 +6461,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="V15:V17"/>
+    <mergeCell ref="A6:V6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="V12:V13"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="L4:Q4"/>
@@ -6362,13 +6476,12 @@
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="L5:Q5"/>
     <mergeCell ref="R5:V5"/>
-    <mergeCell ref="V15:V17"/>
-    <mergeCell ref="A6:V6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="R3:V3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6646,254 +6759,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="20.25">
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="138" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="172"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
+      <c r="T1" s="139"/>
+      <c r="U1" s="139"/>
+      <c r="V1" s="139"/>
+      <c r="W1" s="140"/>
     </row>
     <row r="2" spans="2:23" ht="21" thickBot="1">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="141" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="174"/>
-      <c r="J2" s="174"/>
-      <c r="K2" s="174"/>
-      <c r="L2" s="174"/>
-      <c r="M2" s="174"/>
-      <c r="N2" s="174"/>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
-      <c r="R2" s="174"/>
-      <c r="S2" s="174"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="175"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="143"/>
     </row>
     <row r="3" spans="2:23" ht="21" thickBot="1">
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
-      <c r="I3" s="177"/>
-      <c r="J3" s="177"/>
-      <c r="K3" s="177"/>
-      <c r="L3" s="177"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="177"/>
-      <c r="O3" s="177"/>
-      <c r="P3" s="177"/>
-      <c r="Q3" s="177"/>
-      <c r="R3" s="177"/>
-      <c r="S3" s="177"/>
-      <c r="T3" s="177"/>
-      <c r="U3" s="177"/>
-      <c r="V3" s="177"/>
-      <c r="W3" s="178"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="146"/>
     </row>
     <row r="4" spans="2:23" ht="15" thickBot="1">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="147" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="179"/>
-      <c r="I4" s="179"/>
-      <c r="J4" s="179"/>
-      <c r="K4" s="179"/>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="179"/>
-      <c r="Q4" s="179"/>
-      <c r="R4" s="179"/>
-      <c r="S4" s="179"/>
-      <c r="T4" s="179"/>
-      <c r="U4" s="179"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="161"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
+      <c r="K4" s="148"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="148"/>
+      <c r="O4" s="148"/>
+      <c r="P4" s="148"/>
+      <c r="Q4" s="148"/>
+      <c r="R4" s="148"/>
+      <c r="S4" s="148"/>
+      <c r="T4" s="148"/>
+      <c r="U4" s="148"/>
+      <c r="V4" s="148"/>
+      <c r="W4" s="149"/>
     </row>
     <row r="5" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="150" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="155"/>
-      <c r="D5" s="156"/>
-      <c r="E5" s="157"/>
-      <c r="F5" s="157"/>
-      <c r="G5" s="157"/>
-      <c r="H5" s="157"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="157"/>
-      <c r="L5" s="158"/>
-      <c r="M5" s="154" t="s">
+      <c r="C5" s="151"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="154"/>
+      <c r="M5" s="150" t="s">
         <v>272</v>
       </c>
-      <c r="N5" s="159"/>
-      <c r="O5" s="159"/>
-      <c r="P5" s="159"/>
-      <c r="Q5" s="159"/>
-      <c r="R5" s="159"/>
-      <c r="S5" s="159"/>
-      <c r="T5" s="159"/>
-      <c r="U5" s="155"/>
-      <c r="V5" s="180"/>
-      <c r="W5" s="181"/>
+      <c r="N5" s="155"/>
+      <c r="O5" s="155"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
+      <c r="T5" s="155"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="157"/>
     </row>
     <row r="6" spans="2:23" ht="15" thickBot="1">
-      <c r="B6" s="154" t="s">
+      <c r="B6" s="150" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="155"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="157"/>
-      <c r="G6" s="157"/>
-      <c r="H6" s="157"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="157"/>
-      <c r="L6" s="158"/>
-      <c r="M6" s="154" t="s">
+      <c r="C6" s="151"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="153"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="150" t="s">
         <v>274</v>
       </c>
-      <c r="N6" s="159"/>
-      <c r="O6" s="159"/>
-      <c r="P6" s="159"/>
-      <c r="Q6" s="159"/>
-      <c r="R6" s="159"/>
-      <c r="S6" s="159"/>
-      <c r="T6" s="159"/>
-      <c r="U6" s="155"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="161"/>
+      <c r="N6" s="155"/>
+      <c r="O6" s="155"/>
+      <c r="P6" s="155"/>
+      <c r="Q6" s="155"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="155"/>
+      <c r="T6" s="155"/>
+      <c r="U6" s="151"/>
+      <c r="V6" s="147"/>
+      <c r="W6" s="149"/>
     </row>
     <row r="7" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="158" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="163"/>
-      <c r="D7" s="164"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="165"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="165"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="162" t="s">
+      <c r="C7" s="159"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="158" t="s">
         <v>276</v>
       </c>
-      <c r="N7" s="167"/>
-      <c r="O7" s="167"/>
-      <c r="P7" s="167"/>
-      <c r="Q7" s="167"/>
-      <c r="R7" s="167"/>
-      <c r="S7" s="167"/>
-      <c r="T7" s="167"/>
-      <c r="U7" s="163"/>
-      <c r="V7" s="168"/>
-      <c r="W7" s="169"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="163"/>
+      <c r="P7" s="163"/>
+      <c r="Q7" s="163"/>
+      <c r="R7" s="163"/>
+      <c r="S7" s="163"/>
+      <c r="T7" s="163"/>
+      <c r="U7" s="159"/>
+      <c r="V7" s="164"/>
+      <c r="W7" s="165"/>
     </row>
     <row r="8" spans="2:23" ht="15" thickBot="1">
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="166" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="145"/>
-      <c r="U8" s="145"/>
-      <c r="V8" s="145"/>
-      <c r="W8" s="146"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="167"/>
+      <c r="O8" s="167"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="167"/>
+      <c r="U8" s="167"/>
+      <c r="V8" s="167"/>
+      <c r="W8" s="168"/>
     </row>
     <row r="9" spans="2:23">
-      <c r="B9" s="147" t="s">
+      <c r="B9" s="169" t="s">
         <v>278</v>
       </c>
-      <c r="C9" s="148"/>
-      <c r="D9" s="149" t="s">
+      <c r="C9" s="170"/>
+      <c r="D9" s="171" t="s">
         <v>279</v>
       </c>
-      <c r="E9" s="150"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="150"/>
-      <c r="I9" s="150"/>
-      <c r="J9" s="150"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="150"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="150"/>
-      <c r="S9" s="150"/>
-      <c r="T9" s="150"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="148" t="s">
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
+      <c r="M9" s="172"/>
+      <c r="N9" s="172"/>
+      <c r="O9" s="172"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="172"/>
+      <c r="R9" s="172"/>
+      <c r="S9" s="172"/>
+      <c r="T9" s="172"/>
+      <c r="U9" s="173"/>
+      <c r="V9" s="170" t="s">
         <v>280</v>
       </c>
-      <c r="W9" s="152" t="s">
+      <c r="W9" s="175" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="10" spans="2:23" ht="15" thickBot="1">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="177" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="141"/>
+      <c r="C10" s="178"/>
       <c r="D10" s="61" t="s">
         <v>283</v>
       </c>
@@ -6948,12 +7061,12 @@
       <c r="U10" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="V10" s="151"/>
-      <c r="W10" s="153"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="176"/>
     </row>
     <row r="11" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B11" s="142"/>
-      <c r="C11" s="143"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="173"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
@@ -6976,8 +7089,8 @@
       <c r="W11" s="63"/>
     </row>
     <row r="12" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B12" s="138"/>
-      <c r="C12" s="139"/>
+      <c r="B12" s="179"/>
+      <c r="C12" s="180"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -7000,8 +7113,8 @@
       <c r="W12" s="65"/>
     </row>
     <row r="13" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
+      <c r="B13" s="179"/>
+      <c r="C13" s="180"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
@@ -7024,8 +7137,8 @@
       <c r="W13" s="65"/>
     </row>
     <row r="14" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B14" s="138"/>
-      <c r="C14" s="139"/>
+      <c r="B14" s="179"/>
+      <c r="C14" s="180"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -7048,8 +7161,8 @@
       <c r="W14" s="65"/>
     </row>
     <row r="15" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B15" s="138"/>
-      <c r="C15" s="139"/>
+      <c r="B15" s="179"/>
+      <c r="C15" s="180"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
@@ -7072,8 +7185,8 @@
       <c r="W15" s="65"/>
     </row>
     <row r="16" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B16" s="138"/>
-      <c r="C16" s="139"/>
+      <c r="B16" s="179"/>
+      <c r="C16" s="180"/>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -7096,8 +7209,8 @@
       <c r="W16" s="65"/>
     </row>
     <row r="17" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B17" s="138"/>
-      <c r="C17" s="139"/>
+      <c r="B17" s="179"/>
+      <c r="C17" s="180"/>
       <c r="D17" s="64"/>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -7120,8 +7233,8 @@
       <c r="W17" s="65"/>
     </row>
     <row r="18" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B18" s="138"/>
-      <c r="C18" s="139"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="180"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
@@ -7144,8 +7257,8 @@
       <c r="W18" s="65"/>
     </row>
     <row r="19" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B19" s="138"/>
-      <c r="C19" s="139"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="180"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
@@ -7168,8 +7281,8 @@
       <c r="W19" s="65"/>
     </row>
     <row r="20" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
+      <c r="B20" s="179"/>
+      <c r="C20" s="180"/>
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="64"/>
@@ -7192,8 +7305,8 @@
       <c r="W20" s="65"/>
     </row>
     <row r="21" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
+      <c r="B21" s="179"/>
+      <c r="C21" s="180"/>
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
       <c r="F21" s="64"/>
@@ -7216,8 +7329,8 @@
       <c r="W21" s="65"/>
     </row>
     <row r="22" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B22" s="138"/>
-      <c r="C22" s="139"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="180"/>
       <c r="D22" s="64"/>
       <c r="E22" s="64"/>
       <c r="F22" s="64"/>
@@ -7240,8 +7353,8 @@
       <c r="W22" s="65"/>
     </row>
     <row r="23" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B23" s="138"/>
-      <c r="C23" s="139"/>
+      <c r="B23" s="179"/>
+      <c r="C23" s="180"/>
       <c r="D23" s="64"/>
       <c r="E23" s="64"/>
       <c r="F23" s="64"/>
@@ -7264,8 +7377,8 @@
       <c r="W23" s="65"/>
     </row>
     <row r="24" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B24" s="138"/>
-      <c r="C24" s="139"/>
+      <c r="B24" s="179"/>
+      <c r="C24" s="180"/>
       <c r="D24" s="64"/>
       <c r="E24" s="64"/>
       <c r="F24" s="64"/>
@@ -7288,8 +7401,8 @@
       <c r="W24" s="65"/>
     </row>
     <row r="25" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B25" s="138"/>
-      <c r="C25" s="139"/>
+      <c r="B25" s="179"/>
+      <c r="C25" s="180"/>
       <c r="D25" s="64"/>
       <c r="E25" s="64"/>
       <c r="F25" s="64"/>
@@ -7312,8 +7425,8 @@
       <c r="W25" s="65"/>
     </row>
     <row r="26" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B26" s="138"/>
-      <c r="C26" s="139"/>
+      <c r="B26" s="179"/>
+      <c r="C26" s="180"/>
       <c r="D26" s="64"/>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
@@ -7336,8 +7449,8 @@
       <c r="W26" s="65"/>
     </row>
     <row r="27" spans="2:23" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B27" s="140"/>
-      <c r="C27" s="141"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="178"/>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
@@ -7361,28 +7474,11 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B1:W1"/>
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="B3:W3"/>
-    <mergeCell ref="B4:W4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="B8:W8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:U9"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
@@ -7395,11 +7491,28 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B8:W8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:U9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="B1:W1"/>
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B3:W3"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="V5:W5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7411,7 +7524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16811B0A-B549-44D2-B7B1-A44DDEF62805}">
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
@@ -7429,84 +7542,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="13.5" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="71" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77" t="s">
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77" t="s">
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77" t="s">
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77" t="s">
+      <c r="X1" s="71"/>
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="71" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77" t="s">
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
-      <c r="AH1" s="77"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="13" t="s">
         <v>122</v>
       </c>
@@ -7581,10 +7694,10 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="72" t="s">
         <v>138</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -7593,22 +7706,22 @@
       <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="70">
+      <c r="E3" s="75">
         <v>44197</v>
       </c>
-      <c r="F3" s="70">
+      <c r="F3" s="75">
         <v>44316</v>
       </c>
-      <c r="G3" s="76">
+      <c r="G3" s="78">
         <v>90</v>
       </c>
-      <c r="H3" s="76">
+      <c r="H3" s="78">
         <v>16</v>
       </c>
-      <c r="I3" s="76">
+      <c r="I3" s="78">
         <v>120</v>
       </c>
-      <c r="J3" s="76">
+      <c r="J3" s="78">
         <v>50</v>
       </c>
       <c r="K3" s="31"/>
@@ -7637,20 +7750,20 @@
       <c r="AH3" s="13"/>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
       <c r="C4" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="31"/>
@@ -7677,20 +7790,20 @@
       <c r="AH4" s="13"/>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -7717,20 +7830,20 @@
       <c r="AH5" s="13"/>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
       <c r="C6" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -7757,20 +7870,20 @@
       <c r="AH6" s="13"/>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -7797,18 +7910,18 @@
       <c r="AH7" s="13"/>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
       <c r="K8" s="28">
         <v>2</v>
       </c>
@@ -7867,8 +7980,8 @@
       <c r="AH8" s="28"/>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="74"/>
-      <c r="B9" s="73" t="s">
+      <c r="A9" s="73"/>
+      <c r="B9" s="72" t="s">
         <v>144</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -7877,22 +7990,22 @@
       <c r="D9" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="75">
         <v>44228</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="75">
         <v>44377</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="78">
         <v>110</v>
       </c>
-      <c r="H9" s="76">
+      <c r="H9" s="78">
         <v>16</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="78">
         <v>120</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="78">
         <v>50</v>
       </c>
       <c r="K9" s="30"/>
@@ -7921,20 +8034,20 @@
       <c r="AH9" s="13"/>
     </row>
     <row r="10" spans="1:34">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
       <c r="C10" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
@@ -7961,20 +8074,20 @@
       <c r="AH10" s="13"/>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="73"/>
       <c r="C11" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
@@ -8001,20 +8114,20 @@
       <c r="AH11" s="13"/>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
+      <c r="A12" s="73"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
@@ -8041,20 +8154,20 @@
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
@@ -8081,18 +8194,18 @@
       <c r="AH13" s="31"/>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" s="74"/>
-      <c r="B14" s="75"/>
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
       <c r="K14" s="28">
         <v>2</v>
       </c>
@@ -8266,22 +8379,7 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="D8:J8"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="B9:B14"/>
     <mergeCell ref="E9:E13"/>
@@ -8298,11 +8396,146 @@
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="F3:F7"/>
     <mergeCell ref="B3:B8"/>
-    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518FA7ED-0A08-4808-A9D5-0F278482ED56}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H5" t="s">
+        <v>321</v>
+      </c>
+      <c r="I5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8722,7 +8955,7 @@
   <dimension ref="B1:AJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/src/main/doc/学习总结/项目管理模板.xlsx
+++ b/src/main/doc/学习总结/项目管理模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_repository\pma\src\main\doc\学习总结\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30942C71-3457-44B0-AE10-E6E2AE5FC492}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C03BAB8-D851-421F-AB93-919186F38405}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="04进度计划" sheetId="18" r:id="rId18"/>
     <sheet name="项目进度计划表" sheetId="19" r:id="rId19"/>
     <sheet name="项目阶段及交付物" sheetId="20" r:id="rId20"/>
+    <sheet name="项目交付标准目录结构" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="393">
   <si>
     <t>分项目阶段的角色及责任边界</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1584,6 +1585,262 @@
   </si>
   <si>
     <t>项目资源日历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    01用户需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    02软件需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    03需求参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    04需求调研</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    01架构设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    02数据库设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    03参数设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    04详细设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    05接口设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01编码规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02开发指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04移植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04清理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05补录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02集成测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03出厂测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04回归测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05验收测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06性能测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07绿灯测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01产品培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02技术培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03测试培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04培训手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01方案细则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02切换演练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03切换投产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08运维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01运维手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02运维监控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03优化记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10计划管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11过程管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01项目变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02项目例会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03项目报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04项目周报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05阶段证明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12质量管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01需求评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02设计评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03测试评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04质量配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05质量月报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06审计报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13环境管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01环境清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02部署手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03部署工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04环境检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14结项管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01项目验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02项目总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2505,7 +2762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2649,39 +2906,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2703,6 +2960,105 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2718,104 +3074,35 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="17" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="17" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2826,35 +3113,101 @@
     <xf numFmtId="0" fontId="14" fillId="15" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="17" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="17" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2883,111 +3236,28 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="17" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4112,18 +4382,18 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="13"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
       <c r="J1" s="13" t="s">
         <v>45</v>
       </c>
@@ -4159,7 +4429,7 @@
       <c r="J2" s="13"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="77" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -4189,7 +4459,7 @@
       <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="71"/>
+      <c r="A4" s="77"/>
       <c r="B4" s="15"/>
       <c r="C4" s="17" t="s">
         <v>58</v>
@@ -4205,7 +4475,7 @@
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="71"/>
+      <c r="A5" s="77"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -4219,7 +4489,7 @@
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="77" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="13"/>
@@ -4233,7 +4503,7 @@
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="71"/>
+      <c r="A7" s="77"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -4245,7 +4515,7 @@
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="71"/>
+      <c r="A8" s="77"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -4257,7 +4527,7 @@
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="71"/>
+      <c r="A9" s="77"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -4272,7 +4542,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="71"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -4287,7 +4557,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="71"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -4302,7 +4572,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="77" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="13"/>
@@ -4319,7 +4589,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="71"/>
+      <c r="A13" s="77"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -4331,7 +4601,7 @@
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="71"/>
+      <c r="A14" s="77"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -4343,7 +4613,7 @@
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="71"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -4355,7 +4625,7 @@
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="71"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -4367,7 +4637,7 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="71"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -4379,7 +4649,7 @@
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="71"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -5125,7 +5395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953B0F94-F6A2-499A-96D1-5FD0C71FF636}">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -5138,405 +5408,403 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="120" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
       <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:15" ht="24.95" customHeight="1">
       <c r="A2" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
       <c r="E2" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
       <c r="I2" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
       <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="91"/>
+      <c r="B3" s="124"/>
       <c r="C3" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="D3" s="91" t="s">
+      <c r="D3" s="124" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91" t="s">
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="K3" s="91"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="99" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="98">
+      <c r="B4" s="100"/>
+      <c r="C4" s="105">
         <v>0.8</v>
       </c>
       <c r="D4" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="108" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="103"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="110"/>
       <c r="J4" s="42">
         <v>10</v>
       </c>
-      <c r="K4" s="104">
+      <c r="K4" s="111">
         <f>J4+J5+J6+J7+J8-J9-J10-J11-J12-J13-J14-J15-J16</f>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A5" s="94"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="107" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
       <c r="J5" s="43">
         <v>1</v>
       </c>
-      <c r="K5" s="105"/>
+      <c r="K5" s="112"/>
     </row>
     <row r="6" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A6" s="94"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="108" t="s">
+      <c r="A6" s="101"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="110"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="116"/>
       <c r="J6" s="43">
         <v>1</v>
       </c>
-      <c r="K6" s="105"/>
+      <c r="K6" s="112"/>
     </row>
     <row r="7" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A7" s="94"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="69" t="s">
+      <c r="A7" s="101"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
       <c r="J7" s="43">
         <v>1</v>
       </c>
-      <c r="K7" s="105"/>
+      <c r="K7" s="112"/>
     </row>
     <row r="8" spans="1:15" ht="32.25" customHeight="1">
-      <c r="A8" s="94"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="70" t="s">
+      <c r="A8" s="101"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
       <c r="J8" s="43">
         <v>1</v>
       </c>
-      <c r="K8" s="105"/>
+      <c r="K8" s="112"/>
     </row>
     <row r="9" spans="1:15" ht="39" customHeight="1">
-      <c r="A9" s="94"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="107" t="s">
+      <c r="A9" s="101"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="87" t="s">
         <v>200</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
       <c r="J9" s="43">
         <v>1</v>
       </c>
-      <c r="K9" s="105"/>
+      <c r="K9" s="112"/>
     </row>
     <row r="10" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A10" s="94"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="111" t="s">
+      <c r="A10" s="101"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="113"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="119"/>
       <c r="J10" s="43">
         <v>1</v>
       </c>
-      <c r="K10" s="105"/>
+      <c r="K10" s="112"/>
     </row>
     <row r="11" spans="1:15" ht="42" customHeight="1">
-      <c r="A11" s="94"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="111" t="s">
+      <c r="A11" s="101"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="113"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="119"/>
       <c r="J11" s="43">
         <v>1</v>
       </c>
-      <c r="K11" s="105"/>
+      <c r="K11" s="112"/>
     </row>
     <row r="12" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="111" t="s">
+      <c r="A12" s="101"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="113"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="119"/>
       <c r="J12" s="43">
         <v>1</v>
       </c>
-      <c r="K12" s="105"/>
+      <c r="K12" s="112"/>
     </row>
     <row r="13" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A13" s="94"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="70" t="s">
+      <c r="A13" s="101"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
       <c r="J13" s="43">
         <v>1</v>
       </c>
-      <c r="K13" s="105"/>
+      <c r="K13" s="112"/>
       <c r="O13" s="44"/>
     </row>
     <row r="14" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A14" s="94"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="70" t="s">
+      <c r="A14" s="101"/>
+      <c r="B14" s="102"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
       <c r="J14" s="43">
         <v>1</v>
       </c>
-      <c r="K14" s="105"/>
+      <c r="K14" s="112"/>
     </row>
     <row r="15" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A15" s="94"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="70" t="s">
+      <c r="A15" s="101"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
       <c r="J15" s="43">
         <v>1</v>
       </c>
-      <c r="K15" s="105"/>
+      <c r="K15" s="112"/>
     </row>
     <row r="16" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A16" s="96"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="70" t="s">
+      <c r="A16" s="103"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
       <c r="J16" s="43">
         <v>1</v>
       </c>
-      <c r="K16" s="106"/>
+      <c r="K16" s="113"/>
     </row>
     <row r="17" spans="1:12" ht="48" customHeight="1">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="107"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="45">
         <v>0.2</v>
       </c>
-      <c r="D17" s="119" t="s">
+      <c r="D17" s="93" t="s">
         <v>210</v>
       </c>
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="121"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="95"/>
       <c r="K17" s="43">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="74.25" customHeight="1">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="124"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="98"/>
       <c r="L18" s="46"/>
     </row>
     <row r="19" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="114">
+      <c r="B19" s="87"/>
+      <c r="C19" s="88">
         <f>K4*C4+K17*C17</f>
         <v>7.2000000000000011</v>
       </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="116"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="90"/>
       <c r="L19" s="46"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="117" t="s">
+      <c r="A20" s="91" t="s">
         <v>213</v>
       </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="118"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="118"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="118"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
     </row>
     <row r="22" spans="1:12" ht="177" customHeight="1">
-      <c r="A22" s="118"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="118"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="A20:K22"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="E14:I14"/>
     <mergeCell ref="A4:B16"/>
     <mergeCell ref="C4:C16"/>
@@ -5553,13 +5821,15 @@
     <mergeCell ref="E11:I11"/>
     <mergeCell ref="E12:I12"/>
     <mergeCell ref="E13:I13"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="A20:K22"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5902,178 +6172,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.25">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="135" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="127"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="137"/>
     </row>
     <row r="2" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="126" t="s">
         <v>215</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="130"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="128"/>
     </row>
     <row r="3" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="130" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132" t="s">
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="132" t="s">
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131" t="s">
         <v>218</v>
       </c>
-      <c r="M3" s="132"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="132"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
-      <c r="R3" s="132" t="s">
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131" t="s">
         <v>219</v>
       </c>
-      <c r="S3" s="132"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="133"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="132"/>
     </row>
     <row r="4" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="132"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132" t="s">
+      <c r="B4" s="131"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131" t="s">
         <v>221</v>
       </c>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132" t="s">
+      <c r="G4" s="131"/>
+      <c r="H4" s="131"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="131"/>
+      <c r="L4" s="131" t="s">
         <v>222</v>
       </c>
-      <c r="M4" s="132"/>
-      <c r="N4" s="132"/>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132" t="s">
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="131" t="s">
         <v>223</v>
       </c>
-      <c r="S4" s="132"/>
-      <c r="T4" s="132"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="133"/>
+      <c r="S4" s="131"/>
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="132"/>
     </row>
     <row r="5" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="132"/>
-      <c r="C5" s="132"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132" t="s">
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131" t="s">
         <v>221</v>
       </c>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="132" t="s">
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131" t="s">
         <v>225</v>
       </c>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="132"/>
-      <c r="R5" s="134">
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="133">
         <v>43654</v>
       </c>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="135"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="133"/>
+      <c r="V5" s="134"/>
     </row>
     <row r="6" spans="1:22" ht="21.95" customHeight="1">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="126" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="130"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="127"/>
+      <c r="R6" s="127"/>
+      <c r="S6" s="127"/>
+      <c r="T6" s="127"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="128"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="48" t="s">
@@ -6082,30 +6352,30 @@
       <c r="B7" s="49">
         <v>0</v>
       </c>
-      <c r="C7" s="137">
+      <c r="C7" s="129">
         <v>1</v>
       </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="137">
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129">
         <v>2</v>
       </c>
-      <c r="K7" s="137"/>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="137"/>
-      <c r="P7" s="137"/>
-      <c r="Q7" s="137">
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="129"/>
+      <c r="Q7" s="129">
         <v>3</v>
       </c>
-      <c r="R7" s="137"/>
-      <c r="S7" s="137"/>
-      <c r="T7" s="137"/>
+      <c r="R7" s="129"/>
+      <c r="S7" s="129"/>
+      <c r="T7" s="129"/>
       <c r="U7" s="49"/>
       <c r="V7" s="50"/>
     </row>
@@ -6229,7 +6499,7 @@
       <c r="S10" s="49"/>
       <c r="T10" s="49"/>
       <c r="U10" s="49"/>
-      <c r="V10" s="136" t="s">
+      <c r="V10" s="125" t="s">
         <v>253</v>
       </c>
     </row>
@@ -6259,7 +6529,7 @@
       <c r="U11" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="V11" s="136"/>
+      <c r="V11" s="125"/>
     </row>
     <row r="12" spans="1:22" ht="21.95" customHeight="1">
       <c r="A12" s="54" t="s">
@@ -6287,7 +6557,7 @@
       <c r="U12" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="V12" s="136" t="s">
+      <c r="V12" s="125" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6319,7 +6589,7 @@
       <c r="U13" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="V13" s="136"/>
+      <c r="V13" s="125"/>
     </row>
     <row r="14" spans="1:22" ht="21.95" customHeight="1">
       <c r="A14" s="48" t="s">
@@ -6373,7 +6643,7 @@
       <c r="U15" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="V15" s="136" t="s">
+      <c r="V15" s="125" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6403,7 +6673,7 @@
       <c r="U16" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="V16" s="136"/>
+      <c r="V16" s="125"/>
     </row>
     <row r="17" spans="1:22" ht="21.95" customHeight="1">
       <c r="A17" s="54" t="s">
@@ -6431,7 +6701,7 @@
       <c r="U17" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="V17" s="136"/>
+      <c r="V17" s="125"/>
     </row>
     <row r="18" spans="1:22" ht="21.95" customHeight="1" thickBot="1">
       <c r="A18" s="56" t="s">
@@ -6461,13 +6731,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="V15:V17"/>
-    <mergeCell ref="A6:V6"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:T7"/>
-    <mergeCell ref="V10:V11"/>
-    <mergeCell ref="V12:V13"/>
+    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A2:V2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="R3:V3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="L4:Q4"/>
@@ -6476,12 +6745,13 @@
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="L5:Q5"/>
     <mergeCell ref="R5:V5"/>
-    <mergeCell ref="A1:V1"/>
-    <mergeCell ref="A2:V2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="L3:Q3"/>
-    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="V15:V17"/>
+    <mergeCell ref="A6:V6"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:T7"/>
+    <mergeCell ref="V10:V11"/>
+    <mergeCell ref="V12:V13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6493,7 +6763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A8F3FF-DC0B-4CA7-9483-807188F8C27C}">
   <dimension ref="B1:W27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -6759,254 +7029,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="20.25">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="170" t="s">
         <v>268</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="139"/>
-      <c r="W1" s="140"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="172"/>
     </row>
     <row r="2" spans="2:23" ht="21" thickBot="1">
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="173" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="142"/>
-      <c r="M2" s="142"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="142"/>
-      <c r="P2" s="142"/>
-      <c r="Q2" s="142"/>
-      <c r="R2" s="142"/>
-      <c r="S2" s="142"/>
-      <c r="T2" s="142"/>
-      <c r="U2" s="142"/>
-      <c r="V2" s="142"/>
-      <c r="W2" s="143"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="175"/>
     </row>
     <row r="3" spans="2:23" ht="21" thickBot="1">
-      <c r="B3" s="144"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="145"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145"/>
-      <c r="O3" s="145"/>
-      <c r="P3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
-      <c r="S3" s="145"/>
-      <c r="T3" s="145"/>
-      <c r="U3" s="145"/>
-      <c r="V3" s="145"/>
-      <c r="W3" s="146"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
+      <c r="M3" s="177"/>
+      <c r="N3" s="177"/>
+      <c r="O3" s="177"/>
+      <c r="P3" s="177"/>
+      <c r="Q3" s="177"/>
+      <c r="R3" s="177"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="177"/>
+      <c r="U3" s="177"/>
+      <c r="V3" s="177"/>
+      <c r="W3" s="178"/>
     </row>
     <row r="4" spans="2:23" ht="15" thickBot="1">
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="160" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="148"/>
-      <c r="O4" s="148"/>
-      <c r="P4" s="148"/>
-      <c r="Q4" s="148"/>
-      <c r="R4" s="148"/>
-      <c r="S4" s="148"/>
-      <c r="T4" s="148"/>
-      <c r="U4" s="148"/>
-      <c r="V4" s="148"/>
-      <c r="W4" s="149"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="179"/>
+      <c r="H4" s="179"/>
+      <c r="I4" s="179"/>
+      <c r="J4" s="179"/>
+      <c r="K4" s="179"/>
+      <c r="L4" s="179"/>
+      <c r="M4" s="179"/>
+      <c r="N4" s="179"/>
+      <c r="O4" s="179"/>
+      <c r="P4" s="179"/>
+      <c r="Q4" s="179"/>
+      <c r="R4" s="179"/>
+      <c r="S4" s="179"/>
+      <c r="T4" s="179"/>
+      <c r="U4" s="179"/>
+      <c r="V4" s="179"/>
+      <c r="W4" s="161"/>
     </row>
     <row r="5" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="154" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="151"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="154"/>
-      <c r="M5" s="150" t="s">
+      <c r="C5" s="155"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="157"/>
+      <c r="F5" s="157"/>
+      <c r="G5" s="157"/>
+      <c r="H5" s="157"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="157"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="154" t="s">
         <v>272</v>
       </c>
-      <c r="N5" s="155"/>
-      <c r="O5" s="155"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="155"/>
-      <c r="R5" s="155"/>
-      <c r="S5" s="155"/>
-      <c r="T5" s="155"/>
-      <c r="U5" s="151"/>
-      <c r="V5" s="156"/>
-      <c r="W5" s="157"/>
+      <c r="N5" s="159"/>
+      <c r="O5" s="159"/>
+      <c r="P5" s="159"/>
+      <c r="Q5" s="159"/>
+      <c r="R5" s="159"/>
+      <c r="S5" s="159"/>
+      <c r="T5" s="159"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="180"/>
+      <c r="W5" s="181"/>
     </row>
     <row r="6" spans="2:23" ht="15" thickBot="1">
-      <c r="B6" s="150" t="s">
+      <c r="B6" s="154" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="151"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="154"/>
-      <c r="M6" s="150" t="s">
+      <c r="C6" s="155"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="157"/>
+      <c r="L6" s="158"/>
+      <c r="M6" s="154" t="s">
         <v>274</v>
       </c>
-      <c r="N6" s="155"/>
-      <c r="O6" s="155"/>
-      <c r="P6" s="155"/>
-      <c r="Q6" s="155"/>
-      <c r="R6" s="155"/>
-      <c r="S6" s="155"/>
-      <c r="T6" s="155"/>
-      <c r="U6" s="151"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="149"/>
+      <c r="N6" s="159"/>
+      <c r="O6" s="159"/>
+      <c r="P6" s="159"/>
+      <c r="Q6" s="159"/>
+      <c r="R6" s="159"/>
+      <c r="S6" s="159"/>
+      <c r="T6" s="159"/>
+      <c r="U6" s="155"/>
+      <c r="V6" s="160"/>
+      <c r="W6" s="161"/>
     </row>
     <row r="7" spans="2:23" ht="16.5" thickBot="1">
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="162" t="s">
         <v>275</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="161"/>
-      <c r="K7" s="161"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="158" t="s">
+      <c r="C7" s="163"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="162" t="s">
         <v>276</v>
       </c>
-      <c r="N7" s="163"/>
-      <c r="O7" s="163"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="163"/>
-      <c r="R7" s="163"/>
-      <c r="S7" s="163"/>
-      <c r="T7" s="163"/>
-      <c r="U7" s="159"/>
-      <c r="V7" s="164"/>
-      <c r="W7" s="165"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="167"/>
+      <c r="R7" s="167"/>
+      <c r="S7" s="167"/>
+      <c r="T7" s="167"/>
+      <c r="U7" s="163"/>
+      <c r="V7" s="168"/>
+      <c r="W7" s="169"/>
     </row>
     <row r="8" spans="2:23" ht="15" thickBot="1">
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="144" t="s">
         <v>277</v>
       </c>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
-      <c r="O8" s="167"/>
-      <c r="P8" s="167"/>
-      <c r="Q8" s="167"/>
-      <c r="R8" s="167"/>
-      <c r="S8" s="167"/>
-      <c r="T8" s="167"/>
-      <c r="U8" s="167"/>
-      <c r="V8" s="167"/>
-      <c r="W8" s="168"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="146"/>
     </row>
     <row r="9" spans="2:23">
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="147" t="s">
         <v>278</v>
       </c>
-      <c r="C9" s="170"/>
-      <c r="D9" s="171" t="s">
+      <c r="C9" s="148"/>
+      <c r="D9" s="149" t="s">
         <v>279</v>
       </c>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="172"/>
-      <c r="M9" s="172"/>
-      <c r="N9" s="172"/>
-      <c r="O9" s="172"/>
-      <c r="P9" s="172"/>
-      <c r="Q9" s="172"/>
-      <c r="R9" s="172"/>
-      <c r="S9" s="172"/>
-      <c r="T9" s="172"/>
-      <c r="U9" s="173"/>
-      <c r="V9" s="170" t="s">
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="150"/>
+      <c r="Q9" s="150"/>
+      <c r="R9" s="150"/>
+      <c r="S9" s="150"/>
+      <c r="T9" s="150"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="148" t="s">
         <v>280</v>
       </c>
-      <c r="W9" s="175" t="s">
+      <c r="W9" s="152" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="10" spans="2:23" ht="15" thickBot="1">
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="140" t="s">
         <v>282</v>
       </c>
-      <c r="C10" s="178"/>
+      <c r="C10" s="141"/>
       <c r="D10" s="61" t="s">
         <v>283</v>
       </c>
@@ -7061,12 +7331,12 @@
       <c r="U10" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="V10" s="174"/>
-      <c r="W10" s="176"/>
+      <c r="V10" s="151"/>
+      <c r="W10" s="153"/>
     </row>
     <row r="11" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B11" s="181"/>
-      <c r="C11" s="173"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="143"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
@@ -7089,8 +7359,8 @@
       <c r="W11" s="63"/>
     </row>
     <row r="12" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B12" s="179"/>
-      <c r="C12" s="180"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
       <c r="F12" s="64"/>
@@ -7113,8 +7383,8 @@
       <c r="W12" s="65"/>
     </row>
     <row r="13" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B13" s="179"/>
-      <c r="C13" s="180"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="139"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
       <c r="F13" s="64"/>
@@ -7137,8 +7407,8 @@
       <c r="W13" s="65"/>
     </row>
     <row r="14" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B14" s="179"/>
-      <c r="C14" s="180"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="139"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -7161,8 +7431,8 @@
       <c r="W14" s="65"/>
     </row>
     <row r="15" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B15" s="179"/>
-      <c r="C15" s="180"/>
+      <c r="B15" s="138"/>
+      <c r="C15" s="139"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
       <c r="F15" s="64"/>
@@ -7185,8 +7455,8 @@
       <c r="W15" s="65"/>
     </row>
     <row r="16" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B16" s="179"/>
-      <c r="C16" s="180"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="139"/>
       <c r="D16" s="64"/>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -7209,8 +7479,8 @@
       <c r="W16" s="65"/>
     </row>
     <row r="17" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B17" s="179"/>
-      <c r="C17" s="180"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="139"/>
       <c r="D17" s="64"/>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -7233,8 +7503,8 @@
       <c r="W17" s="65"/>
     </row>
     <row r="18" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B18" s="179"/>
-      <c r="C18" s="180"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="139"/>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
       <c r="F18" s="64"/>
@@ -7257,8 +7527,8 @@
       <c r="W18" s="65"/>
     </row>
     <row r="19" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B19" s="179"/>
-      <c r="C19" s="180"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="139"/>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
       <c r="F19" s="64"/>
@@ -7281,8 +7551,8 @@
       <c r="W19" s="65"/>
     </row>
     <row r="20" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B20" s="179"/>
-      <c r="C20" s="180"/>
+      <c r="B20" s="138"/>
+      <c r="C20" s="139"/>
       <c r="D20" s="64"/>
       <c r="E20" s="64"/>
       <c r="F20" s="64"/>
@@ -7305,8 +7575,8 @@
       <c r="W20" s="65"/>
     </row>
     <row r="21" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B21" s="179"/>
-      <c r="C21" s="180"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
       <c r="F21" s="64"/>
@@ -7329,8 +7599,8 @@
       <c r="W21" s="65"/>
     </row>
     <row r="22" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B22" s="179"/>
-      <c r="C22" s="180"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="139"/>
       <c r="D22" s="64"/>
       <c r="E22" s="64"/>
       <c r="F22" s="64"/>
@@ -7353,8 +7623,8 @@
       <c r="W22" s="65"/>
     </row>
     <row r="23" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B23" s="179"/>
-      <c r="C23" s="180"/>
+      <c r="B23" s="138"/>
+      <c r="C23" s="139"/>
       <c r="D23" s="64"/>
       <c r="E23" s="64"/>
       <c r="F23" s="64"/>
@@ -7377,8 +7647,8 @@
       <c r="W23" s="65"/>
     </row>
     <row r="24" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B24" s="179"/>
-      <c r="C24" s="180"/>
+      <c r="B24" s="138"/>
+      <c r="C24" s="139"/>
       <c r="D24" s="64"/>
       <c r="E24" s="64"/>
       <c r="F24" s="64"/>
@@ -7401,8 +7671,8 @@
       <c r="W24" s="65"/>
     </row>
     <row r="25" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B25" s="179"/>
-      <c r="C25" s="180"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="139"/>
       <c r="D25" s="64"/>
       <c r="E25" s="64"/>
       <c r="F25" s="64"/>
@@ -7425,8 +7695,8 @@
       <c r="W25" s="65"/>
     </row>
     <row r="26" spans="2:23" ht="19.5" customHeight="1">
-      <c r="B26" s="179"/>
-      <c r="C26" s="180"/>
+      <c r="B26" s="138"/>
+      <c r="C26" s="139"/>
       <c r="D26" s="64"/>
       <c r="E26" s="64"/>
       <c r="F26" s="64"/>
@@ -7449,8 +7719,8 @@
       <c r="W26" s="65"/>
     </row>
     <row r="27" spans="2:23" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B27" s="177"/>
-      <c r="C27" s="178"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="141"/>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
@@ -7474,11 +7744,28 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B1:W1"/>
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B3:W3"/>
+    <mergeCell ref="B4:W4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="B8:W8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:U9"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
@@ -7491,28 +7778,11 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B8:W8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:U9"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="B1:W1"/>
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="B3:W3"/>
-    <mergeCell ref="B4:W4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7542,84 +7812,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="13.5" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="70" t="s">
+      <c r="I1" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71" t="s">
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71" t="s">
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77" t="s">
         <v>128</v>
       </c>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71" t="s">
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71" t="s">
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71" t="s">
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
       <c r="K2" s="13" t="s">
         <v>122</v>
       </c>
@@ -7694,10 +7964,10 @@
       </c>
     </row>
     <row r="3" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="70" t="s">
         <v>138</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -7706,22 +7976,22 @@
       <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="73">
         <v>44197</v>
       </c>
-      <c r="F3" s="75">
+      <c r="F3" s="73">
         <v>44316</v>
       </c>
-      <c r="G3" s="78">
+      <c r="G3" s="76">
         <v>90</v>
       </c>
-      <c r="H3" s="78">
+      <c r="H3" s="76">
         <v>16</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="76">
         <v>120</v>
       </c>
-      <c r="J3" s="78">
+      <c r="J3" s="76">
         <v>50</v>
       </c>
       <c r="K3" s="31"/>
@@ -7750,20 +8020,20 @@
       <c r="AH3" s="13"/>
     </row>
     <row r="4" spans="1:34">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
       <c r="K4" s="13"/>
       <c r="L4" s="13"/>
       <c r="M4" s="31"/>
@@ -7790,20 +8060,20 @@
       <c r="AH4" s="13"/>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -7830,20 +8100,20 @@
       <c r="AH5" s="13"/>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="73"/>
-      <c r="B6" s="73"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -7870,20 +8140,20 @@
       <c r="AH6" s="13"/>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="73"/>
-      <c r="B7" s="73"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
@@ -7910,18 +8180,18 @@
       <c r="AH7" s="13"/>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" s="73"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="28">
         <v>2</v>
       </c>
@@ -7980,8 +8250,8 @@
       <c r="AH8" s="28"/>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="73"/>
-      <c r="B9" s="72" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="70" t="s">
         <v>144</v>
       </c>
       <c r="C9" s="13" t="s">
@@ -7990,22 +8260,22 @@
       <c r="D9" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="73">
         <v>44228</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="73">
         <v>44377</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="76">
         <v>110</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="76">
         <v>16</v>
       </c>
-      <c r="I9" s="78">
+      <c r="I9" s="76">
         <v>120</v>
       </c>
-      <c r="J9" s="78">
+      <c r="J9" s="76">
         <v>50</v>
       </c>
       <c r="K9" s="30"/>
@@ -8034,20 +8304,20 @@
       <c r="AH9" s="13"/>
     </row>
     <row r="10" spans="1:34">
-      <c r="A10" s="73"/>
-      <c r="B10" s="73"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
       <c r="M10" s="30"/>
@@ -8074,20 +8344,20 @@
       <c r="AH10" s="13"/>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="73"/>
-      <c r="B11" s="73"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
@@ -8114,20 +8384,20 @@
       <c r="AH11" s="13"/>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="73"/>
-      <c r="B12" s="73"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="13" t="s">
         <v>135</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
       <c r="K12" s="30"/>
       <c r="L12" s="30"/>
       <c r="M12" s="30"/>
@@ -8154,20 +8424,20 @@
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:34">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="13" t="s">
         <v>136</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
       <c r="M13" s="30"/>
@@ -8194,18 +8464,18 @@
       <c r="AH13" s="31"/>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="28">
         <v>2</v>
       </c>
@@ -8379,6 +8649,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="D8:J8"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="B9:B14"/>
@@ -8395,23 +8682,6 @@
     <mergeCell ref="D14:J14"/>
     <mergeCell ref="E3:E7"/>
     <mergeCell ref="F3:F7"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8423,8 +8693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518FA7ED-0A08-4808-A9D5-0F278482ED56}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8531,6 +8801,354 @@
       </c>
       <c r="I5" t="s">
         <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94537419-E37A-43FD-A834-AB3CA0CB1625}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="186" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" outlineLevel="2">
+      <c r="A3" s="183" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" outlineLevel="2">
+      <c r="A4" s="183" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" outlineLevel="2">
+      <c r="A5" s="183" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" outlineLevel="2">
+      <c r="A6" s="183" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="186" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" outlineLevel="1">
+      <c r="A8" s="183" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" outlineLevel="1">
+      <c r="A9" s="183" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" outlineLevel="1">
+      <c r="A10" s="183" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" outlineLevel="1">
+      <c r="A11" s="183" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" outlineLevel="1">
+      <c r="A12" s="183" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="186" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" outlineLevel="1">
+      <c r="A14" s="182" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" outlineLevel="1">
+      <c r="A15" s="182" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="186" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" outlineLevel="1">
+      <c r="A17" s="182" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" outlineLevel="1">
+      <c r="A18" s="182" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" outlineLevel="1">
+      <c r="A19" s="182" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" outlineLevel="1">
+      <c r="A20" s="182" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" outlineLevel="1">
+      <c r="A21" s="182" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="185" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" outlineLevel="1">
+      <c r="A23" s="182" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" outlineLevel="1">
+      <c r="A24" s="182" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" outlineLevel="1">
+      <c r="A25" s="182" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" outlineLevel="1">
+      <c r="A26" s="182" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" outlineLevel="1">
+      <c r="A27" s="182" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" outlineLevel="1">
+      <c r="A28" s="182" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" outlineLevel="1">
+      <c r="A29" s="182" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="185" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" outlineLevel="1">
+      <c r="A31" s="182" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" outlineLevel="1">
+      <c r="A32" s="182" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" outlineLevel="1">
+      <c r="A33" s="182" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" outlineLevel="1">
+      <c r="A34" s="182" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="185" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" outlineLevel="1">
+      <c r="A36" s="182" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" outlineLevel="1">
+      <c r="A37" s="182" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" outlineLevel="1">
+      <c r="A38" s="182" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="185" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" outlineLevel="1">
+      <c r="A40" s="182" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" outlineLevel="1">
+      <c r="A41" s="182" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" outlineLevel="1">
+      <c r="A42" s="182" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="185" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="185" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="185" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" outlineLevel="1">
+      <c r="A46" s="184" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" outlineLevel="1">
+      <c r="A47" s="184" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" outlineLevel="1">
+      <c r="A48" s="184" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" outlineLevel="1">
+      <c r="A49" s="184" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" outlineLevel="1">
+      <c r="A50" s="184" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="185" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" outlineLevel="1">
+      <c r="A52" s="184" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" outlineLevel="1">
+      <c r="A53" s="184" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" outlineLevel="1">
+      <c r="A54" s="184" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" outlineLevel="1">
+      <c r="A55" s="184" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" outlineLevel="1">
+      <c r="A56" s="184" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" outlineLevel="1">
+      <c r="A57" s="184" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="185" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" outlineLevel="1">
+      <c r="A59" s="184" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" outlineLevel="1">
+      <c r="A60" s="184" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" outlineLevel="1">
+      <c r="A61" s="184" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" outlineLevel="1">
+      <c r="A62" s="184" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="185" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" outlineLevel="1">
+      <c r="A64" s="184" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" outlineLevel="1">
+      <c r="A65" s="184" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
